--- a/BackTest/2019-11-26 BackTest FCT.xlsx
+++ b/BackTest/2019-11-26 BackTest FCT.xlsx
@@ -456,12 +456,8 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -496,16 +492,12 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>88.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="K3" t="n">
         <v>88.3</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -589,7 +581,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -632,7 +624,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -662,14 +654,12 @@
         <v>88.90000000000023</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>88.8</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
         <v>88.3</v>
       </c>
@@ -705,14 +695,12 @@
         <v>89.05000000000021</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>89.09999999999999</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
         <v>88.3</v>
       </c>
@@ -748,14 +736,12 @@
         <v>89.00000000000023</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>88.90000000000001</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
         <v>88.3</v>
       </c>
@@ -791,14 +777,12 @@
         <v>88.85000000000024</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>88.8</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>88.3</v>
       </c>
@@ -834,14 +818,12 @@
         <v>88.85000000000024</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>88.90000000000001</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>88.3</v>
       </c>
@@ -877,14 +859,12 @@
         <v>88.95000000000024</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>88.90000000000001</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
         <v>88.3</v>
       </c>
@@ -920,14 +900,12 @@
         <v>89.05000000000022</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>89</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
         <v>88.3</v>
       </c>
@@ -1168,14 +1146,12 @@
         <v>87.50000000000021</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>87.90000000000001</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
         <v>88.3</v>
       </c>
@@ -1211,14 +1187,12 @@
         <v>87.55000000000022</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>88</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
         <v>88.3</v>
       </c>
@@ -1254,14 +1228,12 @@
         <v>88.00000000000024</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>88</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
         <v>88.3</v>
       </c>
@@ -1297,14 +1269,12 @@
         <v>88.00000000000023</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>88</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
         <v>88.3</v>
       </c>
@@ -1340,14 +1310,12 @@
         <v>88.00000000000023</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>88</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
         <v>88.3</v>
       </c>
@@ -1383,14 +1351,12 @@
         <v>88.00000000000023</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>88</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
         <v>88.3</v>
       </c>
@@ -1426,14 +1392,12 @@
         <v>88.00000000000023</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>88</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
         <v>88.3</v>
       </c>
@@ -1469,14 +1433,12 @@
         <v>88.00000000000023</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>88</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
         <v>88.3</v>
       </c>
@@ -1512,14 +1474,12 @@
         <v>87.80000000000024</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>87.59999999999999</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
         <v>88.3</v>
       </c>
@@ -1555,14 +1515,12 @@
         <v>87.60000000000025</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>87.59999999999999</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
         <v>88.3</v>
       </c>
@@ -1598,14 +1556,12 @@
         <v>87.45000000000026</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>87.59999999999999</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
         <v>88.3</v>
       </c>
@@ -1641,14 +1597,12 @@
         <v>87.45000000000026</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>87.59999999999999</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
         <v>88.3</v>
       </c>
@@ -1684,14 +1638,12 @@
         <v>87.70000000000024</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>87.8</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
         <v>88.3</v>
       </c>
@@ -1727,14 +1679,12 @@
         <v>87.70000000000023</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>87.8</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
         <v>88.3</v>
       </c>
@@ -1770,14 +1720,12 @@
         <v>87.75000000000023</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>87.59999999999999</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
         <v>88.3</v>
       </c>
@@ -1813,14 +1761,12 @@
         <v>87.95000000000023</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>88</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
         <v>88.3</v>
       </c>
@@ -1856,14 +1802,12 @@
         <v>87.80000000000022</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>87.59999999999999</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
         <v>88.3</v>
       </c>
@@ -1899,14 +1843,12 @@
         <v>87.80000000000024</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>87.7</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
         <v>88.3</v>
       </c>
@@ -1942,14 +1884,12 @@
         <v>88.00000000000024</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>88</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>88.3</v>
       </c>
@@ -1985,14 +1925,12 @@
         <v>88.00000000000023</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>87.7</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
         <v>88.3</v>
       </c>
@@ -2028,14 +1966,12 @@
         <v>88.00000000000023</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>88</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
         <v>88.3</v>
       </c>
@@ -2071,14 +2007,12 @@
         <v>88.20000000000022</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>87.8</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
         <v>88.3</v>
       </c>
@@ -2114,14 +2048,12 @@
         <v>88.10000000000022</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>87.8</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
         <v>88.3</v>
       </c>
@@ -2157,14 +2089,12 @@
         <v>87.80000000000022</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>87.8</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>88.3</v>
       </c>
@@ -2200,14 +2130,12 @@
         <v>87.95000000000022</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>87.59999999999999</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
         <v>88.3</v>
       </c>
@@ -2325,14 +2253,12 @@
         <v>88.15000000000022</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>88.2</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
         <v>88.3</v>
       </c>
@@ -2368,14 +2294,12 @@
         <v>88.20000000000023</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>88.2</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
         <v>88.3</v>
       </c>
@@ -2411,14 +2335,12 @@
         <v>88.30000000000024</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>88.40000000000001</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
         <v>88.3</v>
       </c>
@@ -2454,14 +2376,12 @@
         <v>88.10000000000025</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>87.8</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
         <v>88.3</v>
       </c>
@@ -2497,14 +2417,12 @@
         <v>88.10000000000024</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>88.40000000000001</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
         <v>88.3</v>
       </c>
@@ -2540,14 +2458,12 @@
         <v>88.40000000000023</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>88.40000000000001</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
         <v>88.3</v>
       </c>
@@ -2583,14 +2499,12 @@
         <v>88.40000000000025</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>88.40000000000001</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
         <v>88.3</v>
       </c>
@@ -2626,14 +2540,12 @@
         <v>88.55000000000025</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>88.7</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
         <v>88.3</v>
       </c>
@@ -2669,14 +2581,12 @@
         <v>88.55000000000025</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>88.40000000000001</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
         <v>88.3</v>
       </c>
@@ -2712,14 +2622,12 @@
         <v>88.55000000000027</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>88.7</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>88.3</v>
       </c>
@@ -2755,14 +2663,12 @@
         <v>88.75000000000027</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>88.8</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
         <v>88.3</v>
       </c>
@@ -2798,14 +2704,12 @@
         <v>88.75000000000028</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>88.7</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
         <v>88.3</v>
       </c>
@@ -2841,14 +2745,12 @@
         <v>88.55000000000027</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>88.40000000000001</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
         <v>88.3</v>
       </c>
@@ -2884,14 +2786,12 @@
         <v>88.25000000000026</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>88.40000000000001</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
         <v>88.3</v>
       </c>
@@ -2927,14 +2827,12 @@
         <v>88.15000000000025</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>88.5</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
         <v>88.3</v>
       </c>
@@ -2970,14 +2868,12 @@
         <v>88.20000000000026</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
         <v>88.3</v>
       </c>
@@ -3013,14 +2909,12 @@
         <v>88.10000000000028</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>88</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
         <v>88.3</v>
       </c>
@@ -3056,14 +2950,12 @@
         <v>88.25000000000028</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>88.5</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
         <v>88.3</v>
       </c>
@@ -3099,14 +2991,12 @@
         <v>88.50000000000028</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>88.5</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
         <v>88.3</v>
       </c>
@@ -3142,14 +3032,12 @@
         <v>88.60000000000028</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>88.7</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
         <v>88.3</v>
       </c>
@@ -3185,14 +3073,12 @@
         <v>88.70000000000027</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>88.7</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
         <v>88.3</v>
       </c>
@@ -3228,14 +3114,12 @@
         <v>88.70000000000027</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>88.7</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
         <v>88.3</v>
       </c>
@@ -3271,14 +3155,12 @@
         <v>88.70000000000027</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>88.7</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
         <v>88.3</v>
       </c>
@@ -3314,14 +3196,12 @@
         <v>88.90000000000029</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>88.8</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
         <v>88.3</v>
       </c>
@@ -3357,14 +3237,12 @@
         <v>89.25000000000031</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>89.40000000000001</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
         <v>88.3</v>
       </c>
@@ -3400,14 +3278,12 @@
         <v>89.40000000000033</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>89.40000000000001</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
         <v>88.3</v>
       </c>
@@ -3443,14 +3319,12 @@
         <v>90.55000000000034</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>89.59999999999999</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
         <v>88.3</v>
       </c>
@@ -3486,14 +3360,12 @@
         <v>90.55000000000034</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>89.40000000000001</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
         <v>88.3</v>
       </c>
@@ -5951,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
@@ -5959,11 +5831,11 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>1.086732729331824</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -5992,11 +5864,17 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -6027,11 +5905,17 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -6062,11 +5946,17 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -6097,11 +5987,17 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6132,11 +6028,17 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6167,11 +6069,17 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6205,10 +6113,16 @@
         <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M140" t="n">
-        <v>1</v>
+        <v>1.127502831257078</v>
       </c>
     </row>
     <row r="141">
@@ -6237,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -6272,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -6307,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -6342,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>

--- a/BackTest/2019-11-26 BackTest FCT.xlsx
+++ b/BackTest/2019-11-26 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M287"/>
+  <dimension ref="A1:M288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>88.3</v>
+        <v>87.7</v>
       </c>
       <c r="C2" t="n">
         <v>88.3</v>
@@ -442,16 +442,16 @@
         <v>88.3</v>
       </c>
       <c r="E2" t="n">
-        <v>88.3</v>
+        <v>87.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1001.014</v>
+        <v>13029.2242</v>
       </c>
       <c r="G2" t="n">
-        <v>88.30000000000024</v>
+        <v>89.05333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,35 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>88.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="C3" t="n">
-        <v>88.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="D3" t="n">
-        <v>88.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="E3" t="n">
-        <v>88.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>1001.014</v>
       </c>
       <c r="G3" t="n">
-        <v>88.35000000000022</v>
+        <v>89.07166666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -519,28 +515,20 @@
         <v>88.40000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>158.6782</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="n">
-        <v>88.40000000000023</v>
+        <v>89.08833333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -553,37 +541,29 @@
         <v>88.40000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>88.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>88.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>88.40000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>1003.44</v>
+        <v>158.6782</v>
       </c>
       <c r="G5" t="n">
-        <v>88.55000000000022</v>
+        <v>89.105</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="K5" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -593,40 +573,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C6" t="n">
         <v>88.7</v>
       </c>
-      <c r="C6" t="n">
-        <v>88.8</v>
-      </c>
       <c r="D6" t="n">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="E6" t="n">
-        <v>88.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>854.7089999999999</v>
+        <v>1003.44</v>
       </c>
       <c r="G6" t="n">
-        <v>88.75000000000021</v>
+        <v>89.13500000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="K6" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -636,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="C7" t="n">
         <v>88.8</v>
       </c>
-      <c r="C7" t="n">
-        <v>89</v>
-      </c>
       <c r="D7" t="n">
-        <v>89</v>
+        <v>88.8</v>
       </c>
       <c r="E7" t="n">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1286.8093</v>
+        <v>854.7089999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>88.90000000000023</v>
+        <v>89.16666666666669</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -660,14 +632,8 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -677,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>89.09999999999999</v>
+        <v>88.8</v>
       </c>
       <c r="C8" t="n">
-        <v>89.09999999999999</v>
+        <v>89</v>
       </c>
       <c r="D8" t="n">
-        <v>89.09999999999999</v>
+        <v>89</v>
       </c>
       <c r="E8" t="n">
-        <v>89.09999999999999</v>
+        <v>88.8</v>
       </c>
       <c r="F8" t="n">
-        <v>5.6</v>
+        <v>1286.8093</v>
       </c>
       <c r="G8" t="n">
-        <v>89.05000000000021</v>
+        <v>89.20000000000002</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -701,14 +667,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -718,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>88.90000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>88.90000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>88.90000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>88.90000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>142.9539</v>
+        <v>5.6</v>
       </c>
       <c r="G9" t="n">
-        <v>89.00000000000023</v>
+        <v>89.23333333333335</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -742,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -759,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>88.8</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>88.8</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>88.8</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>88.8</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>1156.7644</v>
+        <v>142.9539</v>
       </c>
       <c r="G10" t="n">
-        <v>88.85000000000024</v>
+        <v>89.25000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -783,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -800,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>88.90000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="C11" t="n">
-        <v>88.90000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="D11" t="n">
-        <v>88.90000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="E11" t="n">
-        <v>88.90000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="F11" t="n">
-        <v>5.7</v>
+        <v>1156.7644</v>
       </c>
       <c r="G11" t="n">
-        <v>88.85000000000024</v>
+        <v>89.26500000000003</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -824,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -844,19 +786,19 @@
         <v>88.90000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>89</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>89</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="E12" t="n">
         <v>88.90000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>10390.4639</v>
+        <v>5.7</v>
       </c>
       <c r="G12" t="n">
-        <v>88.95000000000024</v>
+        <v>89.28666666666668</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -865,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -882,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="C13" t="n">
         <v>89</v>
       </c>
-      <c r="C13" t="n">
-        <v>89.09999999999999</v>
-      </c>
       <c r="D13" t="n">
-        <v>89.09999999999999</v>
+        <v>89</v>
       </c>
       <c r="E13" t="n">
-        <v>89</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>11317.2629</v>
+        <v>10390.4639</v>
       </c>
       <c r="G13" t="n">
-        <v>89.05000000000022</v>
+        <v>89.31</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -906,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -923,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>88.7</v>
+        <v>89</v>
       </c>
       <c r="C14" t="n">
-        <v>88.7</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>88.7</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>88.7</v>
+        <v>89</v>
       </c>
       <c r="F14" t="n">
-        <v>394.5885</v>
+        <v>11317.2629</v>
       </c>
       <c r="G14" t="n">
-        <v>88.90000000000023</v>
+        <v>89.32166666666669</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -947,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -964,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>89.09999999999999</v>
+        <v>88.7</v>
       </c>
       <c r="C15" t="n">
-        <v>89.09999999999999</v>
+        <v>88.7</v>
       </c>
       <c r="D15" t="n">
-        <v>89.09999999999999</v>
+        <v>88.7</v>
       </c>
       <c r="E15" t="n">
-        <v>89.09999999999999</v>
+        <v>88.7</v>
       </c>
       <c r="F15" t="n">
-        <v>400.2885</v>
+        <v>394.5885</v>
       </c>
       <c r="G15" t="n">
-        <v>88.90000000000022</v>
+        <v>89.32666666666668</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -988,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1005,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>88.3</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>88.3</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>88.3</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>88.3</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>20.5032</v>
+        <v>400.2885</v>
       </c>
       <c r="G16" t="n">
-        <v>88.70000000000022</v>
+        <v>89.32833333333336</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1029,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1049,19 +961,19 @@
         <v>88.3</v>
       </c>
       <c r="C17" t="n">
-        <v>87.90000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="D17" t="n">
         <v>88.3</v>
       </c>
       <c r="E17" t="n">
-        <v>87.90000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="F17" t="n">
-        <v>7678.5215</v>
+        <v>20.5032</v>
       </c>
       <c r="G17" t="n">
-        <v>88.10000000000021</v>
+        <v>89.31666666666669</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1070,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1087,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>87.90000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="C18" t="n">
         <v>87.90000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>87.90000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="E18" t="n">
         <v>87.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>4699.5581</v>
+        <v>7678.5215</v>
       </c>
       <c r="G18" t="n">
-        <v>87.9000000000002</v>
+        <v>89.28000000000002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1111,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1131,19 +1031,19 @@
         <v>87.90000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>87.09999999999999</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="D19" t="n">
         <v>87.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>87.09999999999999</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>55933.6604</v>
+        <v>4699.5581</v>
       </c>
       <c r="G19" t="n">
-        <v>87.50000000000021</v>
+        <v>89.23000000000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1152,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1169,36 +1063,36 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>88</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>88</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>88</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>88</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>55933.6604</v>
       </c>
       <c r="G20" t="n">
-        <v>87.55000000000022</v>
+        <v>89.15166666666669</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="J20" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -1222,21 +1116,21 @@
         <v>88</v>
       </c>
       <c r="F21" t="n">
-        <v>1000.2525</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>88.00000000000024</v>
+        <v>89.08500000000002</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="J21" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1263,21 +1157,21 @@
         <v>88</v>
       </c>
       <c r="F22" t="n">
-        <v>36.109</v>
+        <v>1000.2525</v>
       </c>
       <c r="G22" t="n">
-        <v>88.00000000000023</v>
+        <v>89.02000000000002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="J22" t="n">
+        <v>88</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1304,21 +1198,21 @@
         <v>88</v>
       </c>
       <c r="F23" t="n">
-        <v>147.9649</v>
+        <v>36.109</v>
       </c>
       <c r="G23" t="n">
-        <v>88.00000000000023</v>
+        <v>88.95333333333336</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="J23" t="n">
+        <v>88</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1345,21 +1239,21 @@
         <v>88</v>
       </c>
       <c r="F24" t="n">
-        <v>500</v>
+        <v>147.9649</v>
       </c>
       <c r="G24" t="n">
-        <v>88.00000000000023</v>
+        <v>88.8866666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="J24" t="n">
+        <v>88</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1386,21 +1280,21 @@
         <v>88</v>
       </c>
       <c r="F25" t="n">
-        <v>352.0351</v>
+        <v>500</v>
       </c>
       <c r="G25" t="n">
-        <v>88.00000000000023</v>
+        <v>88.82833333333336</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="J25" t="n">
+        <v>88</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1427,21 +1321,21 @@
         <v>88</v>
       </c>
       <c r="F26" t="n">
-        <v>77</v>
+        <v>352.0351</v>
       </c>
       <c r="G26" t="n">
-        <v>88.00000000000023</v>
+        <v>88.7616666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="J26" t="n">
+        <v>88</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1456,33 +1350,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>87.59999999999999</v>
+        <v>88</v>
       </c>
       <c r="C27" t="n">
-        <v>87.59999999999999</v>
+        <v>88</v>
       </c>
       <c r="D27" t="n">
-        <v>87.59999999999999</v>
+        <v>88</v>
       </c>
       <c r="E27" t="n">
-        <v>87.59999999999999</v>
+        <v>88</v>
       </c>
       <c r="F27" t="n">
-        <v>399.5434</v>
+        <v>77</v>
       </c>
       <c r="G27" t="n">
-        <v>87.80000000000024</v>
+        <v>88.70333333333336</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="J27" t="n">
+        <v>88</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1509,21 +1403,21 @@
         <v>87.59999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>5496.2846</v>
+        <v>399.5434</v>
       </c>
       <c r="G28" t="n">
-        <v>87.60000000000025</v>
+        <v>88.64166666666669</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="J28" t="n">
+        <v>88</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1541,19 +1435,19 @@
         <v>87.59999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>87.3</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="D29" t="n">
         <v>87.59999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>87.3</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>5839.7208</v>
+        <v>5496.2846</v>
       </c>
       <c r="G29" t="n">
-        <v>87.45000000000026</v>
+        <v>88.57333333333337</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1562,9 +1456,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1582,19 +1474,19 @@
         <v>87.59999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>87.59999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="D30" t="n">
         <v>87.59999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>87.59999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="F30" t="n">
-        <v>9112.960300000001</v>
+        <v>5839.7208</v>
       </c>
       <c r="G30" t="n">
-        <v>87.45000000000026</v>
+        <v>88.50833333333338</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1603,9 +1495,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1620,22 +1510,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>87.8</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>87.8</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>87.8</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>87.8</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>5.6948</v>
+        <v>9112.960300000001</v>
       </c>
       <c r="G31" t="n">
-        <v>87.70000000000024</v>
+        <v>88.45500000000006</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1644,9 +1534,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1664,19 +1552,19 @@
         <v>87.8</v>
       </c>
       <c r="C32" t="n">
-        <v>87.59999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="D32" t="n">
         <v>87.8</v>
       </c>
       <c r="E32" t="n">
-        <v>87.59999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="F32" t="n">
-        <v>23775.0309</v>
+        <v>5.6948</v>
       </c>
       <c r="G32" t="n">
-        <v>87.70000000000023</v>
+        <v>88.41833333333338</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1685,9 +1573,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1702,22 +1588,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="C33" t="n">
         <v>87.59999999999999</v>
       </c>
-      <c r="C33" t="n">
-        <v>87.90000000000001</v>
-      </c>
       <c r="D33" t="n">
-        <v>87.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="E33" t="n">
         <v>87.59999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>1819.3524</v>
+        <v>23775.0309</v>
       </c>
       <c r="G33" t="n">
-        <v>87.75000000000023</v>
+        <v>88.37000000000006</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1726,9 +1612,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1743,22 +1627,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>88</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>88</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>88</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>88</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>17104.5907</v>
+        <v>1819.3524</v>
       </c>
       <c r="G34" t="n">
-        <v>87.95000000000023</v>
+        <v>88.32666666666672</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1767,9 +1651,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1784,22 +1666,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>87.59999999999999</v>
+        <v>88</v>
       </c>
       <c r="C35" t="n">
-        <v>87.59999999999999</v>
+        <v>88</v>
       </c>
       <c r="D35" t="n">
-        <v>87.59999999999999</v>
+        <v>88</v>
       </c>
       <c r="E35" t="n">
-        <v>87.59999999999999</v>
+        <v>88</v>
       </c>
       <c r="F35" t="n">
-        <v>500</v>
+        <v>17104.5907</v>
       </c>
       <c r="G35" t="n">
-        <v>87.80000000000022</v>
+        <v>88.27833333333339</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1808,9 +1690,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1825,22 +1705,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>87.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>88</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>88</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>87.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>12210.7608</v>
+        <v>500</v>
       </c>
       <c r="G36" t="n">
-        <v>87.80000000000024</v>
+        <v>88.25333333333339</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1849,9 +1729,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1866,7 +1744,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>88</v>
+        <v>87.7</v>
       </c>
       <c r="C37" t="n">
         <v>88</v>
@@ -1875,13 +1753,13 @@
         <v>88</v>
       </c>
       <c r="E37" t="n">
-        <v>88</v>
+        <v>87.7</v>
       </c>
       <c r="F37" t="n">
-        <v>27.7056</v>
+        <v>12210.7608</v>
       </c>
       <c r="G37" t="n">
-        <v>88.00000000000024</v>
+        <v>88.23666666666672</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1890,9 +1768,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1907,7 +1783,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>87.7</v>
+        <v>88</v>
       </c>
       <c r="C38" t="n">
         <v>88</v>
@@ -1916,13 +1792,13 @@
         <v>88</v>
       </c>
       <c r="E38" t="n">
-        <v>87.59999999999999</v>
+        <v>88</v>
       </c>
       <c r="F38" t="n">
-        <v>1329.589</v>
+        <v>27.7056</v>
       </c>
       <c r="G38" t="n">
-        <v>88.00000000000023</v>
+        <v>88.2283333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1931,9 +1807,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1948,7 +1822,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>88</v>
+        <v>87.7</v>
       </c>
       <c r="C39" t="n">
         <v>88</v>
@@ -1957,13 +1831,13 @@
         <v>88</v>
       </c>
       <c r="E39" t="n">
-        <v>88</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>60.3475</v>
+        <v>1329.589</v>
       </c>
       <c r="G39" t="n">
-        <v>88.00000000000023</v>
+        <v>88.22166666666674</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1972,9 +1846,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1989,33 +1861,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>87.8</v>
+        <v>88</v>
       </c>
       <c r="C40" t="n">
-        <v>88.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="D40" t="n">
-        <v>88.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="E40" t="n">
-        <v>87.7</v>
+        <v>88</v>
       </c>
       <c r="F40" t="n">
-        <v>141650.1689</v>
+        <v>60.3475</v>
       </c>
       <c r="G40" t="n">
-        <v>88.20000000000022</v>
+        <v>88.21500000000007</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="J40" t="n">
+        <v>88</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2033,30 +1905,30 @@
         <v>87.8</v>
       </c>
       <c r="C41" t="n">
-        <v>87.8</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>87.8</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="F41" t="n">
-        <v>336582.242</v>
+        <v>141650.1689</v>
       </c>
       <c r="G41" t="n">
-        <v>88.10000000000022</v>
+        <v>88.2083333333334</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="J41" t="n">
+        <v>88</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2083,21 +1955,21 @@
         <v>87.8</v>
       </c>
       <c r="F42" t="n">
-        <v>927179.8245</v>
+        <v>336582.242</v>
       </c>
       <c r="G42" t="n">
-        <v>87.80000000000022</v>
+        <v>88.19833333333341</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="J42" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2112,22 +1984,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>87.59999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="C43" t="n">
-        <v>88.09999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="D43" t="n">
-        <v>88.09999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="E43" t="n">
-        <v>87.59999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="F43" t="n">
-        <v>12.1577</v>
+        <v>927179.8245</v>
       </c>
       <c r="G43" t="n">
-        <v>87.95000000000022</v>
+        <v>88.19500000000008</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2136,9 +2008,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2156,19 +2026,19 @@
         <v>87.59999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>87.59999999999999</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>87.59999999999999</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E44" t="n">
         <v>87.59999999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>843.8819</v>
+        <v>12.1577</v>
       </c>
       <c r="G44" t="n">
-        <v>87.85000000000022</v>
+        <v>88.19500000000008</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2177,9 +2047,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2194,22 +2062,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>88.09999999999999</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>88.09999999999999</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>88.09999999999999</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>88.09999999999999</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>5.7</v>
+        <v>843.8819</v>
       </c>
       <c r="G45" t="n">
-        <v>87.85000000000021</v>
+        <v>88.18500000000009</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2218,9 +2086,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2235,22 +2101,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>88.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>88.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>88.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>88.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="G46" t="n">
-        <v>88.15000000000022</v>
+        <v>88.17333333333342</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2259,9 +2125,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2288,10 +2152,10 @@
         <v>88.2</v>
       </c>
       <c r="F47" t="n">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="G47" t="n">
-        <v>88.20000000000023</v>
+        <v>88.17000000000009</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2300,9 +2164,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2317,22 +2179,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>88.40000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="C48" t="n">
-        <v>88.40000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="D48" t="n">
-        <v>88.40000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="E48" t="n">
-        <v>88.40000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="F48" t="n">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="G48" t="n">
-        <v>88.30000000000024</v>
+        <v>88.16000000000008</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2341,9 +2203,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2358,22 +2218,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>87.8</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>87.8</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>87.8</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>87.8</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>43.5401</v>
+        <v>6</v>
       </c>
       <c r="G49" t="n">
-        <v>88.10000000000025</v>
+        <v>88.15333333333341</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2382,9 +2242,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2399,22 +2257,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>88.40000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="C50" t="n">
-        <v>88.40000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="D50" t="n">
-        <v>88.40000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="E50" t="n">
-        <v>88.40000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="F50" t="n">
-        <v>6</v>
+        <v>43.5401</v>
       </c>
       <c r="G50" t="n">
-        <v>88.10000000000024</v>
+        <v>88.13333333333341</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2423,9 +2281,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2452,10 +2308,10 @@
         <v>88.40000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>387.5434</v>
+        <v>6</v>
       </c>
       <c r="G51" t="n">
-        <v>88.40000000000023</v>
+        <v>88.13500000000006</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2464,9 +2320,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2493,10 +2347,10 @@
         <v>88.40000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>100</v>
+        <v>387.5434</v>
       </c>
       <c r="G52" t="n">
-        <v>88.40000000000025</v>
+        <v>88.13666666666673</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2505,9 +2359,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2522,22 +2374,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>88.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>88.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>88.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>88.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>5.8</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>88.55000000000025</v>
+        <v>88.13833333333338</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2546,9 +2398,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2563,22 +2413,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>88.40000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="C54" t="n">
-        <v>88.40000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="D54" t="n">
-        <v>88.40000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="E54" t="n">
-        <v>88.40000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="F54" t="n">
-        <v>500</v>
+        <v>5.8</v>
       </c>
       <c r="G54" t="n">
-        <v>88.55000000000025</v>
+        <v>88.14500000000004</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2587,9 +2437,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2604,22 +2452,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>88.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>88.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>88.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>88.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>997.6404</v>
+        <v>500</v>
       </c>
       <c r="G55" t="n">
-        <v>88.55000000000027</v>
+        <v>88.15500000000003</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2628,9 +2476,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2645,22 +2491,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="C56" t="n">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="D56" t="n">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="E56" t="n">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="F56" t="n">
-        <v>6</v>
+        <v>997.6404</v>
       </c>
       <c r="G56" t="n">
-        <v>88.75000000000027</v>
+        <v>88.16333333333337</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2669,9 +2515,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2686,22 +2530,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="C57" t="n">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="D57" t="n">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="E57" t="n">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="F57" t="n">
-        <v>931.3985</v>
+        <v>6</v>
       </c>
       <c r="G57" t="n">
-        <v>88.75000000000028</v>
+        <v>88.1816666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2710,9 +2554,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2727,22 +2569,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>88.40000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="C58" t="n">
-        <v>88.40000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="D58" t="n">
-        <v>88.40000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="E58" t="n">
-        <v>88.40000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="F58" t="n">
-        <v>956.9831</v>
+        <v>931.3985</v>
       </c>
       <c r="G58" t="n">
-        <v>88.55000000000027</v>
+        <v>88.19833333333337</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2751,9 +2593,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2771,19 +2611,19 @@
         <v>88.40000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>88.09999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D59" t="n">
         <v>88.40000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>88.09999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>2870.9493</v>
+        <v>956.9831</v>
       </c>
       <c r="G59" t="n">
-        <v>88.25000000000026</v>
+        <v>88.20833333333336</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2792,9 +2632,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2809,22 +2647,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>88.5</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>88.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>88.5</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>88.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>3284.751</v>
+        <v>2870.9493</v>
       </c>
       <c r="G60" t="n">
-        <v>88.15000000000025</v>
+        <v>88.21333333333337</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2833,9 +2671,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2850,22 +2686,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>88.3</v>
+        <v>88.5</v>
       </c>
       <c r="C61" t="n">
         <v>88.2</v>
       </c>
       <c r="D61" t="n">
-        <v>88.3</v>
+        <v>88.5</v>
       </c>
       <c r="E61" t="n">
         <v>88.2</v>
       </c>
       <c r="F61" t="n">
-        <v>9794.9593</v>
+        <v>3284.751</v>
       </c>
       <c r="G61" t="n">
-        <v>88.20000000000026</v>
+        <v>88.22166666666671</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2874,9 +2710,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2891,22 +2725,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>88</v>
+        <v>88.3</v>
       </c>
       <c r="C62" t="n">
-        <v>88</v>
+        <v>88.2</v>
       </c>
       <c r="D62" t="n">
-        <v>88</v>
+        <v>88.3</v>
       </c>
       <c r="E62" t="n">
-        <v>88</v>
+        <v>88.2</v>
       </c>
       <c r="F62" t="n">
-        <v>1522.3036</v>
+        <v>9794.9593</v>
       </c>
       <c r="G62" t="n">
-        <v>88.10000000000028</v>
+        <v>88.22000000000003</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2915,9 +2749,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2932,22 +2764,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>88.5</v>
+        <v>88</v>
       </c>
       <c r="C63" t="n">
-        <v>88.5</v>
+        <v>88</v>
       </c>
       <c r="D63" t="n">
-        <v>88.5</v>
+        <v>88</v>
       </c>
       <c r="E63" t="n">
-        <v>88.5</v>
+        <v>88</v>
       </c>
       <c r="F63" t="n">
-        <v>6</v>
+        <v>1522.3036</v>
       </c>
       <c r="G63" t="n">
-        <v>88.25000000000028</v>
+        <v>88.21500000000002</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2956,9 +2788,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2985,10 +2815,10 @@
         <v>88.5</v>
       </c>
       <c r="F64" t="n">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="G64" t="n">
-        <v>88.50000000000028</v>
+        <v>88.2166666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2997,9 +2827,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3014,22 +2842,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>88.7</v>
+        <v>88.5</v>
       </c>
       <c r="C65" t="n">
-        <v>88.7</v>
+        <v>88.5</v>
       </c>
       <c r="D65" t="n">
-        <v>88.7</v>
+        <v>88.5</v>
       </c>
       <c r="E65" t="n">
-        <v>88.7</v>
+        <v>88.5</v>
       </c>
       <c r="F65" t="n">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="G65" t="n">
-        <v>88.60000000000028</v>
+        <v>88.21833333333338</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3038,9 +2866,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3067,10 +2893,10 @@
         <v>88.7</v>
       </c>
       <c r="F66" t="n">
-        <v>118.4208</v>
+        <v>6</v>
       </c>
       <c r="G66" t="n">
-        <v>88.70000000000027</v>
+        <v>88.21833333333338</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3079,9 +2905,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3108,10 +2932,10 @@
         <v>88.7</v>
       </c>
       <c r="F67" t="n">
-        <v>1188.4286</v>
+        <v>118.4208</v>
       </c>
       <c r="G67" t="n">
-        <v>88.70000000000027</v>
+        <v>88.2166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3120,9 +2944,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3149,10 +2971,10 @@
         <v>88.7</v>
       </c>
       <c r="F68" t="n">
-        <v>13.1396</v>
+        <v>1188.4286</v>
       </c>
       <c r="G68" t="n">
-        <v>88.70000000000027</v>
+        <v>88.21166666666669</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3161,9 +2983,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3178,22 +2998,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="C69" t="n">
-        <v>89.09999999999999</v>
+        <v>88.7</v>
       </c>
       <c r="D69" t="n">
-        <v>89.09999999999999</v>
+        <v>88.7</v>
       </c>
       <c r="E69" t="n">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="F69" t="n">
-        <v>788.5557</v>
+        <v>13.1396</v>
       </c>
       <c r="G69" t="n">
-        <v>88.90000000000029</v>
+        <v>88.20500000000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3202,9 +3022,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3219,22 +3037,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>89.40000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="C70" t="n">
-        <v>89.40000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>89.40000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>89.40000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="F70" t="n">
-        <v>8</v>
+        <v>788.5557</v>
       </c>
       <c r="G70" t="n">
-        <v>89.25000000000031</v>
+        <v>88.20833333333336</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3243,9 +3061,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3272,10 +3088,10 @@
         <v>89.40000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>386.5885</v>
+        <v>8</v>
       </c>
       <c r="G71" t="n">
-        <v>89.40000000000033</v>
+        <v>88.21833333333335</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3284,9 +3100,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3301,22 +3115,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>89.59999999999999</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>91.7</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>91.7</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>89.59999999999999</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>3130</v>
+        <v>386.5885</v>
       </c>
       <c r="G72" t="n">
-        <v>90.55000000000034</v>
+        <v>88.22666666666669</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3325,9 +3139,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3342,22 +3154,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>89.40000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>89.40000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="D73" t="n">
-        <v>89.40000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="E73" t="n">
-        <v>89.40000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>15.8964</v>
+        <v>3130</v>
       </c>
       <c r="G73" t="n">
-        <v>90.55000000000034</v>
+        <v>88.27166666666669</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3366,9 +3178,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3383,22 +3193,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>90.2</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>90.2</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>90.2</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>90.2</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>6</v>
+        <v>15.8964</v>
       </c>
       <c r="G74" t="n">
-        <v>89.80000000000035</v>
+        <v>88.27666666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3407,9 +3217,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3424,7 +3232,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>90.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="C75" t="n">
         <v>90.2</v>
@@ -3433,13 +3241,13 @@
         <v>90.2</v>
       </c>
       <c r="E75" t="n">
-        <v>90.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="F75" t="n">
-        <v>2959.6541</v>
+        <v>6</v>
       </c>
       <c r="G75" t="n">
-        <v>90.20000000000034</v>
+        <v>88.30166666666668</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3448,9 +3256,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3465,7 +3271,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>90.2</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C76" t="n">
         <v>90.2</v>
@@ -3474,13 +3280,13 @@
         <v>90.2</v>
       </c>
       <c r="E76" t="n">
-        <v>90.2</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>40.3459</v>
+        <v>2959.6541</v>
       </c>
       <c r="G76" t="n">
-        <v>90.20000000000036</v>
+        <v>88.31999999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3489,9 +3295,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3518,10 +3322,10 @@
         <v>90.2</v>
       </c>
       <c r="F77" t="n">
-        <v>59.6541</v>
+        <v>40.3459</v>
       </c>
       <c r="G77" t="n">
-        <v>90.20000000000036</v>
+        <v>88.35166666666666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3530,9 +3334,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3559,10 +3361,10 @@
         <v>90.2</v>
       </c>
       <c r="F78" t="n">
-        <v>4227.7654</v>
+        <v>59.6541</v>
       </c>
       <c r="G78" t="n">
-        <v>90.20000000000036</v>
+        <v>88.39</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3571,9 +3373,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3588,22 +3388,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="C79" t="n">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="D79" t="n">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="E79" t="n">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="F79" t="n">
-        <v>6</v>
+        <v>4227.7654</v>
       </c>
       <c r="G79" t="n">
-        <v>90.25000000000037</v>
+        <v>88.42833333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3612,9 +3412,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3632,19 +3430,19 @@
         <v>90.3</v>
       </c>
       <c r="C80" t="n">
-        <v>90.5</v>
+        <v>90.3</v>
       </c>
       <c r="D80" t="n">
-        <v>90.5</v>
+        <v>90.3</v>
       </c>
       <c r="E80" t="n">
         <v>90.3</v>
       </c>
       <c r="F80" t="n">
-        <v>704.7704</v>
+        <v>6</v>
       </c>
       <c r="G80" t="n">
-        <v>90.40000000000038</v>
+        <v>88.48166666666665</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3653,9 +3451,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3670,22 +3466,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>90.90000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="C81" t="n">
-        <v>90.90000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="D81" t="n">
-        <v>90.90000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="E81" t="n">
-        <v>90.90000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="F81" t="n">
-        <v>500</v>
+        <v>704.7704</v>
       </c>
       <c r="G81" t="n">
-        <v>90.70000000000036</v>
+        <v>88.52333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3694,9 +3490,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3711,22 +3505,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>91</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>91</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>91</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>91</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>488.4573</v>
+        <v>500</v>
       </c>
       <c r="G82" t="n">
-        <v>90.95000000000036</v>
+        <v>88.57166666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3735,9 +3529,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3752,22 +3544,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>91.2</v>
+        <v>91</v>
       </c>
       <c r="C83" t="n">
-        <v>91.2</v>
+        <v>91</v>
       </c>
       <c r="D83" t="n">
-        <v>91.2</v>
+        <v>91</v>
       </c>
       <c r="E83" t="n">
-        <v>91.2</v>
+        <v>91</v>
       </c>
       <c r="F83" t="n">
-        <v>838.9111</v>
+        <v>488.4573</v>
       </c>
       <c r="G83" t="n">
-        <v>91.10000000000035</v>
+        <v>88.62166666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3776,9 +3568,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3793,22 +3583,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>91.09999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="C84" t="n">
-        <v>91.09999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="D84" t="n">
-        <v>91.09999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="E84" t="n">
-        <v>91.09999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="F84" t="n">
-        <v>500</v>
+        <v>838.9111</v>
       </c>
       <c r="G84" t="n">
-        <v>91.15000000000035</v>
+        <v>88.67499999999998</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3817,9 +3607,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3834,22 +3622,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>91.2</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>91.2</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>91.2</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>91.2</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="F85" t="n">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="G85" t="n">
-        <v>91.15000000000035</v>
+        <v>88.72666666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3858,9 +3646,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3875,22 +3661,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>91.09999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="C86" t="n">
-        <v>91</v>
+        <v>91.2</v>
       </c>
       <c r="D86" t="n">
-        <v>91.09999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="E86" t="n">
-        <v>91</v>
+        <v>91.2</v>
       </c>
       <c r="F86" t="n">
-        <v>22001.7497</v>
+        <v>6</v>
       </c>
       <c r="G86" t="n">
-        <v>91.10000000000035</v>
+        <v>88.77999999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3899,9 +3685,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3916,22 +3700,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>91</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C87" t="n">
         <v>91</v>
       </c>
       <c r="D87" t="n">
-        <v>91</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="E87" t="n">
         <v>91</v>
       </c>
       <c r="F87" t="n">
-        <v>6523.0389</v>
+        <v>22001.7497</v>
       </c>
       <c r="G87" t="n">
-        <v>91.00000000000037</v>
+        <v>88.82999999999998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3940,9 +3724,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3957,22 +3739,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>91.2</v>
+        <v>91</v>
       </c>
       <c r="C88" t="n">
-        <v>91.2</v>
+        <v>91</v>
       </c>
       <c r="D88" t="n">
-        <v>91.2</v>
+        <v>91</v>
       </c>
       <c r="E88" t="n">
-        <v>91.2</v>
+        <v>91</v>
       </c>
       <c r="F88" t="n">
-        <v>142.6736</v>
+        <v>6523.0389</v>
       </c>
       <c r="G88" t="n">
-        <v>91.10000000000036</v>
+        <v>88.88666666666664</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3981,9 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4010,10 +3790,10 @@
         <v>91.2</v>
       </c>
       <c r="F89" t="n">
-        <v>100</v>
+        <v>142.6736</v>
       </c>
       <c r="G89" t="n">
-        <v>91.20000000000036</v>
+        <v>88.94666666666664</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4022,9 +3802,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4042,19 +3820,19 @@
         <v>91.2</v>
       </c>
       <c r="C90" t="n">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="D90" t="n">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="E90" t="n">
         <v>91.2</v>
       </c>
       <c r="F90" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G90" t="n">
-        <v>91.25000000000037</v>
+        <v>89.01166666666663</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4063,9 +3841,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4080,7 +3856,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="C91" t="n">
         <v>91.3</v>
@@ -4089,13 +3865,13 @@
         <v>91.3</v>
       </c>
       <c r="E91" t="n">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="F91" t="n">
-        <v>480</v>
+        <v>106</v>
       </c>
       <c r="G91" t="n">
-        <v>91.30000000000038</v>
+        <v>89.0733333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4104,9 +3880,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4124,19 +3898,19 @@
         <v>91.3</v>
       </c>
       <c r="C92" t="n">
-        <v>91.59999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="D92" t="n">
-        <v>91.59999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="E92" t="n">
         <v>91.3</v>
       </c>
       <c r="F92" t="n">
-        <v>6</v>
+        <v>480</v>
       </c>
       <c r="G92" t="n">
-        <v>91.45000000000036</v>
+        <v>89.13166666666663</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4145,9 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4162,22 +3934,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>91.5</v>
+        <v>91.3</v>
       </c>
       <c r="C93" t="n">
-        <v>91.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>91.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>91.5</v>
+        <v>91.3</v>
       </c>
       <c r="F93" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="G93" t="n">
-        <v>91.55000000000035</v>
+        <v>89.1983333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4186,9 +3958,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4206,19 +3976,19 @@
         <v>91.5</v>
       </c>
       <c r="C94" t="n">
-        <v>90.5</v>
+        <v>91.5</v>
       </c>
       <c r="D94" t="n">
         <v>91.5</v>
       </c>
       <c r="E94" t="n">
-        <v>90.5</v>
+        <v>91.5</v>
       </c>
       <c r="F94" t="n">
-        <v>56464.3707</v>
+        <v>100</v>
       </c>
       <c r="G94" t="n">
-        <v>91.00000000000036</v>
+        <v>89.2583333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4227,9 +3997,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4244,22 +4012,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>91.3</v>
+        <v>91.5</v>
       </c>
       <c r="C95" t="n">
-        <v>91.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="D95" t="n">
-        <v>93</v>
+        <v>91.5</v>
       </c>
       <c r="E95" t="n">
-        <v>91.3</v>
+        <v>90.5</v>
       </c>
       <c r="F95" t="n">
-        <v>11184.2839783871</v>
+        <v>56464.3707</v>
       </c>
       <c r="G95" t="n">
-        <v>91.05000000000035</v>
+        <v>89.29999999999997</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4268,9 +4036,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4285,22 +4051,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>91.90000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="C96" t="n">
-        <v>91.90000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>91.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="E96" t="n">
-        <v>91.90000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="F96" t="n">
-        <v>357.3264</v>
+        <v>11184.2839783871</v>
       </c>
       <c r="G96" t="n">
-        <v>91.75000000000034</v>
+        <v>89.36666666666663</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4309,9 +4075,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4326,22 +4090,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>92</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>92.09999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>92.5</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="E97" t="n">
         <v>91.90000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>689.7719</v>
+        <v>357.3264</v>
       </c>
       <c r="G97" t="n">
-        <v>92.00000000000036</v>
+        <v>89.43166666666663</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4350,9 +4114,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4367,22 +4129,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>92</v>
+      </c>
+      <c r="C98" t="n">
         <v>92.09999999999999</v>
-      </c>
-      <c r="C98" t="n">
-        <v>92.5</v>
       </c>
       <c r="D98" t="n">
         <v>92.5</v>
       </c>
       <c r="E98" t="n">
-        <v>92.09999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>3353.1856</v>
+        <v>689.7719</v>
       </c>
       <c r="G98" t="n">
-        <v>92.30000000000034</v>
+        <v>89.49999999999997</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4391,9 +4153,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4408,7 +4168,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>92.5</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C99" t="n">
         <v>92.5</v>
@@ -4417,13 +4177,13 @@
         <v>92.5</v>
       </c>
       <c r="E99" t="n">
-        <v>92.5</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>14563.7209</v>
+        <v>3353.1856</v>
       </c>
       <c r="G99" t="n">
-        <v>92.50000000000036</v>
+        <v>89.57499999999997</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4432,9 +4192,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4461,10 +4219,10 @@
         <v>92.5</v>
       </c>
       <c r="F100" t="n">
-        <v>500</v>
+        <v>14563.7209</v>
       </c>
       <c r="G100" t="n">
-        <v>92.50000000000034</v>
+        <v>89.64999999999996</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4473,9 +4231,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4490,22 +4246,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>92.7</v>
+        <v>92.5</v>
       </c>
       <c r="C101" t="n">
-        <v>92.7</v>
+        <v>92.5</v>
       </c>
       <c r="D101" t="n">
-        <v>92.7</v>
+        <v>92.5</v>
       </c>
       <c r="E101" t="n">
-        <v>92.7</v>
+        <v>92.5</v>
       </c>
       <c r="F101" t="n">
-        <v>880.4348</v>
+        <v>500</v>
       </c>
       <c r="G101" t="n">
-        <v>92.60000000000034</v>
+        <v>89.71833333333331</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4514,9 +4270,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4543,10 +4297,10 @@
         <v>92.7</v>
       </c>
       <c r="F102" t="n">
-        <v>500</v>
+        <v>880.4348</v>
       </c>
       <c r="G102" t="n">
-        <v>92.70000000000033</v>
+        <v>89.79999999999997</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4555,9 +4309,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4587,7 +4339,7 @@
         <v>500</v>
       </c>
       <c r="G103" t="n">
-        <v>92.70000000000033</v>
+        <v>89.88166666666663</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4596,9 +4348,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4613,22 +4363,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>92.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="C104" t="n">
-        <v>92.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="D104" t="n">
-        <v>92.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="E104" t="n">
-        <v>92.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="F104" t="n">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="G104" t="n">
-        <v>92.80000000000032</v>
+        <v>89.95833333333329</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4637,9 +4387,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4654,22 +4402,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>92.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>92.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>92.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>92.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>315.8065</v>
+        <v>6</v>
       </c>
       <c r="G105" t="n">
-        <v>92.80000000000032</v>
+        <v>90.04666666666661</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4678,9 +4426,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4695,22 +4441,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="C106" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="D106" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="E106" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="F106" t="n">
-        <v>1500</v>
+        <v>315.8065</v>
       </c>
       <c r="G106" t="n">
-        <v>92.6500000000003</v>
+        <v>90.12333333333326</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4719,9 +4465,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4739,19 +4483,19 @@
         <v>92.59999999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>92.7</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>92.7</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>92.40000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>6250.5053</v>
+        <v>1500</v>
       </c>
       <c r="G107" t="n">
-        <v>92.65000000000032</v>
+        <v>90.19666666666662</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4760,9 +4504,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4777,7 +4519,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>92.7</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C108" t="n">
         <v>92.7</v>
@@ -4786,13 +4528,13 @@
         <v>92.7</v>
       </c>
       <c r="E108" t="n">
-        <v>92.7</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>45095.5006</v>
+        <v>6250.5053</v>
       </c>
       <c r="G108" t="n">
-        <v>92.70000000000032</v>
+        <v>90.2716666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4801,9 +4543,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4830,10 +4570,10 @@
         <v>92.7</v>
       </c>
       <c r="F109" t="n">
-        <v>25774.6723</v>
+        <v>45095.5006</v>
       </c>
       <c r="G109" t="n">
-        <v>92.70000000000033</v>
+        <v>90.34333333333328</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4842,9 +4582,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4859,22 +4597,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="C110" t="n">
-        <v>92.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="D110" t="n">
-        <v>92.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="E110" t="n">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="F110" t="n">
-        <v>5000</v>
+        <v>25774.6723</v>
       </c>
       <c r="G110" t="n">
-        <v>92.80000000000032</v>
+        <v>90.42499999999994</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4883,9 +4621,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4900,7 +4636,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="C111" t="n">
         <v>92.90000000000001</v>
@@ -4909,13 +4645,13 @@
         <v>92.90000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="F111" t="n">
-        <v>595.8434999999999</v>
+        <v>5000</v>
       </c>
       <c r="G111" t="n">
-        <v>92.90000000000035</v>
+        <v>90.49999999999994</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4924,9 +4660,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4941,22 +4675,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>100</v>
+        <v>595.8434999999999</v>
       </c>
       <c r="G112" t="n">
-        <v>92.95000000000034</v>
+        <v>90.57499999999995</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4965,9 +4699,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4985,19 +4717,19 @@
         <v>93</v>
       </c>
       <c r="C113" t="n">
-        <v>93.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="D113" t="n">
-        <v>93.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="E113" t="n">
         <v>93</v>
       </c>
       <c r="F113" t="n">
-        <v>738</v>
+        <v>100</v>
       </c>
       <c r="G113" t="n">
-        <v>93.05000000000034</v>
+        <v>90.65166666666661</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5006,9 +4738,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5023,7 +4753,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>93.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="C114" t="n">
         <v>93.09999999999999</v>
@@ -5032,13 +4762,13 @@
         <v>93.09999999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>93.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="F114" t="n">
-        <v>3408.451</v>
+        <v>738</v>
       </c>
       <c r="G114" t="n">
-        <v>93.10000000000034</v>
+        <v>90.72499999999995</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5047,9 +4777,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5064,22 +4792,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>93.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>93.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>93.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>93.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>378.3784</v>
+        <v>3408.451</v>
       </c>
       <c r="G115" t="n">
-        <v>93.25000000000036</v>
+        <v>90.8033333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5088,9 +4816,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5105,22 +4831,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>93.7</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>93.8</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>93.8</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>93.7</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>966.4829999999999</v>
+        <v>378.3784</v>
       </c>
       <c r="G116" t="n">
-        <v>93.60000000000035</v>
+        <v>90.88166666666663</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5129,9 +4855,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5146,22 +4870,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="C117" t="n">
         <v>93.8</v>
       </c>
-      <c r="C117" t="n">
-        <v>94.2</v>
-      </c>
       <c r="D117" t="n">
-        <v>94.2</v>
+        <v>93.8</v>
       </c>
       <c r="E117" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="F117" t="n">
-        <v>3948.9545</v>
+        <v>966.4829999999999</v>
       </c>
       <c r="G117" t="n">
-        <v>94.00000000000036</v>
+        <v>90.96499999999996</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5170,9 +4894,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5187,22 +4909,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>94.40000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="C118" t="n">
-        <v>94.5</v>
+        <v>94.2</v>
       </c>
       <c r="D118" t="n">
-        <v>94.5</v>
+        <v>94.2</v>
       </c>
       <c r="E118" t="n">
-        <v>94.40000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="F118" t="n">
-        <v>2563.2415</v>
+        <v>3948.9545</v>
       </c>
       <c r="G118" t="n">
-        <v>94.35000000000034</v>
+        <v>91.05666666666663</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5211,9 +4933,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5231,7 +4951,7 @@
         <v>94.40000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D119" t="n">
         <v>94.5</v>
@@ -5240,10 +4960,10 @@
         <v>94.40000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>32797.6191</v>
+        <v>2563.2415</v>
       </c>
       <c r="G119" t="n">
-        <v>94.45000000000036</v>
+        <v>91.1583333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5252,9 +4972,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5269,79 +4987,69 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D120" t="n">
         <v>94.5</v>
       </c>
       <c r="E120" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>6</v>
+        <v>32797.6191</v>
       </c>
       <c r="G120" t="n">
-        <v>94.45000000000036</v>
+        <v>91.26333333333329</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>88.3</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>94.3</v>
+        <v>94.5</v>
       </c>
       <c r="C121" t="n">
-        <v>94.3</v>
+        <v>94.5</v>
       </c>
       <c r="D121" t="n">
-        <v>94.3</v>
+        <v>94.5</v>
       </c>
       <c r="E121" t="n">
-        <v>94.3</v>
+        <v>94.5</v>
       </c>
       <c r="F121" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="G121" t="n">
-        <v>94.40000000000036</v>
+        <v>91.3683333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5351,38 +5059,32 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>94.5</v>
+        <v>94.3</v>
       </c>
       <c r="C122" t="n">
-        <v>94.5</v>
+        <v>94.3</v>
       </c>
       <c r="D122" t="n">
-        <v>94.5</v>
+        <v>94.3</v>
       </c>
       <c r="E122" t="n">
-        <v>94.5</v>
+        <v>94.3</v>
       </c>
       <c r="F122" t="n">
-        <v>1909.2481</v>
+        <v>100</v>
       </c>
       <c r="G122" t="n">
-        <v>94.40000000000038</v>
+        <v>91.46999999999997</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5395,35 +5097,29 @@
         <v>94.5</v>
       </c>
       <c r="C123" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="D123" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="E123" t="n">
         <v>94.5</v>
       </c>
       <c r="F123" t="n">
-        <v>3600.8414</v>
+        <v>1909.2481</v>
       </c>
       <c r="G123" t="n">
-        <v>94.60000000000036</v>
+        <v>91.5783333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5436,35 +5132,29 @@
         <v>94.5</v>
       </c>
       <c r="C124" t="n">
-        <v>94.3</v>
+        <v>94.7</v>
       </c>
       <c r="D124" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="E124" t="n">
         <v>94.5</v>
       </c>
-      <c r="E124" t="n">
-        <v>94.3</v>
-      </c>
       <c r="F124" t="n">
-        <v>9567.400600000001</v>
+        <v>3600.8414</v>
       </c>
       <c r="G124" t="n">
-        <v>94.50000000000037</v>
+        <v>91.68166666666663</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5477,35 +5167,29 @@
         <v>94.5</v>
       </c>
       <c r="C125" t="n">
-        <v>94.7</v>
+        <v>94.3</v>
       </c>
       <c r="D125" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="E125" t="n">
-        <v>94.5</v>
+        <v>94.3</v>
       </c>
       <c r="F125" t="n">
-        <v>4694.8414</v>
+        <v>9567.400600000001</v>
       </c>
       <c r="G125" t="n">
-        <v>94.50000000000037</v>
+        <v>91.77833333333329</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5515,22 +5199,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C126" t="n">
         <v>94.7</v>
       </c>
-      <c r="C126" t="n">
-        <v>94.8</v>
-      </c>
       <c r="D126" t="n">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="E126" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="F126" t="n">
-        <v>3752.311</v>
+        <v>4694.8414</v>
       </c>
       <c r="G126" t="n">
-        <v>94.75000000000037</v>
+        <v>91.8783333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5539,14 +5223,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5556,22 +5234,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="C127" t="n">
         <v>94.8</v>
       </c>
-      <c r="C127" t="n">
-        <v>95.09999999999999</v>
-      </c>
       <c r="D127" t="n">
-        <v>95.09999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="E127" t="n">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="F127" t="n">
-        <v>17586.6323</v>
+        <v>3752.311</v>
       </c>
       <c r="G127" t="n">
-        <v>94.95000000000036</v>
+        <v>91.97999999999998</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5580,14 +5258,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5597,22 +5269,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="C128" t="n">
-        <v>96</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>96</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="F128" t="n">
-        <v>166</v>
+        <v>17586.6323</v>
       </c>
       <c r="G128" t="n">
-        <v>95.55000000000035</v>
+        <v>92.08666666666664</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5621,14 +5293,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5638,7 +5304,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C129" t="n">
         <v>96</v>
@@ -5647,13 +5313,13 @@
         <v>96</v>
       </c>
       <c r="E129" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F129" t="n">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="G129" t="n">
-        <v>96.00000000000036</v>
+        <v>92.20833333333331</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5662,14 +5328,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5679,38 +5339,32 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C130" t="n">
-        <v>95.5</v>
+        <v>96</v>
       </c>
       <c r="D130" t="n">
-        <v>95.5</v>
+        <v>96</v>
       </c>
       <c r="E130" t="n">
-        <v>94.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="F130" t="n">
-        <v>5010</v>
+        <v>6</v>
       </c>
       <c r="G130" t="n">
-        <v>95.75000000000034</v>
+        <v>92.32333333333331</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5723,35 +5377,29 @@
         <v>95</v>
       </c>
       <c r="C131" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="D131" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="E131" t="n">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F131" t="n">
-        <v>13883.1356</v>
+        <v>5010</v>
       </c>
       <c r="G131" t="n">
-        <v>95.75000000000034</v>
+        <v>92.42499999999998</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5761,38 +5409,32 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>95</v>
+      </c>
+      <c r="C132" t="n">
         <v>96</v>
       </c>
-      <c r="C132" t="n">
-        <v>96.3</v>
-      </c>
       <c r="D132" t="n">
-        <v>96.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="E132" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F132" t="n">
-        <v>6322.993</v>
+        <v>13883.1356</v>
       </c>
       <c r="G132" t="n">
-        <v>96.15000000000035</v>
+        <v>92.535</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5802,38 +5444,32 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>96</v>
+      </c>
+      <c r="C133" t="n">
         <v>96.3</v>
-      </c>
-      <c r="C133" t="n">
-        <v>96.40000000000001</v>
       </c>
       <c r="D133" t="n">
         <v>96.40000000000001</v>
       </c>
       <c r="E133" t="n">
-        <v>96.3</v>
+        <v>96</v>
       </c>
       <c r="F133" t="n">
-        <v>5398.6874</v>
+        <v>6322.993</v>
       </c>
       <c r="G133" t="n">
-        <v>96.35000000000036</v>
+        <v>92.61166666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5843,7 +5479,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>96.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="C134" t="n">
         <v>96.40000000000001</v>
@@ -5852,29 +5488,23 @@
         <v>96.40000000000001</v>
       </c>
       <c r="E134" t="n">
-        <v>96.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="F134" t="n">
-        <v>10045.9049</v>
+        <v>5398.6874</v>
       </c>
       <c r="G134" t="n">
-        <v>96.40000000000035</v>
+        <v>92.72833333333332</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5884,38 +5514,32 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>96.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>97</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>97</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>96.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F135" t="n">
-        <v>1627.7391</v>
+        <v>10045.9049</v>
       </c>
       <c r="G135" t="n">
-        <v>96.70000000000034</v>
+        <v>92.83166666666666</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5925,38 +5549,32 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>97</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C136" t="n">
         <v>97</v>
       </c>
       <c r="D136" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="E136" t="n">
-        <v>97</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F136" t="n">
-        <v>12875.9025</v>
+        <v>1627.7391</v>
       </c>
       <c r="G136" t="n">
-        <v>97.00000000000033</v>
+        <v>92.94499999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5966,22 +5584,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>97</v>
+      </c>
+      <c r="C137" t="n">
+        <v>97</v>
+      </c>
+      <c r="D137" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c r="C137" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="D137" t="n">
-        <v>98.09999999999999</v>
-      </c>
       <c r="E137" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="F137" t="n">
-        <v>2197.8913</v>
+        <v>12875.9025</v>
       </c>
       <c r="G137" t="n">
-        <v>97.55000000000032</v>
+        <v>93.05833333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5990,14 +5608,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6007,22 +5619,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>98</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>98</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F138" t="n">
-        <v>4092.7899</v>
+        <v>2197.8913</v>
       </c>
       <c r="G138" t="n">
-        <v>98.05000000000032</v>
+        <v>93.19000000000001</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -6031,14 +5643,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6048,22 +5654,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>98.3</v>
+        <v>98</v>
       </c>
       <c r="C139" t="n">
-        <v>98.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="D139" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="E139" t="n">
-        <v>98.3</v>
+        <v>98</v>
       </c>
       <c r="F139" t="n">
-        <v>42129.9391</v>
+        <v>4092.7899</v>
       </c>
       <c r="G139" t="n">
-        <v>98.45000000000034</v>
+        <v>93.32000000000001</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -6072,14 +5678,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6089,40 +5689,34 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="C140" t="n">
         <v>98.90000000000001</v>
-      </c>
-      <c r="C140" t="n">
-        <v>100</v>
       </c>
       <c r="D140" t="n">
         <v>100</v>
       </c>
       <c r="E140" t="n">
-        <v>98.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="F140" t="n">
-        <v>7007.4003</v>
+        <v>42129.9391</v>
       </c>
       <c r="G140" t="n">
-        <v>99.45000000000033</v>
+        <v>93.46333333333334</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>1.127502831257078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -6130,7 +5724,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>100</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C141" t="n">
         <v>100</v>
@@ -6139,13 +5733,13 @@
         <v>100</v>
       </c>
       <c r="E141" t="n">
-        <v>100</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F141" t="n">
-        <v>3791.0386</v>
+        <v>7007.4003</v>
       </c>
       <c r="G141" t="n">
-        <v>100.0000000000003</v>
+        <v>93.62166666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6177,10 +5771,10 @@
         <v>100</v>
       </c>
       <c r="F142" t="n">
-        <v>7.5925</v>
+        <v>3791.0386</v>
       </c>
       <c r="G142" t="n">
-        <v>100.0000000000003</v>
+        <v>93.77333333333334</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6200,22 +5794,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="C143" t="n">
-        <v>97.8</v>
+        <v>100</v>
       </c>
       <c r="D143" t="n">
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="E143" t="n">
-        <v>97.8</v>
+        <v>100</v>
       </c>
       <c r="F143" t="n">
-        <v>6197.4949</v>
+        <v>7.5925</v>
       </c>
       <c r="G143" t="n">
-        <v>98.90000000000035</v>
+        <v>93.92333333333335</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6235,22 +5829,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>97.7</v>
+        <v>98.5</v>
       </c>
       <c r="C144" t="n">
-        <v>96.3</v>
+        <v>97.8</v>
       </c>
       <c r="D144" t="n">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="E144" t="n">
-        <v>96.09999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="F144" t="n">
-        <v>63455.8592</v>
+        <v>6197.4949</v>
       </c>
       <c r="G144" t="n">
-        <v>97.05000000000035</v>
+        <v>94.03333333333335</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6270,28 +5864,28 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="C145" t="n">
         <v>96.3</v>
       </c>
-      <c r="C145" t="n">
-        <v>98</v>
-      </c>
       <c r="D145" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E145" t="n">
-        <v>96.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F145" t="n">
-        <v>30121.8713</v>
+        <v>63455.8592</v>
       </c>
       <c r="G145" t="n">
-        <v>97.15000000000035</v>
+        <v>94.12000000000002</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -6305,22 +5899,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>95.90000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="C146" t="n">
-        <v>95.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="D146" t="n">
-        <v>95.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="E146" t="n">
-        <v>95.90000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="F146" t="n">
-        <v>5769.685</v>
+        <v>30121.8713</v>
       </c>
       <c r="G146" t="n">
-        <v>96.95000000000036</v>
+        <v>94.23333333333335</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6340,22 +5934,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>95.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C147" t="n">
-        <v>95</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D147" t="n">
-        <v>95.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E147" t="n">
-        <v>95</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F147" t="n">
-        <v>2966.5518</v>
+        <v>5769.685</v>
       </c>
       <c r="G147" t="n">
-        <v>95.45000000000036</v>
+        <v>94.31500000000001</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6375,22 +5969,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="C148" t="n">
         <v>95</v>
       </c>
       <c r="D148" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="E148" t="n">
         <v>95</v>
       </c>
-      <c r="E148" t="n">
-        <v>94.3</v>
-      </c>
       <c r="F148" t="n">
-        <v>3183.7441</v>
+        <v>2966.5518</v>
       </c>
       <c r="G148" t="n">
-        <v>95.00000000000036</v>
+        <v>94.38166666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6410,22 +6004,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="C149" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="D149" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="E149" t="n">
-        <v>94.90000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="F149" t="n">
-        <v>181.3107</v>
+        <v>3183.7441</v>
       </c>
       <c r="G149" t="n">
-        <v>94.95000000000036</v>
+        <v>94.44500000000001</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6445,22 +6039,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C150" t="n">
-        <v>97</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D150" t="n">
-        <v>97</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E150" t="n">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F150" t="n">
-        <v>4590.9725</v>
+        <v>181.3107</v>
       </c>
       <c r="G150" t="n">
-        <v>95.95000000000036</v>
+        <v>94.50666666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6480,7 +6074,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C151" t="n">
         <v>97</v>
@@ -6489,13 +6083,13 @@
         <v>97</v>
       </c>
       <c r="E151" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F151" t="n">
-        <v>5.2</v>
+        <v>4590.9725</v>
       </c>
       <c r="G151" t="n">
-        <v>97.00000000000036</v>
+        <v>94.60166666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6515,22 +6109,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>94.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="C152" t="n">
-        <v>94.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="D152" t="n">
-        <v>94.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="E152" t="n">
-        <v>94.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="F152" t="n">
-        <v>28.5698</v>
+        <v>5.2</v>
       </c>
       <c r="G152" t="n">
-        <v>95.80000000000035</v>
+        <v>94.69666666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6550,22 +6144,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>94.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C153" t="n">
-        <v>94.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D153" t="n">
-        <v>94.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E153" t="n">
-        <v>94.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F153" t="n">
-        <v>106.3121</v>
+        <v>28.5698</v>
       </c>
       <c r="G153" t="n">
-        <v>94.65000000000035</v>
+        <v>94.74666666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6585,22 +6179,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>96.8</v>
+        <v>94.7</v>
       </c>
       <c r="C154" t="n">
-        <v>96.8</v>
+        <v>94.7</v>
       </c>
       <c r="D154" t="n">
-        <v>96.8</v>
+        <v>94.7</v>
       </c>
       <c r="E154" t="n">
-        <v>96.8</v>
+        <v>94.7</v>
       </c>
       <c r="F154" t="n">
-        <v>5.5</v>
+        <v>106.3121</v>
       </c>
       <c r="G154" t="n">
-        <v>95.75000000000036</v>
+        <v>94.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6620,22 +6214,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>95.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C155" t="n">
-        <v>95.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="D155" t="n">
-        <v>95.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="E155" t="n">
-        <v>95.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F155" t="n">
-        <v>20.5033</v>
+        <v>5.5</v>
       </c>
       <c r="G155" t="n">
-        <v>96.10000000000036</v>
+        <v>94.905</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6655,22 +6249,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>96.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C156" t="n">
-        <v>96.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D156" t="n">
-        <v>96.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E156" t="n">
-        <v>96.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F156" t="n">
-        <v>6</v>
+        <v>20.5033</v>
       </c>
       <c r="G156" t="n">
-        <v>95.95000000000036</v>
+        <v>94.96833333333332</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6690,22 +6284,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>95.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="C157" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="D157" t="n">
-        <v>95.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="E157" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="F157" t="n">
-        <v>25465.0374</v>
+        <v>6</v>
       </c>
       <c r="G157" t="n">
-        <v>96.00000000000036</v>
+        <v>95.045</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6725,22 +6319,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>94.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>94.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="D158" t="n">
-        <v>94.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E158" t="n">
-        <v>94.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="F158" t="n">
-        <v>11.2313</v>
+        <v>25465.0374</v>
       </c>
       <c r="G158" t="n">
-        <v>95.20000000000036</v>
+        <v>95.10166666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6763,19 +6357,19 @@
         <v>94.90000000000001</v>
       </c>
       <c r="C159" t="n">
-        <v>94.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D159" t="n">
         <v>94.90000000000001</v>
       </c>
       <c r="E159" t="n">
-        <v>94.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F159" t="n">
-        <v>1959.1982</v>
+        <v>11.2313</v>
       </c>
       <c r="G159" t="n">
-        <v>94.80000000000035</v>
+        <v>95.14166666666665</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6795,22 +6389,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C160" t="n">
-        <v>94</v>
+        <v>94.7</v>
       </c>
       <c r="D160" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E160" t="n">
-        <v>94</v>
+        <v>94.7</v>
       </c>
       <c r="F160" t="n">
-        <v>6597.4535</v>
+        <v>1959.1982</v>
       </c>
       <c r="G160" t="n">
-        <v>94.35000000000035</v>
+        <v>95.17833333333331</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6830,22 +6424,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="C161" t="n">
         <v>94</v>
       </c>
       <c r="D161" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="E161" t="n">
         <v>94</v>
       </c>
       <c r="F161" t="n">
-        <v>4201.5682</v>
+        <v>6597.4535</v>
       </c>
       <c r="G161" t="n">
-        <v>94.00000000000037</v>
+        <v>95.20333333333332</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6877,10 +6471,10 @@
         <v>94</v>
       </c>
       <c r="F162" t="n">
-        <v>29.4536</v>
+        <v>4201.5682</v>
       </c>
       <c r="G162" t="n">
-        <v>94.00000000000037</v>
+        <v>95.22499999999998</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6903,19 +6497,19 @@
         <v>94</v>
       </c>
       <c r="C163" t="n">
-        <v>93.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="D163" t="n">
         <v>94</v>
       </c>
       <c r="E163" t="n">
-        <v>93.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="F163" t="n">
-        <v>9914.022199999999</v>
+        <v>29.4536</v>
       </c>
       <c r="G163" t="n">
-        <v>93.80000000000035</v>
+        <v>95.24666666666666</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6935,22 +6529,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>93.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="C164" t="n">
-        <v>93.2</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="D164" t="n">
-        <v>93.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="E164" t="n">
-        <v>93.2</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="F164" t="n">
-        <v>14214.4925</v>
+        <v>9914.022199999999</v>
       </c>
       <c r="G164" t="n">
-        <v>93.40000000000035</v>
+        <v>95.26166666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6970,22 +6564,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C165" t="n">
-        <v>93.09999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="D165" t="n">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="E165" t="n">
-        <v>93.09999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="F165" t="n">
-        <v>1606.654</v>
+        <v>14214.4925</v>
       </c>
       <c r="G165" t="n">
-        <v>93.15000000000033</v>
+        <v>95.26666666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -7008,19 +6602,19 @@
         <v>93.5</v>
       </c>
       <c r="C166" t="n">
-        <v>93.5</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D166" t="n">
         <v>93.5</v>
       </c>
       <c r="E166" t="n">
-        <v>93.5</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F166" t="n">
-        <v>20000</v>
+        <v>1606.654</v>
       </c>
       <c r="G166" t="n">
-        <v>93.30000000000032</v>
+        <v>95.27333333333334</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -7043,19 +6637,19 @@
         <v>93.5</v>
       </c>
       <c r="C167" t="n">
-        <v>93.90000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="D167" t="n">
-        <v>93.90000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="E167" t="n">
         <v>93.5</v>
       </c>
       <c r="F167" t="n">
-        <v>789</v>
+        <v>20000</v>
       </c>
       <c r="G167" t="n">
-        <v>93.70000000000034</v>
+        <v>95.28833333333334</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -7075,22 +6669,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="C168" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="C168" t="n">
-        <v>96.5</v>
-      </c>
       <c r="D168" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E168" t="n">
-        <v>93.90000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="F168" t="n">
-        <v>10501.3796</v>
+        <v>789</v>
       </c>
       <c r="G168" t="n">
-        <v>95.20000000000033</v>
+        <v>95.30833333333334</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -7110,22 +6704,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>94.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C169" t="n">
-        <v>94.7</v>
+        <v>96.5</v>
       </c>
       <c r="D169" t="n">
-        <v>94.7</v>
+        <v>96.5</v>
       </c>
       <c r="E169" t="n">
-        <v>94.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F169" t="n">
-        <v>373.1343</v>
+        <v>10501.3796</v>
       </c>
       <c r="G169" t="n">
-        <v>95.60000000000032</v>
+        <v>95.37166666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -7145,22 +6739,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>95</v>
+        <v>94.7</v>
       </c>
       <c r="C170" t="n">
-        <v>95</v>
+        <v>94.7</v>
       </c>
       <c r="D170" t="n">
-        <v>95</v>
+        <v>94.7</v>
       </c>
       <c r="E170" t="n">
-        <v>95</v>
+        <v>94.7</v>
       </c>
       <c r="F170" t="n">
-        <v>221.0527</v>
+        <v>373.1343</v>
       </c>
       <c r="G170" t="n">
-        <v>94.85000000000031</v>
+        <v>95.405</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7192,10 +6786,10 @@
         <v>95</v>
       </c>
       <c r="F171" t="n">
-        <v>20.8399</v>
+        <v>221.0527</v>
       </c>
       <c r="G171" t="n">
-        <v>95.00000000000031</v>
+        <v>95.44000000000001</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7215,22 +6809,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="C172" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="D172" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="E172" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="F172" t="n">
-        <v>748.6112000000001</v>
+        <v>20.8399</v>
       </c>
       <c r="G172" t="n">
-        <v>95.0500000000003</v>
+        <v>95.47500000000001</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7253,19 +6847,19 @@
         <v>95.09999999999999</v>
       </c>
       <c r="C173" t="n">
-        <v>95.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D173" t="n">
-        <v>95.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E173" t="n">
         <v>95.09999999999999</v>
       </c>
       <c r="F173" t="n">
-        <v>1725.9176</v>
+        <v>748.6112000000001</v>
       </c>
       <c r="G173" t="n">
-        <v>95.2000000000003</v>
+        <v>95.51000000000002</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7288,19 +6882,19 @@
         <v>95.09999999999999</v>
       </c>
       <c r="C174" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="D174" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="E174" t="n">
         <v>95.09999999999999</v>
       </c>
-      <c r="E174" t="n">
-        <v>95</v>
-      </c>
       <c r="F174" t="n">
-        <v>18267</v>
+        <v>1725.9176</v>
       </c>
       <c r="G174" t="n">
-        <v>95.1500000000003</v>
+        <v>95.54666666666668</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7320,22 +6914,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C175" t="n">
         <v>95</v>
       </c>
       <c r="D175" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E175" t="n">
         <v>95</v>
       </c>
       <c r="F175" t="n">
-        <v>125.3092</v>
+        <v>18267</v>
       </c>
       <c r="G175" t="n">
-        <v>95.00000000000031</v>
+        <v>95.57833333333335</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7367,10 +6961,10 @@
         <v>95</v>
       </c>
       <c r="F176" t="n">
-        <v>1000</v>
+        <v>125.3092</v>
       </c>
       <c r="G176" t="n">
-        <v>95.00000000000031</v>
+        <v>95.60500000000002</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7402,10 +6996,10 @@
         <v>95</v>
       </c>
       <c r="F177" t="n">
-        <v>13461.288</v>
+        <v>1000</v>
       </c>
       <c r="G177" t="n">
-        <v>95.00000000000031</v>
+        <v>95.62500000000001</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7425,22 +7019,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="C178" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="D178" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="E178" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="F178" t="n">
-        <v>11.9337</v>
+        <v>13461.288</v>
       </c>
       <c r="G178" t="n">
-        <v>94.8000000000003</v>
+        <v>95.63833333333335</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7463,19 +7057,19 @@
         <v>94.59999999999999</v>
       </c>
       <c r="C179" t="n">
-        <v>94</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D179" t="n">
         <v>94.59999999999999</v>
       </c>
       <c r="E179" t="n">
-        <v>94</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F179" t="n">
-        <v>3494.8169</v>
+        <v>11.9337</v>
       </c>
       <c r="G179" t="n">
-        <v>94.3000000000003</v>
+        <v>95.64000000000003</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7498,19 +7092,19 @@
         <v>94.59999999999999</v>
       </c>
       <c r="C180" t="n">
-        <v>94.2</v>
+        <v>94</v>
       </c>
       <c r="D180" t="n">
         <v>94.59999999999999</v>
       </c>
       <c r="E180" t="n">
-        <v>94.2</v>
+        <v>94</v>
       </c>
       <c r="F180" t="n">
-        <v>100221.0527</v>
+        <v>3494.8169</v>
       </c>
       <c r="G180" t="n">
-        <v>94.10000000000029</v>
+        <v>95.63333333333337</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7533,19 +7127,19 @@
         <v>94.59999999999999</v>
       </c>
       <c r="C181" t="n">
-        <v>94.59999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="D181" t="n">
         <v>94.59999999999999</v>
       </c>
       <c r="E181" t="n">
-        <v>94.59999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="F181" t="n">
-        <v>450000</v>
+        <v>100221.0527</v>
       </c>
       <c r="G181" t="n">
-        <v>94.40000000000029</v>
+        <v>95.62833333333336</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7565,22 +7159,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>94.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C182" t="n">
-        <v>94.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D182" t="n">
-        <v>94.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E182" t="n">
-        <v>94.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F182" t="n">
-        <v>250000</v>
+        <v>450000</v>
       </c>
       <c r="G182" t="n">
-        <v>94.65000000000029</v>
+        <v>95.63333333333337</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7600,22 +7194,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="C183" t="n">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="D183" t="n">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="E183" t="n">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="F183" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="G183" t="n">
-        <v>94.7500000000003</v>
+        <v>95.6366666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7635,22 +7229,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="C184" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="D184" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="E184" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="F184" t="n">
-        <v>6</v>
+        <v>200000</v>
       </c>
       <c r="G184" t="n">
-        <v>94.90000000000029</v>
+        <v>95.63833333333336</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7670,22 +7264,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>94.5</v>
+        <v>95</v>
       </c>
       <c r="C185" t="n">
-        <v>94.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="D185" t="n">
-        <v>94.5</v>
+        <v>95</v>
       </c>
       <c r="E185" t="n">
-        <v>94.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="F185" t="n">
-        <v>7440.824</v>
+        <v>6</v>
       </c>
       <c r="G185" t="n">
-        <v>94.7000000000003</v>
+        <v>95.65000000000003</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7705,22 +7299,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C186" t="n">
-        <v>95.09999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D186" t="n">
-        <v>95.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="E186" t="n">
-        <v>94.90000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F186" t="n">
-        <v>3738.7815</v>
+        <v>7440.824</v>
       </c>
       <c r="G186" t="n">
-        <v>94.75000000000028</v>
+        <v>95.64500000000002</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7740,7 +7334,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>95.09999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C187" t="n">
         <v>95.09999999999999</v>
@@ -7749,13 +7343,13 @@
         <v>95.09999999999999</v>
       </c>
       <c r="E187" t="n">
-        <v>95.09999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F187" t="n">
-        <v>210.5264</v>
+        <v>3738.7815</v>
       </c>
       <c r="G187" t="n">
-        <v>95.10000000000029</v>
+        <v>95.65000000000003</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7787,10 +7381,10 @@
         <v>95.09999999999999</v>
       </c>
       <c r="F188" t="n">
-        <v>21.0527</v>
+        <v>210.5264</v>
       </c>
       <c r="G188" t="n">
-        <v>95.10000000000029</v>
+        <v>95.65000000000003</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7810,22 +7404,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>95.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C189" t="n">
-        <v>95.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D189" t="n">
-        <v>95.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E189" t="n">
-        <v>95.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F189" t="n">
-        <v>369.9789</v>
+        <v>21.0527</v>
       </c>
       <c r="G189" t="n">
-        <v>95.20000000000029</v>
+        <v>95.63500000000003</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7845,22 +7439,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>95.5</v>
+        <v>95.3</v>
       </c>
       <c r="C190" t="n">
-        <v>95.5</v>
+        <v>95.3</v>
       </c>
       <c r="D190" t="n">
-        <v>95.5</v>
+        <v>95.3</v>
       </c>
       <c r="E190" t="n">
-        <v>95.5</v>
+        <v>95.3</v>
       </c>
       <c r="F190" t="n">
-        <v>714.1094000000001</v>
+        <v>369.9789</v>
       </c>
       <c r="G190" t="n">
-        <v>95.40000000000028</v>
+        <v>95.62333333333338</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7892,10 +7486,10 @@
         <v>95.5</v>
       </c>
       <c r="F191" t="n">
-        <v>178.5</v>
+        <v>714.1094000000001</v>
       </c>
       <c r="G191" t="n">
-        <v>95.50000000000026</v>
+        <v>95.62333333333338</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7915,22 +7509,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="C192" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="D192" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="E192" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="F192" t="n">
-        <v>8.9612</v>
+        <v>178.5</v>
       </c>
       <c r="G192" t="n">
-        <v>95.75000000000026</v>
+        <v>95.61500000000004</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7962,10 +7556,10 @@
         <v>96</v>
       </c>
       <c r="F193" t="n">
-        <v>932.7526</v>
+        <v>8.9612</v>
       </c>
       <c r="G193" t="n">
-        <v>96.00000000000026</v>
+        <v>95.61000000000004</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7988,19 +7582,19 @@
         <v>96</v>
       </c>
       <c r="C194" t="n">
-        <v>96.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="D194" t="n">
-        <v>96.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="E194" t="n">
         <v>96</v>
       </c>
       <c r="F194" t="n">
-        <v>11.9516</v>
+        <v>932.7526</v>
       </c>
       <c r="G194" t="n">
-        <v>96.20000000000027</v>
+        <v>95.60333333333338</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -8023,19 +7617,19 @@
         <v>96</v>
       </c>
       <c r="C195" t="n">
-        <v>95.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D195" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E195" t="n">
         <v>96</v>
       </c>
-      <c r="E195" t="n">
-        <v>95.5</v>
-      </c>
       <c r="F195" t="n">
-        <v>6701.1809</v>
+        <v>11.9516</v>
       </c>
       <c r="G195" t="n">
-        <v>95.95000000000027</v>
+        <v>95.60333333333338</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -8055,22 +7649,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>95.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="C196" t="n">
-        <v>95.09999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="D196" t="n">
-        <v>95.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="E196" t="n">
-        <v>95.09999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="F196" t="n">
-        <v>696.649</v>
+        <v>6701.1809</v>
       </c>
       <c r="G196" t="n">
-        <v>95.30000000000028</v>
+        <v>95.57833333333338</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -8102,10 +7696,10 @@
         <v>95.09999999999999</v>
       </c>
       <c r="F197" t="n">
-        <v>3.351</v>
+        <v>696.649</v>
       </c>
       <c r="G197" t="n">
-        <v>95.10000000000028</v>
+        <v>95.54666666666671</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -8125,22 +7719,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C198" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D198" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E198" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F198" t="n">
-        <v>6</v>
+        <v>3.351</v>
       </c>
       <c r="G198" t="n">
-        <v>95.05000000000028</v>
+        <v>95.49666666666671</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -8160,22 +7754,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="C199" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="D199" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="E199" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="F199" t="n">
         <v>6</v>
       </c>
       <c r="G199" t="n">
-        <v>95.05000000000028</v>
+        <v>95.44666666666672</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -8195,22 +7789,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C200" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D200" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E200" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F200" t="n">
-        <v>249.7007</v>
+        <v>6</v>
       </c>
       <c r="G200" t="n">
-        <v>95.0500000000003</v>
+        <v>95.3833333333334</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -8230,22 +7824,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>95.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="C201" t="n">
-        <v>95.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="D201" t="n">
-        <v>95.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="E201" t="n">
-        <v>95.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="F201" t="n">
-        <v>1492.5706</v>
+        <v>249.7007</v>
       </c>
       <c r="G201" t="n">
-        <v>95.30000000000031</v>
+        <v>95.30000000000005</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8277,10 +7871,10 @@
         <v>95.59999999999999</v>
       </c>
       <c r="F202" t="n">
-        <v>172.9367</v>
+        <v>1492.5706</v>
       </c>
       <c r="G202" t="n">
-        <v>95.60000000000031</v>
+        <v>95.22666666666673</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8300,22 +7894,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>95.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C203" t="n">
-        <v>95.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D203" t="n">
-        <v>95.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E203" t="n">
-        <v>95.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F203" t="n">
-        <v>145.9409</v>
+        <v>172.9367</v>
       </c>
       <c r="G203" t="n">
-        <v>95.7500000000003</v>
+        <v>95.15333333333341</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8347,10 +7941,10 @@
         <v>95.90000000000001</v>
       </c>
       <c r="F204" t="n">
-        <v>54.0591</v>
+        <v>145.9409</v>
       </c>
       <c r="G204" t="n">
-        <v>95.9000000000003</v>
+        <v>95.12166666666673</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8370,22 +7964,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C205" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D205" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E205" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F205" t="n">
-        <v>10</v>
+        <v>54.0591</v>
       </c>
       <c r="G205" t="n">
-        <v>95.95000000000032</v>
+        <v>95.11500000000005</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8405,22 +7999,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>95.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="C206" t="n">
-        <v>95.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="D206" t="n">
-        <v>95.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="E206" t="n">
-        <v>95.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="F206" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G206" t="n">
-        <v>95.55000000000031</v>
+        <v>95.08166666666672</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8440,22 +8034,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>96</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C207" t="n">
-        <v>96</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D207" t="n">
-        <v>96</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E207" t="n">
-        <v>96</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F207" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G207" t="n">
-        <v>95.5500000000003</v>
+        <v>95.0683333333334</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8478,19 +8072,19 @@
         <v>96</v>
       </c>
       <c r="C208" t="n">
-        <v>96.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="D208" t="n">
-        <v>96.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="E208" t="n">
         <v>96</v>
       </c>
       <c r="F208" t="n">
-        <v>358.0336</v>
+        <v>10</v>
       </c>
       <c r="G208" t="n">
-        <v>96.20000000000029</v>
+        <v>95.08500000000006</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8513,19 +8107,19 @@
         <v>96</v>
       </c>
       <c r="C209" t="n">
-        <v>95.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D209" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E209" t="n">
         <v>96</v>
       </c>
-      <c r="E209" t="n">
-        <v>95.5</v>
-      </c>
       <c r="F209" t="n">
-        <v>14.9664</v>
+        <v>358.0336</v>
       </c>
       <c r="G209" t="n">
-        <v>95.95000000000027</v>
+        <v>95.10833333333339</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8545,22 +8139,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>96.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="C210" t="n">
-        <v>96.5</v>
+        <v>95.5</v>
       </c>
       <c r="D210" t="n">
-        <v>96.5</v>
+        <v>96</v>
       </c>
       <c r="E210" t="n">
-        <v>96.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="F210" t="n">
-        <v>912.7621</v>
+        <v>14.9664</v>
       </c>
       <c r="G210" t="n">
-        <v>96.00000000000027</v>
+        <v>95.1183333333334</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8580,22 +8174,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>96.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C211" t="n">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="D211" t="n">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="E211" t="n">
-        <v>96.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F211" t="n">
-        <v>990.1774</v>
+        <v>912.7621</v>
       </c>
       <c r="G211" t="n">
-        <v>96.55000000000027</v>
+        <v>95.11000000000007</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8618,19 +8212,19 @@
         <v>96.59999999999999</v>
       </c>
       <c r="C212" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D212" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E212" t="n">
         <v>96.59999999999999</v>
       </c>
       <c r="F212" t="n">
-        <v>2302.493</v>
+        <v>990.1774</v>
       </c>
       <c r="G212" t="n">
-        <v>96.65000000000026</v>
+        <v>95.10333333333341</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8650,22 +8244,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>96.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C213" t="n">
-        <v>96.3</v>
+        <v>96.7</v>
       </c>
       <c r="D213" t="n">
-        <v>96.3</v>
+        <v>96.7</v>
       </c>
       <c r="E213" t="n">
-        <v>96.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F213" t="n">
-        <v>363.4476</v>
+        <v>2302.493</v>
       </c>
       <c r="G213" t="n">
-        <v>96.50000000000027</v>
+        <v>95.13833333333339</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8685,22 +8279,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>95.90000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="C214" t="n">
-        <v>95.2</v>
+        <v>96.3</v>
       </c>
       <c r="D214" t="n">
-        <v>95.90000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="E214" t="n">
-        <v>95.2</v>
+        <v>96.3</v>
       </c>
       <c r="F214" t="n">
-        <v>511.5524</v>
+        <v>363.4476</v>
       </c>
       <c r="G214" t="n">
-        <v>95.75000000000028</v>
+        <v>95.16500000000006</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8720,22 +8314,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>96.40000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C215" t="n">
-        <v>96.40000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="D215" t="n">
-        <v>96.40000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E215" t="n">
-        <v>96.40000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="F215" t="n">
-        <v>366.4921</v>
+        <v>511.5524</v>
       </c>
       <c r="G215" t="n">
-        <v>95.80000000000027</v>
+        <v>95.13833333333339</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8755,22 +8349,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>95.90000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C216" t="n">
-        <v>95.90000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D216" t="n">
-        <v>95.90000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E216" t="n">
-        <v>95.90000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F216" t="n">
-        <v>362.1549</v>
+        <v>366.4921</v>
       </c>
       <c r="G216" t="n">
-        <v>96.15000000000029</v>
+        <v>95.15500000000006</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8793,19 +8387,19 @@
         <v>95.90000000000001</v>
       </c>
       <c r="C217" t="n">
-        <v>95.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D217" t="n">
         <v>95.90000000000001</v>
       </c>
       <c r="E217" t="n">
-        <v>95.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F217" t="n">
-        <v>6.4493</v>
+        <v>362.1549</v>
       </c>
       <c r="G217" t="n">
-        <v>95.50000000000027</v>
+        <v>95.14500000000005</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8825,22 +8419,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C218" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D218" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E218" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F218" t="n">
-        <v>37938.9406</v>
+        <v>6.4493</v>
       </c>
       <c r="G218" t="n">
-        <v>95.05000000000028</v>
+        <v>95.13833333333339</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8860,22 +8454,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="C219" t="n">
-        <v>96.7</v>
+        <v>95</v>
       </c>
       <c r="D219" t="n">
-        <v>96.7</v>
+        <v>95.5</v>
       </c>
       <c r="E219" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F219" t="n">
-        <v>2655.6933</v>
+        <v>37938.9406</v>
       </c>
       <c r="G219" t="n">
-        <v>95.85000000000029</v>
+        <v>95.14000000000007</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8895,7 +8489,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>96.7</v>
+        <v>96</v>
       </c>
       <c r="C220" t="n">
         <v>96.7</v>
@@ -8904,13 +8498,13 @@
         <v>96.7</v>
       </c>
       <c r="E220" t="n">
-        <v>96.7</v>
+        <v>96</v>
       </c>
       <c r="F220" t="n">
-        <v>264.4255</v>
+        <v>2655.6933</v>
       </c>
       <c r="G220" t="n">
-        <v>96.7000000000003</v>
+        <v>95.1733333333334</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8930,22 +8524,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>96.3</v>
+        <v>96.7</v>
       </c>
       <c r="C221" t="n">
-        <v>96.3</v>
+        <v>96.7</v>
       </c>
       <c r="D221" t="n">
-        <v>96.3</v>
+        <v>96.7</v>
       </c>
       <c r="E221" t="n">
-        <v>96.3</v>
+        <v>96.7</v>
       </c>
       <c r="F221" t="n">
-        <v>363.4476</v>
+        <v>264.4255</v>
       </c>
       <c r="G221" t="n">
-        <v>96.50000000000031</v>
+        <v>95.2183333333334</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8965,22 +8559,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>95.90000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="C222" t="n">
-        <v>95</v>
+        <v>96.3</v>
       </c>
       <c r="D222" t="n">
-        <v>95.90000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="E222" t="n">
-        <v>95</v>
+        <v>96.3</v>
       </c>
       <c r="F222" t="n">
-        <v>3811.5085</v>
+        <v>363.4476</v>
       </c>
       <c r="G222" t="n">
-        <v>95.65000000000032</v>
+        <v>95.25666666666673</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -9000,22 +8594,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>96.40000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C223" t="n">
-        <v>96.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="D223" t="n">
-        <v>96.40000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E223" t="n">
-        <v>96.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="F223" t="n">
-        <v>5.4</v>
+        <v>3811.5085</v>
       </c>
       <c r="G223" t="n">
-        <v>95.7000000000003</v>
+        <v>95.2733333333334</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -9035,22 +8629,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>95.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C224" t="n">
-        <v>95.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D224" t="n">
-        <v>95.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E224" t="n">
-        <v>95.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F224" t="n">
-        <v>366.4921</v>
+        <v>5.4</v>
       </c>
       <c r="G224" t="n">
-        <v>95.9500000000003</v>
+        <v>95.32000000000006</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -9070,22 +8664,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="C225" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="D225" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="E225" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="F225" t="n">
-        <v>49481.4568</v>
+        <v>366.4921</v>
       </c>
       <c r="G225" t="n">
-        <v>95.4000000000003</v>
+        <v>95.35833333333339</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -9105,22 +8699,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>96</v>
+        <v>95.3</v>
       </c>
       <c r="C226" t="n">
-        <v>96</v>
+        <v>95.3</v>
       </c>
       <c r="D226" t="n">
-        <v>96</v>
+        <v>95.3</v>
       </c>
       <c r="E226" t="n">
-        <v>96</v>
+        <v>95.3</v>
       </c>
       <c r="F226" t="n">
-        <v>50</v>
+        <v>49481.4568</v>
       </c>
       <c r="G226" t="n">
-        <v>95.65000000000032</v>
+        <v>95.39500000000005</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -9152,10 +8746,10 @@
         <v>96</v>
       </c>
       <c r="F227" t="n">
-        <v>318.0336</v>
+        <v>50</v>
       </c>
       <c r="G227" t="n">
-        <v>96.00000000000031</v>
+        <v>95.43666666666672</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -9175,22 +8769,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>96.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="C228" t="n">
-        <v>96.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="D228" t="n">
-        <v>96.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="E228" t="n">
-        <v>96.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="F228" t="n">
-        <v>5.5</v>
+        <v>318.0336</v>
       </c>
       <c r="G228" t="n">
-        <v>96.20000000000033</v>
+        <v>95.47166666666674</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -9210,22 +8804,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C229" t="n">
-        <v>96.09999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D229" t="n">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E229" t="n">
-        <v>96.09999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F229" t="n">
-        <v>11.6819</v>
+        <v>5.5</v>
       </c>
       <c r="G229" t="n">
-        <v>96.25000000000034</v>
+        <v>95.47000000000006</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -9245,22 +8839,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>96</v>
+        <v>96.2</v>
       </c>
       <c r="C230" t="n">
-        <v>96</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D230" t="n">
-        <v>96</v>
+        <v>96.2</v>
       </c>
       <c r="E230" t="n">
-        <v>96</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F230" t="n">
-        <v>381.0483</v>
+        <v>11.6819</v>
       </c>
       <c r="G230" t="n">
-        <v>96.05000000000034</v>
+        <v>95.4933333333334</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -9280,22 +8874,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>95.5</v>
+        <v>96</v>
       </c>
       <c r="C231" t="n">
-        <v>95.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="D231" t="n">
-        <v>95.5</v>
+        <v>96</v>
       </c>
       <c r="E231" t="n">
-        <v>95.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="F231" t="n">
-        <v>3475.1256</v>
+        <v>381.0483</v>
       </c>
       <c r="G231" t="n">
-        <v>95.55000000000034</v>
+        <v>95.51000000000006</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9315,22 +8909,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="C232" t="n">
-        <v>96</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D232" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="E232" t="n">
-        <v>96</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F232" t="n">
-        <v>5.5</v>
+        <v>3475.1256</v>
       </c>
       <c r="G232" t="n">
-        <v>95.55000000000035</v>
+        <v>95.51166666666674</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9350,22 +8944,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>95.3</v>
+        <v>96</v>
       </c>
       <c r="C233" t="n">
-        <v>95.2</v>
+        <v>96</v>
       </c>
       <c r="D233" t="n">
-        <v>95.3</v>
+        <v>96</v>
       </c>
       <c r="E233" t="n">
-        <v>95.2</v>
+        <v>96</v>
       </c>
       <c r="F233" t="n">
-        <v>63.5969</v>
+        <v>5.5</v>
       </c>
       <c r="G233" t="n">
-        <v>95.60000000000035</v>
+        <v>95.52666666666673</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9385,22 +8979,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="C234" t="n">
         <v>95.2</v>
       </c>
       <c r="D234" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="E234" t="n">
         <v>95.2</v>
       </c>
       <c r="F234" t="n">
-        <v>369.9789</v>
+        <v>63.5969</v>
       </c>
       <c r="G234" t="n">
-        <v>95.20000000000036</v>
+        <v>95.52500000000006</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9420,22 +9014,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>95.90000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="C235" t="n">
-        <v>95.90000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="D235" t="n">
-        <v>95.90000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="E235" t="n">
-        <v>95.90000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="F235" t="n">
-        <v>5.5</v>
+        <v>369.9789</v>
       </c>
       <c r="G235" t="n">
-        <v>95.55000000000038</v>
+        <v>95.52833333333339</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9455,22 +9049,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>95.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C236" t="n">
-        <v>95.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D236" t="n">
-        <v>95.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E236" t="n">
-        <v>95.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F236" t="n">
-        <v>6.1818</v>
+        <v>5.5</v>
       </c>
       <c r="G236" t="n">
-        <v>95.60000000000039</v>
+        <v>95.54333333333338</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9490,22 +9084,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>95.09999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="C237" t="n">
-        <v>95.09999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="D237" t="n">
-        <v>95.09999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="E237" t="n">
-        <v>95.09999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="F237" t="n">
-        <v>800</v>
+        <v>6.1818</v>
       </c>
       <c r="G237" t="n">
-        <v>95.20000000000037</v>
+        <v>95.54833333333339</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9537,10 +9131,10 @@
         <v>95.09999999999999</v>
       </c>
       <c r="F238" t="n">
-        <v>605.5</v>
+        <v>800</v>
       </c>
       <c r="G238" t="n">
-        <v>95.10000000000036</v>
+        <v>95.55000000000005</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9560,22 +9154,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>95.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C239" t="n">
-        <v>95.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D239" t="n">
-        <v>95.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E239" t="n">
-        <v>95.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F239" t="n">
-        <v>8.1341</v>
+        <v>605.5</v>
       </c>
       <c r="G239" t="n">
-        <v>95.20000000000037</v>
+        <v>95.55833333333339</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9598,19 +9192,19 @@
         <v>95.3</v>
       </c>
       <c r="C240" t="n">
-        <v>99.3</v>
+        <v>95.3</v>
       </c>
       <c r="D240" t="n">
-        <v>99.3</v>
+        <v>95.3</v>
       </c>
       <c r="E240" t="n">
         <v>95.3</v>
       </c>
       <c r="F240" t="n">
-        <v>47944.27333293051</v>
+        <v>8.1341</v>
       </c>
       <c r="G240" t="n">
-        <v>97.30000000000037</v>
+        <v>95.58000000000007</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9630,22 +9224,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>96.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="C241" t="n">
-        <v>96.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="D241" t="n">
-        <v>96.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="E241" t="n">
-        <v>96.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="F241" t="n">
-        <v>366.4921</v>
+        <v>47944.27333293051</v>
       </c>
       <c r="G241" t="n">
-        <v>97.85000000000036</v>
+        <v>95.66500000000006</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9665,22 +9259,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>96.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C242" t="n">
-        <v>96.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D242" t="n">
-        <v>96.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E242" t="n">
-        <v>96.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F242" t="n">
-        <v>308.5115</v>
+        <v>366.4921</v>
       </c>
       <c r="G242" t="n">
-        <v>96.50000000000037</v>
+        <v>95.69500000000006</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9700,22 +9294,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C243" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D243" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E243" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F243" t="n">
-        <v>3445.595</v>
+        <v>308.5115</v>
       </c>
       <c r="G243" t="n">
-        <v>96.55000000000037</v>
+        <v>95.72666666666673</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9735,22 +9329,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>95.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="C244" t="n">
-        <v>95.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="D244" t="n">
-        <v>95.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="E244" t="n">
-        <v>95.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="F244" t="n">
-        <v>364.9635</v>
+        <v>3445.595</v>
       </c>
       <c r="G244" t="n">
-        <v>96.20000000000037</v>
+        <v>95.75500000000007</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9782,10 +9376,10 @@
         <v>95.90000000000001</v>
       </c>
       <c r="F245" t="n">
-        <v>2648.8817</v>
+        <v>364.9635</v>
       </c>
       <c r="G245" t="n">
-        <v>95.90000000000038</v>
+        <v>95.77000000000005</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9817,10 +9411,10 @@
         <v>95.90000000000001</v>
       </c>
       <c r="F246" t="n">
-        <v>601.5957</v>
+        <v>2648.8817</v>
       </c>
       <c r="G246" t="n">
-        <v>95.90000000000036</v>
+        <v>95.79500000000006</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9840,22 +9434,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C247" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D247" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E247" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F247" t="n">
-        <v>366.4921</v>
+        <v>601.5957</v>
       </c>
       <c r="G247" t="n">
-        <v>95.70000000000037</v>
+        <v>95.80833333333338</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9875,22 +9469,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="C248" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="D248" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="E248" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="F248" t="n">
-        <v>1092.4327</v>
+        <v>366.4921</v>
       </c>
       <c r="G248" t="n">
-        <v>95.40000000000036</v>
+        <v>95.81500000000004</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9910,22 +9504,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>95.90000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="C249" t="n">
-        <v>95.90000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="D249" t="n">
-        <v>95.90000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="E249" t="n">
-        <v>95.90000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="F249" t="n">
-        <v>560.1979</v>
+        <v>1092.4327</v>
       </c>
       <c r="G249" t="n">
-        <v>95.60000000000036</v>
+        <v>95.81833333333337</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9945,22 +9539,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>95.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C250" t="n">
-        <v>95.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D250" t="n">
-        <v>95.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E250" t="n">
-        <v>95.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F250" t="n">
-        <v>7</v>
+        <v>560.1979</v>
       </c>
       <c r="G250" t="n">
-        <v>95.60000000000036</v>
+        <v>95.82833333333336</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9983,19 +9577,19 @@
         <v>95.3</v>
       </c>
       <c r="C251" t="n">
-        <v>95.09999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="D251" t="n">
         <v>95.3</v>
       </c>
       <c r="E251" t="n">
-        <v>95.09999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="F251" t="n">
-        <v>2183.5953</v>
+        <v>7</v>
       </c>
       <c r="G251" t="n">
-        <v>95.20000000000037</v>
+        <v>95.82500000000003</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -10015,22 +9609,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="C252" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D252" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="E252" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F252" t="n">
-        <v>1984.328</v>
+        <v>2183.5953</v>
       </c>
       <c r="G252" t="n">
-        <v>95.05000000000038</v>
+        <v>95.81833333333337</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -10050,22 +9644,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>94.7</v>
+        <v>95</v>
       </c>
       <c r="C253" t="n">
-        <v>94.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="D253" t="n">
-        <v>94.7</v>
+        <v>95</v>
       </c>
       <c r="E253" t="n">
-        <v>94.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="F253" t="n">
-        <v>1492.5706</v>
+        <v>1984.328</v>
       </c>
       <c r="G253" t="n">
-        <v>94.7000000000004</v>
+        <v>95.8016666666667</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -10085,22 +9679,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="C254" t="n">
-        <v>94.3</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D254" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="E254" t="n">
-        <v>94.3</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F254" t="n">
-        <v>43893.2325</v>
+        <v>1492.5706</v>
       </c>
       <c r="G254" t="n">
-        <v>94.35000000000039</v>
+        <v>95.77500000000003</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -10120,22 +9714,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>94.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="C255" t="n">
-        <v>94.09999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="D255" t="n">
-        <v>94.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="E255" t="n">
-        <v>94.09999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="F255" t="n">
-        <v>6</v>
+        <v>43893.2325</v>
       </c>
       <c r="G255" t="n">
-        <v>94.20000000000037</v>
+        <v>95.74000000000004</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -10158,19 +9752,19 @@
         <v>94.09999999999999</v>
       </c>
       <c r="C256" t="n">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="D256" t="n">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="E256" t="n">
         <v>94.09999999999999</v>
       </c>
       <c r="F256" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G256" t="n">
-        <v>94.15000000000038</v>
+        <v>95.71666666666671</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -10190,7 +9784,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C257" t="n">
         <v>94.2</v>
@@ -10199,13 +9793,13 @@
         <v>94.2</v>
       </c>
       <c r="E257" t="n">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="F257" t="n">
-        <v>100.0304</v>
+        <v>18</v>
       </c>
       <c r="G257" t="n">
-        <v>94.20000000000037</v>
+        <v>95.7016666666667</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -10228,19 +9822,19 @@
         <v>94.2</v>
       </c>
       <c r="C258" t="n">
-        <v>94.09999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="D258" t="n">
         <v>94.2</v>
       </c>
       <c r="E258" t="n">
-        <v>94.09999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="F258" t="n">
-        <v>230.8413</v>
+        <v>100.0304</v>
       </c>
       <c r="G258" t="n">
-        <v>94.15000000000038</v>
+        <v>95.6866666666667</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -10260,22 +9854,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="C259" t="n">
         <v>94.09999999999999</v>
       </c>
-      <c r="C259" t="n">
-        <v>94</v>
-      </c>
       <c r="D259" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="E259" t="n">
         <v>94.09999999999999</v>
       </c>
-      <c r="E259" t="n">
-        <v>94</v>
-      </c>
       <c r="F259" t="n">
-        <v>3838.6735</v>
+        <v>230.8413</v>
       </c>
       <c r="G259" t="n">
-        <v>94.05000000000038</v>
+        <v>95.6716666666667</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -10295,22 +9889,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>94</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C260" t="n">
         <v>94</v>
       </c>
       <c r="D260" t="n">
-        <v>94</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="E260" t="n">
         <v>94</v>
       </c>
       <c r="F260" t="n">
-        <v>82.83799999999999</v>
+        <v>3838.6735</v>
       </c>
       <c r="G260" t="n">
-        <v>94.00000000000038</v>
+        <v>95.65333333333336</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10342,10 +9936,10 @@
         <v>94</v>
       </c>
       <c r="F261" t="n">
-        <v>828.9461</v>
+        <v>82.83799999999999</v>
       </c>
       <c r="G261" t="n">
-        <v>94.0000000000004</v>
+        <v>95.6366666666667</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10365,22 +9959,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>93.8</v>
+        <v>94</v>
       </c>
       <c r="C262" t="n">
-        <v>93.8</v>
+        <v>94</v>
       </c>
       <c r="D262" t="n">
-        <v>93.8</v>
+        <v>94</v>
       </c>
       <c r="E262" t="n">
-        <v>93.8</v>
+        <v>94</v>
       </c>
       <c r="F262" t="n">
-        <v>6</v>
+        <v>828.9461</v>
       </c>
       <c r="G262" t="n">
-        <v>93.9000000000004</v>
+        <v>95.61000000000003</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10412,10 +10006,10 @@
         <v>93.8</v>
       </c>
       <c r="F263" t="n">
-        <v>1200</v>
+        <v>6</v>
       </c>
       <c r="G263" t="n">
-        <v>93.80000000000041</v>
+        <v>95.58000000000001</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10447,10 +10041,10 @@
         <v>93.8</v>
       </c>
       <c r="F264" t="n">
-        <v>99.9701</v>
+        <v>1200</v>
       </c>
       <c r="G264" t="n">
-        <v>93.80000000000041</v>
+        <v>95.54500000000003</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10470,22 +10064,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>93.5</v>
+        <v>93.8</v>
       </c>
       <c r="C265" t="n">
-        <v>93.5</v>
+        <v>93.8</v>
       </c>
       <c r="D265" t="n">
-        <v>93.5</v>
+        <v>93.8</v>
       </c>
       <c r="E265" t="n">
-        <v>93.5</v>
+        <v>93.8</v>
       </c>
       <c r="F265" t="n">
-        <v>6</v>
+        <v>99.9701</v>
       </c>
       <c r="G265" t="n">
-        <v>93.6500000000004</v>
+        <v>95.51000000000003</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10508,19 +10102,19 @@
         <v>93.5</v>
       </c>
       <c r="C266" t="n">
-        <v>93.40000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="D266" t="n">
         <v>93.5</v>
       </c>
       <c r="E266" t="n">
-        <v>93.40000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="F266" t="n">
-        <v>3500</v>
+        <v>6</v>
       </c>
       <c r="G266" t="n">
-        <v>93.45000000000041</v>
+        <v>95.46833333333338</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10540,22 +10134,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="C267" t="n">
         <v>93.40000000000001</v>
       </c>
-      <c r="C267" t="n">
-        <v>93.2</v>
-      </c>
       <c r="D267" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="E267" t="n">
         <v>93.40000000000001</v>
       </c>
-      <c r="E267" t="n">
-        <v>93.2</v>
-      </c>
       <c r="F267" t="n">
-        <v>55000</v>
+        <v>3500</v>
       </c>
       <c r="G267" t="n">
-        <v>93.30000000000041</v>
+        <v>95.44000000000003</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10575,22 +10169,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>93.2</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C268" t="n">
         <v>93.2</v>
       </c>
       <c r="D268" t="n">
-        <v>93.2</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="E268" t="n">
         <v>93.2</v>
       </c>
       <c r="F268" t="n">
-        <v>1922.3006</v>
+        <v>55000</v>
       </c>
       <c r="G268" t="n">
-        <v>93.2000000000004</v>
+        <v>95.39333333333336</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10622,10 +10216,10 @@
         <v>93.2</v>
       </c>
       <c r="F269" t="n">
-        <v>187.8289</v>
+        <v>1922.3006</v>
       </c>
       <c r="G269" t="n">
-        <v>93.20000000000041</v>
+        <v>95.34000000000002</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10645,22 +10239,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>93</v>
+        <v>93.2</v>
       </c>
       <c r="C270" t="n">
-        <v>93</v>
+        <v>93.2</v>
       </c>
       <c r="D270" t="n">
-        <v>93</v>
+        <v>93.2</v>
       </c>
       <c r="E270" t="n">
-        <v>93</v>
+        <v>93.2</v>
       </c>
       <c r="F270" t="n">
-        <v>2006</v>
+        <v>187.8289</v>
       </c>
       <c r="G270" t="n">
-        <v>93.10000000000042</v>
+        <v>95.30166666666669</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10683,19 +10277,19 @@
         <v>93</v>
       </c>
       <c r="C271" t="n">
-        <v>92.7</v>
+        <v>93</v>
       </c>
       <c r="D271" t="n">
         <v>93</v>
       </c>
       <c r="E271" t="n">
-        <v>92.7</v>
+        <v>93</v>
       </c>
       <c r="F271" t="n">
-        <v>370.9601</v>
+        <v>2006</v>
       </c>
       <c r="G271" t="n">
-        <v>92.85000000000042</v>
+        <v>95.24333333333335</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10715,22 +10309,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>92.7</v>
+        <v>93</v>
       </c>
       <c r="C272" t="n">
         <v>92.7</v>
       </c>
       <c r="D272" t="n">
-        <v>92.7</v>
+        <v>93</v>
       </c>
       <c r="E272" t="n">
         <v>92.7</v>
       </c>
       <c r="F272" t="n">
-        <v>2109.6321</v>
+        <v>370.9601</v>
       </c>
       <c r="G272" t="n">
-        <v>92.70000000000041</v>
+        <v>95.17833333333334</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10750,22 +10344,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="C273" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="D273" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="E273" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="F273" t="n">
-        <v>270.1484</v>
+        <v>2109.6321</v>
       </c>
       <c r="G273" t="n">
-        <v>92.6500000000004</v>
+        <v>95.11166666666668</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10785,22 +10379,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>92.7</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C274" t="n">
-        <v>92.7</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="D274" t="n">
-        <v>92.7</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="E274" t="n">
-        <v>92.7</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F274" t="n">
-        <v>3321.4469</v>
+        <v>270.1484</v>
       </c>
       <c r="G274" t="n">
-        <v>92.6500000000004</v>
+        <v>95.05000000000001</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10820,22 +10414,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="C275" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="D275" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="E275" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="F275" t="n">
-        <v>6</v>
+        <v>3321.4469</v>
       </c>
       <c r="G275" t="n">
-        <v>92.65000000000039</v>
+        <v>95.00833333333335</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10870,7 +10464,7 @@
         <v>6</v>
       </c>
       <c r="G276" t="n">
-        <v>92.60000000000039</v>
+        <v>94.94500000000002</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10902,10 +10496,10 @@
         <v>92.59999999999999</v>
       </c>
       <c r="F277" t="n">
-        <v>862.776</v>
+        <v>6</v>
       </c>
       <c r="G277" t="n">
-        <v>92.60000000000038</v>
+        <v>94.89000000000004</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10925,22 +10519,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>92.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C278" t="n">
-        <v>91.2</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="D278" t="n">
-        <v>92.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="E278" t="n">
-        <v>91.2</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F278" t="n">
-        <v>57880.7428</v>
+        <v>862.776</v>
       </c>
       <c r="G278" t="n">
-        <v>91.90000000000039</v>
+        <v>94.84833333333337</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10960,22 +10554,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>91.90000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="C279" t="n">
-        <v>91.7</v>
+        <v>91.2</v>
       </c>
       <c r="D279" t="n">
-        <v>91.90000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="E279" t="n">
-        <v>91.7</v>
+        <v>91.2</v>
       </c>
       <c r="F279" t="n">
-        <v>1458.8131</v>
+        <v>57880.7428</v>
       </c>
       <c r="G279" t="n">
-        <v>91.4500000000004</v>
+        <v>94.78500000000004</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10995,22 +10589,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>91.59999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C280" t="n">
         <v>91.7</v>
       </c>
       <c r="D280" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="E280" t="n">
         <v>91.7</v>
       </c>
-      <c r="E280" t="n">
-        <v>91.59999999999999</v>
-      </c>
       <c r="F280" t="n">
-        <v>15926.0137</v>
+        <v>1458.8131</v>
       </c>
       <c r="G280" t="n">
-        <v>91.70000000000041</v>
+        <v>94.7016666666667</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -11030,22 +10624,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>91.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C281" t="n">
-        <v>91.2</v>
+        <v>91.7</v>
       </c>
       <c r="D281" t="n">
-        <v>91.5</v>
+        <v>91.7</v>
       </c>
       <c r="E281" t="n">
-        <v>91.2</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="F281" t="n">
-        <v>15669.3624</v>
+        <v>15926.0137</v>
       </c>
       <c r="G281" t="n">
-        <v>91.45000000000041</v>
+        <v>94.61833333333337</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -11065,22 +10659,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>91.3</v>
+        <v>91.5</v>
       </c>
       <c r="C282" t="n">
         <v>91.2</v>
       </c>
       <c r="D282" t="n">
-        <v>91.3</v>
+        <v>91.5</v>
       </c>
       <c r="E282" t="n">
         <v>91.2</v>
       </c>
       <c r="F282" t="n">
-        <v>25579.3159</v>
+        <v>15669.3624</v>
       </c>
       <c r="G282" t="n">
-        <v>91.20000000000041</v>
+        <v>94.53333333333336</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -11100,22 +10694,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>91</v>
+        <v>91.3</v>
       </c>
       <c r="C283" t="n">
-        <v>91</v>
+        <v>91.2</v>
       </c>
       <c r="D283" t="n">
-        <v>91.09999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="E283" t="n">
-        <v>91</v>
+        <v>91.2</v>
       </c>
       <c r="F283" t="n">
-        <v>5188.5826</v>
+        <v>25579.3159</v>
       </c>
       <c r="G283" t="n">
-        <v>91.10000000000042</v>
+        <v>94.47000000000003</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -11141,16 +10735,16 @@
         <v>91</v>
       </c>
       <c r="D284" t="n">
-        <v>91</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="E284" t="n">
         <v>91</v>
       </c>
       <c r="F284" t="n">
-        <v>3157.0565</v>
+        <v>5188.5826</v>
       </c>
       <c r="G284" t="n">
-        <v>91.00000000000043</v>
+        <v>94.38000000000004</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -11170,22 +10764,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>91.7</v>
+        <v>91</v>
       </c>
       <c r="C285" t="n">
-        <v>91.7</v>
+        <v>91</v>
       </c>
       <c r="D285" t="n">
-        <v>91.7</v>
+        <v>91</v>
       </c>
       <c r="E285" t="n">
-        <v>91.7</v>
+        <v>91</v>
       </c>
       <c r="F285" t="n">
-        <v>16679.1955</v>
+        <v>3157.0565</v>
       </c>
       <c r="G285" t="n">
-        <v>91.35000000000042</v>
+        <v>94.30500000000004</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -11205,22 +10799,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>91.59999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="C286" t="n">
-        <v>91.59999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="D286" t="n">
-        <v>91.59999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="E286" t="n">
-        <v>91.59999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="F286" t="n">
-        <v>116.6537</v>
+        <v>16679.1955</v>
       </c>
       <c r="G286" t="n">
-        <v>91.65000000000043</v>
+        <v>94.24500000000003</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -11240,22 +10834,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>91.2</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C287" t="n">
-        <v>91</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="D287" t="n">
-        <v>91.2</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="E287" t="n">
-        <v>91</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="F287" t="n">
-        <v>393.7719</v>
+        <v>116.6537</v>
       </c>
       <c r="G287" t="n">
-        <v>91.30000000000044</v>
+        <v>94.1716666666667</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -11270,6 +10864,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="C288" t="n">
+        <v>91</v>
+      </c>
+      <c r="D288" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="E288" t="n">
+        <v>91</v>
+      </c>
+      <c r="F288" t="n">
+        <v>393.7719</v>
+      </c>
+      <c r="G288" t="n">
+        <v>94.08833333333337</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
+      <c r="M288" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-26 BackTest FCT.xlsx
+++ b/BackTest/2019-11-26 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M288"/>
+  <dimension ref="A1:N298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>13029.2242</v>
       </c>
       <c r="G2" t="n">
+        <v>88.18666666666665</v>
+      </c>
+      <c r="H2" t="n">
         <v>89.05333333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>1001.014</v>
       </c>
       <c r="G3" t="n">
+        <v>88.15333333333332</v>
+      </c>
+      <c r="H3" t="n">
         <v>89.07166666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>3.5</v>
       </c>
       <c r="G4" t="n">
+        <v>88.12666666666665</v>
+      </c>
+      <c r="H4" t="n">
         <v>89.08833333333334</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>158.6782</v>
       </c>
       <c r="G5" t="n">
+        <v>88.08666666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>89.105</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="L5" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,29 @@
         <v>1003.44</v>
       </c>
       <c r="G6" t="n">
+        <v>88.11333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>89.13500000000001</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="L6" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +671,27 @@
         <v>854.7089999999999</v>
       </c>
       <c r="G7" t="n">
+        <v>88.14666666666668</v>
+      </c>
+      <c r="H7" t="n">
         <v>89.16666666666669</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="L7" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +715,27 @@
         <v>1286.8093</v>
       </c>
       <c r="G8" t="n">
+        <v>88.19333333333334</v>
+      </c>
+      <c r="H8" t="n">
         <v>89.20000000000002</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +759,27 @@
         <v>5.6</v>
       </c>
       <c r="G9" t="n">
+        <v>88.24666666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>89.23333333333335</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +803,27 @@
         <v>142.9539</v>
       </c>
       <c r="G10" t="n">
+        <v>88.32000000000001</v>
+      </c>
+      <c r="H10" t="n">
         <v>89.25000000000001</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +847,27 @@
         <v>1156.7644</v>
       </c>
       <c r="G11" t="n">
+        <v>88.36</v>
+      </c>
+      <c r="H11" t="n">
         <v>89.26500000000003</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +891,27 @@
         <v>5.7</v>
       </c>
       <c r="G12" t="n">
+        <v>88.44000000000001</v>
+      </c>
+      <c r="H12" t="n">
         <v>89.28666666666668</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +935,27 @@
         <v>10390.4639</v>
       </c>
       <c r="G13" t="n">
+        <v>88.52666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>89.31</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +979,27 @@
         <v>11317.2629</v>
       </c>
       <c r="G14" t="n">
+        <v>88.61333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>89.32166666666669</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1023,27 @@
         <v>394.5885</v>
       </c>
       <c r="G15" t="n">
+        <v>88.67333333333335</v>
+      </c>
+      <c r="H15" t="n">
         <v>89.32666666666668</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1067,27 @@
         <v>400.2885</v>
       </c>
       <c r="G16" t="n">
+        <v>88.76666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>89.32833333333336</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1111,27 @@
         <v>20.5032</v>
       </c>
       <c r="G17" t="n">
+        <v>88.76666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>89.31666666666669</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1155,27 @@
         <v>7678.5215</v>
       </c>
       <c r="G18" t="n">
+        <v>88.74000000000001</v>
+      </c>
+      <c r="H18" t="n">
         <v>89.28000000000002</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1199,27 @@
         <v>4699.5581</v>
       </c>
       <c r="G19" t="n">
+        <v>88.70666666666668</v>
+      </c>
+      <c r="H19" t="n">
         <v>89.23000000000002</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,24 +1243,27 @@
         <v>55933.6604</v>
       </c>
       <c r="G20" t="n">
+        <v>88.61999999999999</v>
+      </c>
+      <c r="H20" t="n">
         <v>89.15166666666669</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>87.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1119,24 +1287,29 @@
         <v>5</v>
       </c>
       <c r="G21" t="n">
+        <v>88.57333333333332</v>
+      </c>
+      <c r="H21" t="n">
         <v>89.08500000000002</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,24 +1333,29 @@
         <v>1000.2525</v>
       </c>
       <c r="G22" t="n">
+        <v>88.52</v>
+      </c>
+      <c r="H22" t="n">
         <v>89.02000000000002</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>88</v>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1201,24 +1379,29 @@
         <v>36.109</v>
       </c>
       <c r="G23" t="n">
+        <v>88.45333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>88.95333333333336</v>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>88</v>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1242,24 +1425,29 @@
         <v>147.9649</v>
       </c>
       <c r="G24" t="n">
+        <v>88.38000000000001</v>
+      </c>
+      <c r="H24" t="n">
         <v>88.8866666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>88</v>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1283,24 +1471,29 @@
         <v>500</v>
       </c>
       <c r="G25" t="n">
+        <v>88.31999999999999</v>
+      </c>
+      <c r="H25" t="n">
         <v>88.82833333333336</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>88</v>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1324,24 +1517,29 @@
         <v>352.0351</v>
       </c>
       <c r="G26" t="n">
+        <v>88.26666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>88.7616666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>88</v>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1365,24 +1563,29 @@
         <v>77</v>
       </c>
       <c r="G27" t="n">
+        <v>88.20666666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>88.70333333333336</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>88</v>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1406,24 +1609,29 @@
         <v>399.5434</v>
       </c>
       <c r="G28" t="n">
+        <v>88.11333333333332</v>
+      </c>
+      <c r="H28" t="n">
         <v>88.64166666666669</v>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>88</v>
       </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1447,22 +1655,29 @@
         <v>5496.2846</v>
       </c>
       <c r="G29" t="n">
+        <v>88.01333333333332</v>
+      </c>
+      <c r="H29" t="n">
         <v>88.57333333333337</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L29" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1486,22 +1701,29 @@
         <v>5839.7208</v>
       </c>
       <c r="G30" t="n">
+        <v>87.91999999999999</v>
+      </c>
+      <c r="H30" t="n">
         <v>88.50833333333338</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L30" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1525,22 +1747,29 @@
         <v>9112.960300000001</v>
       </c>
       <c r="G31" t="n">
+        <v>87.81999999999998</v>
+      </c>
+      <c r="H31" t="n">
         <v>88.45500000000006</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1564,22 +1793,29 @@
         <v>5.6948</v>
       </c>
       <c r="G32" t="n">
+        <v>87.78666666666665</v>
+      </c>
+      <c r="H32" t="n">
         <v>88.41833333333338</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L32" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,22 +1839,29 @@
         <v>23775.0309</v>
       </c>
       <c r="G33" t="n">
+        <v>87.76666666666664</v>
+      </c>
+      <c r="H33" t="n">
         <v>88.37000000000006</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="L33" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1642,22 +1885,29 @@
         <v>1819.3524</v>
       </c>
       <c r="G34" t="n">
+        <v>87.76666666666664</v>
+      </c>
+      <c r="H34" t="n">
         <v>88.32666666666672</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L34" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1681,22 +1931,29 @@
         <v>17104.5907</v>
       </c>
       <c r="G35" t="n">
+        <v>87.82666666666664</v>
+      </c>
+      <c r="H35" t="n">
         <v>88.27833333333339</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="L35" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1720,22 +1977,29 @@
         <v>500</v>
       </c>
       <c r="G36" t="n">
+        <v>87.79999999999997</v>
+      </c>
+      <c r="H36" t="n">
         <v>88.25333333333339</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>88</v>
+      </c>
+      <c r="L36" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1759,22 +2023,29 @@
         <v>12210.7608</v>
       </c>
       <c r="G37" t="n">
+        <v>87.79999999999997</v>
+      </c>
+      <c r="H37" t="n">
         <v>88.23666666666672</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L37" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1798,22 +2069,29 @@
         <v>27.7056</v>
       </c>
       <c r="G38" t="n">
+        <v>87.79999999999997</v>
+      </c>
+      <c r="H38" t="n">
         <v>88.2283333333334</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>88</v>
+      </c>
+      <c r="L38" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1837,22 +2115,29 @@
         <v>1329.589</v>
       </c>
       <c r="G39" t="n">
+        <v>87.79999999999997</v>
+      </c>
+      <c r="H39" t="n">
         <v>88.22166666666674</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>88</v>
+      </c>
+      <c r="L39" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,24 +2161,29 @@
         <v>60.3475</v>
       </c>
       <c r="G40" t="n">
+        <v>87.79999999999997</v>
+      </c>
+      <c r="H40" t="n">
         <v>88.21500000000007</v>
       </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>88</v>
       </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1917,24 +2207,29 @@
         <v>141650.1689</v>
       </c>
       <c r="G41" t="n">
+        <v>87.82666666666664</v>
+      </c>
+      <c r="H41" t="n">
         <v>88.2083333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>88</v>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,24 +2253,29 @@
         <v>336582.242</v>
       </c>
       <c r="G42" t="n">
+        <v>87.8133333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>88.19833333333341</v>
       </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>88.40000000000001</v>
       </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1999,22 +2299,29 @@
         <v>927179.8245</v>
       </c>
       <c r="G43" t="n">
+        <v>87.82666666666664</v>
+      </c>
+      <c r="H43" t="n">
         <v>88.19500000000008</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="L43" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2038,22 +2345,27 @@
         <v>12.1577</v>
       </c>
       <c r="G44" t="n">
+        <v>87.85999999999997</v>
+      </c>
+      <c r="H44" t="n">
         <v>88.19500000000008</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2077,22 +2389,27 @@
         <v>843.8819</v>
       </c>
       <c r="G45" t="n">
+        <v>87.87999999999997</v>
+      </c>
+      <c r="H45" t="n">
         <v>88.18500000000009</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2116,22 +2433,27 @@
         <v>5.7</v>
       </c>
       <c r="G46" t="n">
+        <v>87.91333333333331</v>
+      </c>
+      <c r="H46" t="n">
         <v>88.17333333333342</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2155,22 +2477,27 @@
         <v>6</v>
       </c>
       <c r="G47" t="n">
+        <v>87.93999999999998</v>
+      </c>
+      <c r="H47" t="n">
         <v>88.17000000000009</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2194,22 +2521,27 @@
         <v>88</v>
       </c>
       <c r="G48" t="n">
+        <v>87.97999999999999</v>
+      </c>
+      <c r="H48" t="n">
         <v>88.16000000000008</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,22 +2565,29 @@
         <v>6</v>
       </c>
       <c r="G49" t="n">
+        <v>88.01333333333332</v>
+      </c>
+      <c r="H49" t="n">
         <v>88.15333333333341</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2272,22 +2611,29 @@
         <v>43.5401</v>
       </c>
       <c r="G50" t="n">
+        <v>87.99999999999999</v>
+      </c>
+      <c r="H50" t="n">
         <v>88.13333333333341</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="L50" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2311,22 +2657,29 @@
         <v>6</v>
       </c>
       <c r="G51" t="n">
+        <v>88.05333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>88.13500000000006</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="L51" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2350,22 +2703,29 @@
         <v>387.5434</v>
       </c>
       <c r="G52" t="n">
+        <v>88.08</v>
+      </c>
+      <c r="H52" t="n">
         <v>88.13666666666673</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="L52" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2389,22 +2749,29 @@
         <v>100</v>
       </c>
       <c r="G53" t="n">
+        <v>88.10666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>88.13833333333338</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="L53" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,22 +2795,29 @@
         <v>5.8</v>
       </c>
       <c r="G54" t="n">
+        <v>88.15333333333335</v>
+      </c>
+      <c r="H54" t="n">
         <v>88.14500000000004</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="L54" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2467,22 +2841,27 @@
         <v>500</v>
       </c>
       <c r="G55" t="n">
+        <v>88.18000000000002</v>
+      </c>
+      <c r="H55" t="n">
         <v>88.15500000000003</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2506,22 +2885,27 @@
         <v>997.6404</v>
       </c>
       <c r="G56" t="n">
+        <v>88.20000000000002</v>
+      </c>
+      <c r="H56" t="n">
         <v>88.16333333333337</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2545,22 +2929,27 @@
         <v>6</v>
       </c>
       <c r="G57" t="n">
+        <v>88.26666666666668</v>
+      </c>
+      <c r="H57" t="n">
         <v>88.1816666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2584,22 +2973,27 @@
         <v>931.3985</v>
       </c>
       <c r="G58" t="n">
+        <v>88.32666666666668</v>
+      </c>
+      <c r="H58" t="n">
         <v>88.19833333333337</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2623,22 +3017,27 @@
         <v>956.9831</v>
       </c>
       <c r="G59" t="n">
+        <v>88.34666666666671</v>
+      </c>
+      <c r="H59" t="n">
         <v>88.20833333333336</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2662,22 +3061,27 @@
         <v>2870.9493</v>
       </c>
       <c r="G60" t="n">
+        <v>88.38000000000004</v>
+      </c>
+      <c r="H60" t="n">
         <v>88.21333333333337</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2701,22 +3105,27 @@
         <v>3284.751</v>
       </c>
       <c r="G61" t="n">
+        <v>88.38666666666671</v>
+      </c>
+      <c r="H61" t="n">
         <v>88.22166666666671</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2740,22 +3149,27 @@
         <v>9794.9593</v>
       </c>
       <c r="G62" t="n">
+        <v>88.38666666666671</v>
+      </c>
+      <c r="H62" t="n">
         <v>88.22000000000003</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2779,22 +3193,27 @@
         <v>1522.3036</v>
       </c>
       <c r="G63" t="n">
+        <v>88.37333333333338</v>
+      </c>
+      <c r="H63" t="n">
         <v>88.21500000000002</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2818,22 +3237,27 @@
         <v>6</v>
       </c>
       <c r="G64" t="n">
+        <v>88.38000000000004</v>
+      </c>
+      <c r="H64" t="n">
         <v>88.2166666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2857,22 +3281,29 @@
         <v>88</v>
       </c>
       <c r="G65" t="n">
+        <v>88.4266666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>88.21833333333338</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="L65" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,22 +3327,29 @@
         <v>6</v>
       </c>
       <c r="G66" t="n">
+        <v>88.4466666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>88.21833333333338</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="L66" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2935,22 +3373,27 @@
         <v>118.4208</v>
       </c>
       <c r="G67" t="n">
+        <v>88.4666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>88.2166666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2974,22 +3417,29 @@
         <v>1188.4286</v>
       </c>
       <c r="G68" t="n">
+        <v>88.48666666666669</v>
+      </c>
+      <c r="H68" t="n">
         <v>88.21166666666669</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="L68" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3013,22 +3463,27 @@
         <v>13.1396</v>
       </c>
       <c r="G69" t="n">
+        <v>88.48666666666669</v>
+      </c>
+      <c r="H69" t="n">
         <v>88.20500000000001</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3052,22 +3507,27 @@
         <v>788.5557</v>
       </c>
       <c r="G70" t="n">
+        <v>88.53333333333335</v>
+      </c>
+      <c r="H70" t="n">
         <v>88.20833333333336</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,22 +3551,27 @@
         <v>8</v>
       </c>
       <c r="G71" t="n">
+        <v>88.58000000000001</v>
+      </c>
+      <c r="H71" t="n">
         <v>88.21833333333335</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3130,22 +3595,27 @@
         <v>386.5885</v>
       </c>
       <c r="G72" t="n">
+        <v>88.62000000000003</v>
+      </c>
+      <c r="H72" t="n">
         <v>88.22666666666669</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3169,22 +3639,27 @@
         <v>3130</v>
       </c>
       <c r="G73" t="n">
+        <v>88.82000000000002</v>
+      </c>
+      <c r="H73" t="n">
         <v>88.27166666666669</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3208,22 +3683,27 @@
         <v>15.8964</v>
       </c>
       <c r="G74" t="n">
+        <v>88.8866666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>88.27666666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3247,22 +3727,27 @@
         <v>6</v>
       </c>
       <c r="G75" t="n">
+        <v>89.0266666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>88.30166666666668</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3286,22 +3771,27 @@
         <v>2959.6541</v>
       </c>
       <c r="G76" t="n">
+        <v>89.16000000000004</v>
+      </c>
+      <c r="H76" t="n">
         <v>88.31999999999999</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3325,22 +3815,27 @@
         <v>40.3459</v>
       </c>
       <c r="G77" t="n">
+        <v>89.29333333333336</v>
+      </c>
+      <c r="H77" t="n">
         <v>88.35166666666666</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,22 +3859,27 @@
         <v>59.6541</v>
       </c>
       <c r="G78" t="n">
+        <v>89.44000000000004</v>
+      </c>
+      <c r="H78" t="n">
         <v>88.39</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3403,22 +3903,27 @@
         <v>4227.7654</v>
       </c>
       <c r="G79" t="n">
+        <v>89.55333333333337</v>
+      </c>
+      <c r="H79" t="n">
         <v>88.42833333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3442,22 +3947,27 @@
         <v>6</v>
       </c>
       <c r="G80" t="n">
+        <v>89.67333333333337</v>
+      </c>
+      <c r="H80" t="n">
         <v>88.48166666666665</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3481,22 +3991,27 @@
         <v>704.7704</v>
       </c>
       <c r="G81" t="n">
+        <v>89.79333333333336</v>
+      </c>
+      <c r="H81" t="n">
         <v>88.52333333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3520,22 +4035,27 @@
         <v>500</v>
       </c>
       <c r="G82" t="n">
+        <v>89.94000000000004</v>
+      </c>
+      <c r="H82" t="n">
         <v>88.57166666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,22 +4079,27 @@
         <v>488.4573</v>
       </c>
       <c r="G83" t="n">
+        <v>90.09333333333338</v>
+      </c>
+      <c r="H83" t="n">
         <v>88.62166666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,22 +4123,27 @@
         <v>838.9111</v>
       </c>
       <c r="G84" t="n">
+        <v>90.26000000000003</v>
+      </c>
+      <c r="H84" t="n">
         <v>88.67499999999998</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3637,22 +4167,27 @@
         <v>500</v>
       </c>
       <c r="G85" t="n">
+        <v>90.39333333333337</v>
+      </c>
+      <c r="H85" t="n">
         <v>88.72666666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3676,22 +4211,27 @@
         <v>6</v>
       </c>
       <c r="G86" t="n">
+        <v>90.51333333333336</v>
+      </c>
+      <c r="H86" t="n">
         <v>88.77999999999999</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3715,22 +4255,27 @@
         <v>22001.7497</v>
       </c>
       <c r="G87" t="n">
+        <v>90.62000000000003</v>
+      </c>
+      <c r="H87" t="n">
         <v>88.82999999999998</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,22 +4299,27 @@
         <v>6523.0389</v>
       </c>
       <c r="G88" t="n">
+        <v>90.57333333333335</v>
+      </c>
+      <c r="H88" t="n">
         <v>88.88666666666664</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,22 +4343,27 @@
         <v>142.6736</v>
       </c>
       <c r="G89" t="n">
+        <v>90.69333333333336</v>
+      </c>
+      <c r="H89" t="n">
         <v>88.94666666666664</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3832,22 +4387,27 @@
         <v>100</v>
       </c>
       <c r="G90" t="n">
+        <v>90.76000000000002</v>
+      </c>
+      <c r="H90" t="n">
         <v>89.01166666666663</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3871,22 +4431,27 @@
         <v>106</v>
       </c>
       <c r="G91" t="n">
+        <v>90.83333333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>89.0733333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3910,22 +4475,27 @@
         <v>480</v>
       </c>
       <c r="G92" t="n">
+        <v>90.90666666666668</v>
+      </c>
+      <c r="H92" t="n">
         <v>89.13166666666663</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3949,22 +4519,27 @@
         <v>6</v>
       </c>
       <c r="G93" t="n">
+        <v>91</v>
+      </c>
+      <c r="H93" t="n">
         <v>89.1983333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3988,22 +4563,27 @@
         <v>100</v>
       </c>
       <c r="G94" t="n">
+        <v>91.08666666666666</v>
+      </c>
+      <c r="H94" t="n">
         <v>89.2583333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4027,22 +4607,27 @@
         <v>56464.3707</v>
       </c>
       <c r="G95" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="H95" t="n">
         <v>89.29999999999997</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,22 +4651,27 @@
         <v>11184.2839783871</v>
       </c>
       <c r="G96" t="n">
+        <v>91.17333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>89.36666666666663</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4105,22 +4695,27 @@
         <v>357.3264</v>
       </c>
       <c r="G97" t="n">
+        <v>91.23999999999999</v>
+      </c>
+      <c r="H97" t="n">
         <v>89.43166666666663</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4144,22 +4739,27 @@
         <v>689.7719</v>
       </c>
       <c r="G98" t="n">
+        <v>91.31333333333332</v>
+      </c>
+      <c r="H98" t="n">
         <v>89.49999999999997</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4183,22 +4783,27 @@
         <v>3353.1856</v>
       </c>
       <c r="G99" t="n">
+        <v>91.39999999999999</v>
+      </c>
+      <c r="H99" t="n">
         <v>89.57499999999997</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,22 +4827,27 @@
         <v>14563.7209</v>
       </c>
       <c r="G100" t="n">
+        <v>91.49333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>89.64999999999996</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4261,22 +4871,27 @@
         <v>500</v>
       </c>
       <c r="G101" t="n">
+        <v>91.57999999999998</v>
+      </c>
+      <c r="H101" t="n">
         <v>89.71833333333331</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4300,22 +4915,27 @@
         <v>880.4348</v>
       </c>
       <c r="G102" t="n">
+        <v>91.69333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>89.79999999999997</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4339,22 +4959,27 @@
         <v>500</v>
       </c>
       <c r="G103" t="n">
+        <v>91.80666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>89.88166666666663</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4378,22 +5003,27 @@
         <v>500</v>
       </c>
       <c r="G104" t="n">
+        <v>91.90666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>89.95833333333329</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4417,22 +5047,27 @@
         <v>6</v>
       </c>
       <c r="G105" t="n">
+        <v>92.02</v>
+      </c>
+      <c r="H105" t="n">
         <v>90.04666666666661</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,22 +5091,27 @@
         <v>315.8065</v>
       </c>
       <c r="G106" t="n">
+        <v>92.11333333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>90.12333333333326</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4495,22 +5135,27 @@
         <v>1500</v>
       </c>
       <c r="G107" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="H107" t="n">
         <v>90.19666666666662</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4534,22 +5179,27 @@
         <v>6250.5053</v>
       </c>
       <c r="G108" t="n">
+        <v>92.27333333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>90.2716666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4573,22 +5223,27 @@
         <v>45095.5006</v>
       </c>
       <c r="G109" t="n">
+        <v>92.35333333333334</v>
+      </c>
+      <c r="H109" t="n">
         <v>90.34333333333328</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,22 +5267,27 @@
         <v>25774.6723</v>
       </c>
       <c r="G110" t="n">
+        <v>92.50000000000001</v>
+      </c>
+      <c r="H110" t="n">
         <v>90.42499999999994</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4651,22 +5311,27 @@
         <v>5000</v>
       </c>
       <c r="G111" t="n">
+        <v>92.58666666666669</v>
+      </c>
+      <c r="H111" t="n">
         <v>90.49999999999994</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4690,22 +5355,27 @@
         <v>595.8434999999999</v>
       </c>
       <c r="G112" t="n">
+        <v>92.65333333333336</v>
+      </c>
+      <c r="H112" t="n">
         <v>90.57499999999995</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4729,22 +5399,27 @@
         <v>100</v>
       </c>
       <c r="G113" t="n">
+        <v>92.71333333333337</v>
+      </c>
+      <c r="H113" t="n">
         <v>90.65166666666661</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4768,22 +5443,27 @@
         <v>738</v>
       </c>
       <c r="G114" t="n">
+        <v>92.75333333333336</v>
+      </c>
+      <c r="H114" t="n">
         <v>90.72499999999995</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4807,22 +5487,27 @@
         <v>3408.451</v>
       </c>
       <c r="G115" t="n">
+        <v>92.79333333333335</v>
+      </c>
+      <c r="H115" t="n">
         <v>90.8033333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,22 +5531,27 @@
         <v>378.3784</v>
       </c>
       <c r="G116" t="n">
+        <v>92.85333333333337</v>
+      </c>
+      <c r="H116" t="n">
         <v>90.88166666666663</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,22 +5575,27 @@
         <v>966.4829999999999</v>
       </c>
       <c r="G117" t="n">
+        <v>92.92666666666669</v>
+      </c>
+      <c r="H117" t="n">
         <v>90.96499999999996</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4924,22 +5619,27 @@
         <v>3948.9545</v>
       </c>
       <c r="G118" t="n">
+        <v>93.02666666666669</v>
+      </c>
+      <c r="H118" t="n">
         <v>91.05666666666663</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,22 +5663,27 @@
         <v>2563.2415</v>
       </c>
       <c r="G119" t="n">
+        <v>93.14666666666669</v>
+      </c>
+      <c r="H119" t="n">
         <v>91.1583333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5002,22 +5707,29 @@
         <v>32797.6191</v>
       </c>
       <c r="G120" t="n">
+        <v>93.24666666666668</v>
+      </c>
+      <c r="H120" t="n">
         <v>91.26333333333329</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5039,18 +5751,27 @@
         <v>6</v>
       </c>
       <c r="G121" t="n">
+        <v>93.36666666666669</v>
+      </c>
+      <c r="H121" t="n">
         <v>91.3683333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5074,18 +5795,27 @@
         <v>100</v>
       </c>
       <c r="G122" t="n">
+        <v>93.48000000000002</v>
+      </c>
+      <c r="H122" t="n">
         <v>91.46999999999997</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5109,18 +5839,27 @@
         <v>1909.2481</v>
       </c>
       <c r="G123" t="n">
+        <v>93.60000000000001</v>
+      </c>
+      <c r="H123" t="n">
         <v>91.5783333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5144,18 +5883,27 @@
         <v>3600.8414</v>
       </c>
       <c r="G124" t="n">
+        <v>93.73333333333335</v>
+      </c>
+      <c r="H124" t="n">
         <v>91.68166666666663</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5179,18 +5927,27 @@
         <v>9567.400600000001</v>
       </c>
       <c r="G125" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="H125" t="n">
         <v>91.77833333333329</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5214,18 +5971,27 @@
         <v>4694.8414</v>
       </c>
       <c r="G126" t="n">
+        <v>93.96000000000001</v>
+      </c>
+      <c r="H126" t="n">
         <v>91.8783333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5249,18 +6015,27 @@
         <v>3752.311</v>
       </c>
       <c r="G127" t="n">
+        <v>94.08666666666666</v>
+      </c>
+      <c r="H127" t="n">
         <v>91.97999999999998</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5284,18 +6059,27 @@
         <v>17586.6323</v>
       </c>
       <c r="G128" t="n">
+        <v>94.22666666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>92.08666666666664</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5319,18 +6103,27 @@
         <v>166</v>
       </c>
       <c r="G129" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="H129" t="n">
         <v>92.20833333333331</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5354,18 +6147,27 @@
         <v>6</v>
       </c>
       <c r="G130" t="n">
+        <v>94.61333333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>92.32333333333331</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5389,18 +6191,27 @@
         <v>5010</v>
       </c>
       <c r="G131" t="n">
+        <v>94.75333333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>92.42499999999998</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5424,18 +6235,27 @@
         <v>13883.1356</v>
       </c>
       <c r="G132" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="H132" t="n">
         <v>92.535</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5459,18 +6279,27 @@
         <v>6322.993</v>
       </c>
       <c r="G133" t="n">
+        <v>95.03999999999999</v>
+      </c>
+      <c r="H133" t="n">
         <v>92.61166666666666</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5494,18 +6323,27 @@
         <v>5398.6874</v>
       </c>
       <c r="G134" t="n">
+        <v>95.16666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>92.72833333333332</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5529,18 +6367,27 @@
         <v>10045.9049</v>
       </c>
       <c r="G135" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="H135" t="n">
         <v>92.83166666666666</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5564,18 +6411,27 @@
         <v>1627.7391</v>
       </c>
       <c r="G136" t="n">
+        <v>95.46666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>92.94499999999999</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,18 +6455,27 @@
         <v>12875.9025</v>
       </c>
       <c r="G137" t="n">
+        <v>95.64666666666668</v>
+      </c>
+      <c r="H137" t="n">
         <v>93.05833333333334</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5634,18 +6499,27 @@
         <v>2197.8913</v>
       </c>
       <c r="G138" t="n">
+        <v>95.88666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>93.19000000000001</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5669,18 +6543,27 @@
         <v>4092.7899</v>
       </c>
       <c r="G139" t="n">
+        <v>96.10666666666665</v>
+      </c>
+      <c r="H139" t="n">
         <v>93.32000000000001</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5704,18 +6587,27 @@
         <v>42129.9391</v>
       </c>
       <c r="G140" t="n">
+        <v>96.41333333333334</v>
+      </c>
+      <c r="H140" t="n">
         <v>93.46333333333334</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5739,19 +6631,28 @@
         <v>7007.4003</v>
       </c>
       <c r="G141" t="n">
+        <v>96.76666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>93.62166666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
+      <c r="L141" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>1.127502831257078</v>
       </c>
     </row>
     <row r="142">
@@ -5774,18 +6675,21 @@
         <v>3791.0386</v>
       </c>
       <c r="G142" t="n">
+        <v>97.11333333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>93.77333333333334</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5809,18 +6713,21 @@
         <v>7.5925</v>
       </c>
       <c r="G143" t="n">
+        <v>97.44000000000001</v>
+      </c>
+      <c r="H143" t="n">
         <v>93.92333333333335</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5844,18 +6751,21 @@
         <v>6197.4949</v>
       </c>
       <c r="G144" t="n">
+        <v>97.56</v>
+      </c>
+      <c r="H144" t="n">
         <v>94.03333333333335</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5879,18 +6789,21 @@
         <v>63455.8592</v>
       </c>
       <c r="G145" t="n">
+        <v>97.58</v>
+      </c>
+      <c r="H145" t="n">
         <v>94.12000000000002</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5914,18 +6827,21 @@
         <v>30121.8713</v>
       </c>
       <c r="G146" t="n">
+        <v>97.74666666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>94.23333333333335</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5949,18 +6865,21 @@
         <v>5769.685</v>
       </c>
       <c r="G147" t="n">
+        <v>97.74000000000001</v>
+      </c>
+      <c r="H147" t="n">
         <v>94.31500000000001</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5984,18 +6903,21 @@
         <v>2966.5518</v>
       </c>
       <c r="G148" t="n">
+        <v>97.65333333333335</v>
+      </c>
+      <c r="H148" t="n">
         <v>94.38166666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6019,18 +6941,21 @@
         <v>3183.7441</v>
       </c>
       <c r="G149" t="n">
+        <v>97.56</v>
+      </c>
+      <c r="H149" t="n">
         <v>94.44500000000001</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6054,18 +6979,21 @@
         <v>181.3107</v>
       </c>
       <c r="G150" t="n">
+        <v>97.46000000000001</v>
+      </c>
+      <c r="H150" t="n">
         <v>94.50666666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6089,18 +7017,21 @@
         <v>4590.9725</v>
       </c>
       <c r="G151" t="n">
+        <v>97.46000000000001</v>
+      </c>
+      <c r="H151" t="n">
         <v>94.60166666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6124,18 +7055,21 @@
         <v>5.2</v>
       </c>
       <c r="G152" t="n">
+        <v>97.46000000000001</v>
+      </c>
+      <c r="H152" t="n">
         <v>94.69666666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6159,18 +7093,21 @@
         <v>28.5698</v>
       </c>
       <c r="G153" t="n">
+        <v>97.22666666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>94.74666666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6194,18 +7131,21 @@
         <v>106.3121</v>
       </c>
       <c r="G154" t="n">
+        <v>97.00666666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>94.8</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6229,18 +7169,21 @@
         <v>5.5</v>
       </c>
       <c r="G155" t="n">
+        <v>96.86666666666666</v>
+      </c>
+      <c r="H155" t="n">
         <v>94.905</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6264,18 +7207,21 @@
         <v>20.5033</v>
       </c>
       <c r="G156" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="H156" t="n">
         <v>94.96833333333332</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6299,18 +7245,21 @@
         <v>6</v>
       </c>
       <c r="G157" t="n">
+        <v>96.32666666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>95.045</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6334,18 +7283,21 @@
         <v>25465.0374</v>
       </c>
       <c r="G158" t="n">
+        <v>96.02666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>95.10166666666666</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6369,18 +7321,21 @@
         <v>11.2313</v>
       </c>
       <c r="G159" t="n">
+        <v>95.83333333333334</v>
+      </c>
+      <c r="H159" t="n">
         <v>95.14166666666665</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6404,18 +7359,21 @@
         <v>1959.1982</v>
       </c>
       <c r="G160" t="n">
+        <v>95.72666666666669</v>
+      </c>
+      <c r="H160" t="n">
         <v>95.17833333333331</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6439,18 +7397,21 @@
         <v>6597.4535</v>
       </c>
       <c r="G161" t="n">
+        <v>95.46000000000002</v>
+      </c>
+      <c r="H161" t="n">
         <v>95.20333333333332</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6474,18 +7435,21 @@
         <v>4201.5682</v>
       </c>
       <c r="G162" t="n">
+        <v>95.33333333333334</v>
+      </c>
+      <c r="H162" t="n">
         <v>95.22499999999998</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6509,18 +7473,21 @@
         <v>29.4536</v>
       </c>
       <c r="G163" t="n">
+        <v>95.26666666666668</v>
+      </c>
+      <c r="H163" t="n">
         <v>95.24666666666666</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6544,18 +7511,21 @@
         <v>9914.022199999999</v>
       </c>
       <c r="G164" t="n">
+        <v>95.17333333333335</v>
+      </c>
+      <c r="H164" t="n">
         <v>95.26166666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6579,18 +7549,21 @@
         <v>14214.4925</v>
       </c>
       <c r="G165" t="n">
+        <v>95.06</v>
+      </c>
+      <c r="H165" t="n">
         <v>95.26666666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6614,18 +7587,21 @@
         <v>1606.654</v>
       </c>
       <c r="G166" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="H166" t="n">
         <v>95.27333333333334</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6649,18 +7625,21 @@
         <v>20000</v>
       </c>
       <c r="G167" t="n">
+        <v>94.56666666666666</v>
+      </c>
+      <c r="H167" t="n">
         <v>95.28833333333334</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6684,18 +7663,21 @@
         <v>789</v>
       </c>
       <c r="G168" t="n">
+        <v>94.52000000000001</v>
+      </c>
+      <c r="H168" t="n">
         <v>95.30833333333334</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6719,18 +7701,21 @@
         <v>10501.3796</v>
       </c>
       <c r="G169" t="n">
+        <v>94.64000000000001</v>
+      </c>
+      <c r="H169" t="n">
         <v>95.37166666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6754,18 +7739,21 @@
         <v>373.1343</v>
       </c>
       <c r="G170" t="n">
+        <v>94.50000000000001</v>
+      </c>
+      <c r="H170" t="n">
         <v>95.405</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6789,18 +7777,21 @@
         <v>221.0527</v>
       </c>
       <c r="G171" t="n">
+        <v>94.47333333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>95.44000000000001</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6824,18 +7815,21 @@
         <v>20.8399</v>
       </c>
       <c r="G172" t="n">
+        <v>94.37333333333335</v>
+      </c>
+      <c r="H172" t="n">
         <v>95.47500000000001</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6859,18 +7853,21 @@
         <v>748.6112000000001</v>
       </c>
       <c r="G173" t="n">
+        <v>94.34666666666666</v>
+      </c>
+      <c r="H173" t="n">
         <v>95.51000000000002</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6894,18 +7891,21 @@
         <v>1725.9176</v>
       </c>
       <c r="G174" t="n">
+        <v>94.37333333333332</v>
+      </c>
+      <c r="H174" t="n">
         <v>95.54666666666668</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6929,18 +7929,21 @@
         <v>18267</v>
       </c>
       <c r="G175" t="n">
+        <v>94.39333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>95.57833333333335</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6964,18 +7967,21 @@
         <v>125.3092</v>
       </c>
       <c r="G176" t="n">
+        <v>94.45999999999999</v>
+      </c>
+      <c r="H176" t="n">
         <v>95.60500000000002</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6999,18 +8005,21 @@
         <v>1000</v>
       </c>
       <c r="G177" t="n">
+        <v>94.52666666666666</v>
+      </c>
+      <c r="H177" t="n">
         <v>95.62500000000001</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7034,18 +8043,21 @@
         <v>13461.288</v>
       </c>
       <c r="G178" t="n">
+        <v>94.59333333333332</v>
+      </c>
+      <c r="H178" t="n">
         <v>95.63833333333335</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7069,18 +8081,21 @@
         <v>11.9337</v>
       </c>
       <c r="G179" t="n">
+        <v>94.66</v>
+      </c>
+      <c r="H179" t="n">
         <v>95.64000000000003</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7104,18 +8119,21 @@
         <v>3494.8169</v>
       </c>
       <c r="G180" t="n">
+        <v>94.71333333333332</v>
+      </c>
+      <c r="H180" t="n">
         <v>95.63333333333337</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7139,18 +8157,21 @@
         <v>100221.0527</v>
       </c>
       <c r="G181" t="n">
+        <v>94.78666666666666</v>
+      </c>
+      <c r="H181" t="n">
         <v>95.62833333333336</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7174,18 +8195,21 @@
         <v>450000</v>
       </c>
       <c r="G182" t="n">
+        <v>94.85999999999999</v>
+      </c>
+      <c r="H182" t="n">
         <v>95.63333333333337</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7209,18 +8233,21 @@
         <v>250000</v>
       </c>
       <c r="G183" t="n">
+        <v>94.91333333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>95.6366666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7244,18 +8271,21 @@
         <v>200000</v>
       </c>
       <c r="G184" t="n">
+        <v>94.79999999999998</v>
+      </c>
+      <c r="H184" t="n">
         <v>95.63833333333336</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7279,18 +8309,21 @@
         <v>6</v>
       </c>
       <c r="G185" t="n">
+        <v>94.81999999999998</v>
+      </c>
+      <c r="H185" t="n">
         <v>95.65000000000003</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7314,18 +8347,21 @@
         <v>7440.824</v>
       </c>
       <c r="G186" t="n">
+        <v>94.77999999999999</v>
+      </c>
+      <c r="H186" t="n">
         <v>95.64500000000002</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7349,18 +8385,21 @@
         <v>3738.7815</v>
       </c>
       <c r="G187" t="n">
+        <v>94.78666666666665</v>
+      </c>
+      <c r="H187" t="n">
         <v>95.65000000000003</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,18 +8423,21 @@
         <v>210.5264</v>
       </c>
       <c r="G188" t="n">
+        <v>94.78666666666665</v>
+      </c>
+      <c r="H188" t="n">
         <v>95.65000000000003</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7419,18 +8461,21 @@
         <v>21.0527</v>
       </c>
       <c r="G189" t="n">
+        <v>94.77333333333331</v>
+      </c>
+      <c r="H189" t="n">
         <v>95.63500000000003</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7454,18 +8499,21 @@
         <v>369.9789</v>
       </c>
       <c r="G190" t="n">
+        <v>94.79333333333331</v>
+      </c>
+      <c r="H190" t="n">
         <v>95.62333333333338</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7489,18 +8537,21 @@
         <v>714.1094000000001</v>
       </c>
       <c r="G191" t="n">
+        <v>94.82666666666664</v>
+      </c>
+      <c r="H191" t="n">
         <v>95.62333333333338</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7524,18 +8575,21 @@
         <v>178.5</v>
       </c>
       <c r="G192" t="n">
+        <v>94.85999999999997</v>
+      </c>
+      <c r="H192" t="n">
         <v>95.61500000000004</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7559,18 +8613,21 @@
         <v>8.9612</v>
       </c>
       <c r="G193" t="n">
+        <v>94.92666666666665</v>
+      </c>
+      <c r="H193" t="n">
         <v>95.61000000000004</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7594,18 +8651,21 @@
         <v>932.7526</v>
       </c>
       <c r="G194" t="n">
+        <v>95.01999999999998</v>
+      </c>
+      <c r="H194" t="n">
         <v>95.60333333333338</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7629,18 +8689,21 @@
         <v>11.9516</v>
       </c>
       <c r="G195" t="n">
+        <v>95.17999999999999</v>
+      </c>
+      <c r="H195" t="n">
         <v>95.60333333333338</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7664,18 +8727,21 @@
         <v>6701.1809</v>
       </c>
       <c r="G196" t="n">
+        <v>95.26666666666665</v>
+      </c>
+      <c r="H196" t="n">
         <v>95.57833333333338</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7699,18 +8765,21 @@
         <v>696.649</v>
       </c>
       <c r="G197" t="n">
+        <v>95.29999999999998</v>
+      </c>
+      <c r="H197" t="n">
         <v>95.54666666666671</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7734,18 +8803,21 @@
         <v>3.351</v>
       </c>
       <c r="G198" t="n">
+        <v>95.32666666666664</v>
+      </c>
+      <c r="H198" t="n">
         <v>95.49666666666671</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7769,18 +8841,21 @@
         <v>6</v>
       </c>
       <c r="G199" t="n">
+        <v>95.33999999999997</v>
+      </c>
+      <c r="H199" t="n">
         <v>95.44666666666672</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7804,18 +8879,21 @@
         <v>6</v>
       </c>
       <c r="G200" t="n">
+        <v>95.34666666666664</v>
+      </c>
+      <c r="H200" t="n">
         <v>95.3833333333334</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7839,18 +8917,21 @@
         <v>249.7007</v>
       </c>
       <c r="G201" t="n">
+        <v>95.38666666666663</v>
+      </c>
+      <c r="H201" t="n">
         <v>95.30000000000005</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7874,18 +8955,21 @@
         <v>1492.5706</v>
       </c>
       <c r="G202" t="n">
+        <v>95.41999999999997</v>
+      </c>
+      <c r="H202" t="n">
         <v>95.22666666666673</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7909,18 +8993,21 @@
         <v>172.9367</v>
       </c>
       <c r="G203" t="n">
+        <v>95.4533333333333</v>
+      </c>
+      <c r="H203" t="n">
         <v>95.15333333333341</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7944,18 +9031,21 @@
         <v>145.9409</v>
       </c>
       <c r="G204" t="n">
+        <v>95.50666666666665</v>
+      </c>
+      <c r="H204" t="n">
         <v>95.12166666666673</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7979,18 +9069,21 @@
         <v>54.0591</v>
       </c>
       <c r="G205" t="n">
+        <v>95.54666666666665</v>
+      </c>
+      <c r="H205" t="n">
         <v>95.11500000000005</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8014,18 +9107,21 @@
         <v>10</v>
       </c>
       <c r="G206" t="n">
+        <v>95.57999999999998</v>
+      </c>
+      <c r="H206" t="n">
         <v>95.08166666666672</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8049,18 +9145,21 @@
         <v>6</v>
       </c>
       <c r="G207" t="n">
+        <v>95.55333333333331</v>
+      </c>
+      <c r="H207" t="n">
         <v>95.0683333333334</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8084,18 +9183,21 @@
         <v>10</v>
       </c>
       <c r="G208" t="n">
+        <v>95.55333333333331</v>
+      </c>
+      <c r="H208" t="n">
         <v>95.08500000000006</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8119,18 +9221,21 @@
         <v>358.0336</v>
       </c>
       <c r="G209" t="n">
+        <v>95.57999999999998</v>
+      </c>
+      <c r="H209" t="n">
         <v>95.10833333333339</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8154,18 +9259,21 @@
         <v>14.9664</v>
       </c>
       <c r="G210" t="n">
+        <v>95.51999999999998</v>
+      </c>
+      <c r="H210" t="n">
         <v>95.1183333333334</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8189,18 +9297,21 @@
         <v>912.7621</v>
       </c>
       <c r="G211" t="n">
+        <v>95.58666666666664</v>
+      </c>
+      <c r="H211" t="n">
         <v>95.11000000000007</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8224,18 +9335,21 @@
         <v>990.1774</v>
       </c>
       <c r="G212" t="n">
+        <v>95.68666666666665</v>
+      </c>
+      <c r="H212" t="n">
         <v>95.10333333333341</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8259,18 +9373,21 @@
         <v>2302.493</v>
       </c>
       <c r="G213" t="n">
+        <v>95.79333333333332</v>
+      </c>
+      <c r="H213" t="n">
         <v>95.13833333333339</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8294,18 +9411,21 @@
         <v>363.4476</v>
       </c>
       <c r="G214" t="n">
+        <v>95.87999999999998</v>
+      </c>
+      <c r="H214" t="n">
         <v>95.16500000000006</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8329,18 +9449,21 @@
         <v>511.5524</v>
       </c>
       <c r="G215" t="n">
+        <v>95.88666666666667</v>
+      </c>
+      <c r="H215" t="n">
         <v>95.13833333333339</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8364,18 +9487,21 @@
         <v>366.4921</v>
       </c>
       <c r="G216" t="n">
+        <v>95.98</v>
+      </c>
+      <c r="H216" t="n">
         <v>95.15500000000006</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8399,18 +9525,21 @@
         <v>362.1549</v>
       </c>
       <c r="G217" t="n">
+        <v>96.00000000000001</v>
+      </c>
+      <c r="H217" t="n">
         <v>95.14500000000005</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8434,18 +9563,21 @@
         <v>6.4493</v>
       </c>
       <c r="G218" t="n">
+        <v>95.96666666666668</v>
+      </c>
+      <c r="H218" t="n">
         <v>95.13833333333339</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8469,18 +9601,21 @@
         <v>37938.9406</v>
       </c>
       <c r="G219" t="n">
+        <v>95.90666666666668</v>
+      </c>
+      <c r="H219" t="n">
         <v>95.14000000000007</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8504,18 +9639,21 @@
         <v>2655.6933</v>
       </c>
       <c r="G220" t="n">
+        <v>95.96000000000001</v>
+      </c>
+      <c r="H220" t="n">
         <v>95.1733333333334</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8539,18 +9677,21 @@
         <v>264.4255</v>
       </c>
       <c r="G221" t="n">
+        <v>96.00666666666667</v>
+      </c>
+      <c r="H221" t="n">
         <v>95.2183333333334</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8574,18 +9715,21 @@
         <v>363.4476</v>
       </c>
       <c r="G222" t="n">
+        <v>96.08666666666667</v>
+      </c>
+      <c r="H222" t="n">
         <v>95.25666666666673</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8609,18 +9753,21 @@
         <v>3811.5085</v>
       </c>
       <c r="G223" t="n">
+        <v>96.02000000000001</v>
+      </c>
+      <c r="H223" t="n">
         <v>95.2733333333334</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8644,18 +9791,21 @@
         <v>5.4</v>
       </c>
       <c r="G224" t="n">
+        <v>96.02000000000001</v>
+      </c>
+      <c r="H224" t="n">
         <v>95.32000000000006</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8679,18 +9829,21 @@
         <v>366.4921</v>
       </c>
       <c r="G225" t="n">
+        <v>96.02000000000001</v>
+      </c>
+      <c r="H225" t="n">
         <v>95.35833333333339</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8714,18 +9867,21 @@
         <v>49481.4568</v>
       </c>
       <c r="G226" t="n">
+        <v>95.94000000000001</v>
+      </c>
+      <c r="H226" t="n">
         <v>95.39500000000005</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8749,18 +9905,21 @@
         <v>50</v>
       </c>
       <c r="G227" t="n">
+        <v>95.90000000000002</v>
+      </c>
+      <c r="H227" t="n">
         <v>95.43666666666672</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8784,18 +9943,21 @@
         <v>318.0336</v>
       </c>
       <c r="G228" t="n">
+        <v>95.85333333333334</v>
+      </c>
+      <c r="H228" t="n">
         <v>95.47166666666674</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8819,18 +9981,21 @@
         <v>5.5</v>
       </c>
       <c r="G229" t="n">
+        <v>95.86000000000003</v>
+      </c>
+      <c r="H229" t="n">
         <v>95.47000000000006</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8854,18 +10019,21 @@
         <v>11.6819</v>
       </c>
       <c r="G230" t="n">
+        <v>95.92000000000002</v>
+      </c>
+      <c r="H230" t="n">
         <v>95.4933333333334</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8889,18 +10057,21 @@
         <v>381.0483</v>
       </c>
       <c r="G231" t="n">
+        <v>95.89333333333335</v>
+      </c>
+      <c r="H231" t="n">
         <v>95.51000000000006</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8924,18 +10095,21 @@
         <v>3475.1256</v>
       </c>
       <c r="G232" t="n">
+        <v>95.83999999999999</v>
+      </c>
+      <c r="H232" t="n">
         <v>95.51166666666674</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8959,18 +10133,21 @@
         <v>5.5</v>
       </c>
       <c r="G233" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="H233" t="n">
         <v>95.52666666666673</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8994,18 +10171,21 @@
         <v>63.5969</v>
       </c>
       <c r="G234" t="n">
+        <v>95.91333333333334</v>
+      </c>
+      <c r="H234" t="n">
         <v>95.52500000000006</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9029,18 +10209,21 @@
         <v>369.9789</v>
       </c>
       <c r="G235" t="n">
+        <v>95.81333333333333</v>
+      </c>
+      <c r="H235" t="n">
         <v>95.52833333333339</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9064,18 +10247,21 @@
         <v>5.5</v>
       </c>
       <c r="G236" t="n">
+        <v>95.76000000000001</v>
+      </c>
+      <c r="H236" t="n">
         <v>95.54333333333338</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9099,18 +10285,21 @@
         <v>6.1818</v>
       </c>
       <c r="G237" t="n">
+        <v>95.69333333333334</v>
+      </c>
+      <c r="H237" t="n">
         <v>95.54833333333339</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9134,18 +10323,21 @@
         <v>800</v>
       </c>
       <c r="G238" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="H238" t="n">
         <v>95.55000000000005</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9169,18 +10361,21 @@
         <v>605.5</v>
       </c>
       <c r="G239" t="n">
+        <v>95.61333333333332</v>
+      </c>
+      <c r="H239" t="n">
         <v>95.55833333333339</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9204,18 +10399,21 @@
         <v>8.1341</v>
       </c>
       <c r="G240" t="n">
+        <v>95.59999999999998</v>
+      </c>
+      <c r="H240" t="n">
         <v>95.58000000000007</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9239,18 +10437,21 @@
         <v>47944.27333293051</v>
       </c>
       <c r="G241" t="n">
+        <v>95.86666666666665</v>
+      </c>
+      <c r="H241" t="n">
         <v>95.66500000000006</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9274,18 +10475,21 @@
         <v>366.4921</v>
       </c>
       <c r="G242" t="n">
+        <v>95.89333333333333</v>
+      </c>
+      <c r="H242" t="n">
         <v>95.69500000000006</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9309,18 +10513,21 @@
         <v>308.5115</v>
       </c>
       <c r="G243" t="n">
+        <v>95.93333333333332</v>
+      </c>
+      <c r="H243" t="n">
         <v>95.72666666666673</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9344,18 +10551,21 @@
         <v>3445.595</v>
       </c>
       <c r="G244" t="n">
+        <v>95.93999999999998</v>
+      </c>
+      <c r="H244" t="n">
         <v>95.75500000000007</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9379,18 +10589,21 @@
         <v>364.9635</v>
       </c>
       <c r="G245" t="n">
+        <v>95.92666666666666</v>
+      </c>
+      <c r="H245" t="n">
         <v>95.77000000000005</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9414,18 +10627,21 @@
         <v>2648.8817</v>
       </c>
       <c r="G246" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="H246" t="n">
         <v>95.79500000000006</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9449,18 +10665,21 @@
         <v>601.5957</v>
       </c>
       <c r="G247" t="n">
+        <v>95.97333333333334</v>
+      </c>
+      <c r="H247" t="n">
         <v>95.80833333333338</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9484,18 +10703,21 @@
         <v>366.4921</v>
       </c>
       <c r="G248" t="n">
+        <v>95.94000000000001</v>
+      </c>
+      <c r="H248" t="n">
         <v>95.81500000000004</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9519,18 +10741,21 @@
         <v>1092.4327</v>
       </c>
       <c r="G249" t="n">
+        <v>95.94666666666667</v>
+      </c>
+      <c r="H249" t="n">
         <v>95.81833333333337</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9554,18 +10779,21 @@
         <v>560.1979</v>
       </c>
       <c r="G250" t="n">
+        <v>95.99333333333334</v>
+      </c>
+      <c r="H250" t="n">
         <v>95.82833333333336</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9589,18 +10817,21 @@
         <v>7</v>
       </c>
       <c r="G251" t="n">
+        <v>95.95333333333333</v>
+      </c>
+      <c r="H251" t="n">
         <v>95.82500000000003</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9624,18 +10855,21 @@
         <v>2183.5953</v>
       </c>
       <c r="G252" t="n">
+        <v>95.94</v>
+      </c>
+      <c r="H252" t="n">
         <v>95.81833333333337</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9659,18 +10893,21 @@
         <v>1984.328</v>
       </c>
       <c r="G253" t="n">
+        <v>95.93333333333334</v>
+      </c>
+      <c r="H253" t="n">
         <v>95.8016666666667</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9694,18 +10931,21 @@
         <v>1492.5706</v>
       </c>
       <c r="G254" t="n">
+        <v>95.88666666666668</v>
+      </c>
+      <c r="H254" t="n">
         <v>95.77500000000003</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9729,18 +10969,21 @@
         <v>43893.2325</v>
       </c>
       <c r="G255" t="n">
+        <v>95.82000000000001</v>
+      </c>
+      <c r="H255" t="n">
         <v>95.74000000000004</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9764,18 +11007,21 @@
         <v>6</v>
       </c>
       <c r="G256" t="n">
+        <v>95.47333333333334</v>
+      </c>
+      <c r="H256" t="n">
         <v>95.71666666666671</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9799,18 +11045,21 @@
         <v>18</v>
       </c>
       <c r="G257" t="n">
+        <v>95.32666666666667</v>
+      </c>
+      <c r="H257" t="n">
         <v>95.7016666666667</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9834,18 +11083,21 @@
         <v>100.0304</v>
       </c>
       <c r="G258" t="n">
+        <v>95.16666666666669</v>
+      </c>
+      <c r="H258" t="n">
         <v>95.6866666666667</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9869,18 +11121,21 @@
         <v>230.8413</v>
       </c>
       <c r="G259" t="n">
+        <v>95.00666666666667</v>
+      </c>
+      <c r="H259" t="n">
         <v>95.6716666666667</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9904,18 +11159,21 @@
         <v>3838.6735</v>
       </c>
       <c r="G260" t="n">
+        <v>94.88000000000001</v>
+      </c>
+      <c r="H260" t="n">
         <v>95.65333333333336</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9939,18 +11197,21 @@
         <v>82.83799999999999</v>
       </c>
       <c r="G261" t="n">
+        <v>94.75333333333333</v>
+      </c>
+      <c r="H261" t="n">
         <v>95.6366666666667</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9974,18 +11235,21 @@
         <v>828.9461</v>
       </c>
       <c r="G262" t="n">
+        <v>94.62666666666665</v>
+      </c>
+      <c r="H262" t="n">
         <v>95.61000000000003</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10009,18 +11273,21 @@
         <v>6</v>
       </c>
       <c r="G263" t="n">
+        <v>94.51333333333332</v>
+      </c>
+      <c r="H263" t="n">
         <v>95.58000000000001</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10044,18 +11311,21 @@
         <v>1200</v>
       </c>
       <c r="G264" t="n">
+        <v>94.41333333333333</v>
+      </c>
+      <c r="H264" t="n">
         <v>95.54500000000003</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10079,18 +11349,21 @@
         <v>99.9701</v>
       </c>
       <c r="G265" t="n">
+        <v>94.27333333333331</v>
+      </c>
+      <c r="H265" t="n">
         <v>95.51000000000003</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10114,18 +11387,21 @@
         <v>6</v>
       </c>
       <c r="G266" t="n">
+        <v>94.15333333333332</v>
+      </c>
+      <c r="H266" t="n">
         <v>95.46833333333338</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10149,18 +11425,21 @@
         <v>3500</v>
       </c>
       <c r="G267" t="n">
+        <v>94.03999999999999</v>
+      </c>
+      <c r="H267" t="n">
         <v>95.44000000000003</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10184,18 +11463,21 @@
         <v>55000</v>
       </c>
       <c r="G268" t="n">
+        <v>93.92</v>
+      </c>
+      <c r="H268" t="n">
         <v>95.39333333333336</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10219,18 +11501,21 @@
         <v>1922.3006</v>
       </c>
       <c r="G269" t="n">
+        <v>93.83999999999999</v>
+      </c>
+      <c r="H269" t="n">
         <v>95.34000000000002</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10254,18 +11539,21 @@
         <v>187.8289</v>
       </c>
       <c r="G270" t="n">
+        <v>93.76666666666667</v>
+      </c>
+      <c r="H270" t="n">
         <v>95.30166666666669</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10289,18 +11577,21 @@
         <v>2006</v>
       </c>
       <c r="G271" t="n">
+        <v>93.69333333333334</v>
+      </c>
+      <c r="H271" t="n">
         <v>95.24333333333335</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10324,18 +11615,21 @@
         <v>370.9601</v>
       </c>
       <c r="G272" t="n">
+        <v>93.59333333333333</v>
+      </c>
+      <c r="H272" t="n">
         <v>95.17833333333334</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10359,18 +11653,21 @@
         <v>2109.6321</v>
       </c>
       <c r="G273" t="n">
+        <v>93.49333333333334</v>
+      </c>
+      <c r="H273" t="n">
         <v>95.11166666666668</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10394,18 +11691,21 @@
         <v>270.1484</v>
       </c>
       <c r="G274" t="n">
+        <v>93.39333333333335</v>
+      </c>
+      <c r="H274" t="n">
         <v>95.05000000000001</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10429,18 +11729,21 @@
         <v>3321.4469</v>
       </c>
       <c r="G275" t="n">
+        <v>93.30666666666667</v>
+      </c>
+      <c r="H275" t="n">
         <v>95.00833333333335</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10464,18 +11767,21 @@
         <v>6</v>
       </c>
       <c r="G276" t="n">
+        <v>93.21333333333334</v>
+      </c>
+      <c r="H276" t="n">
         <v>94.94500000000002</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10499,18 +11805,21 @@
         <v>6</v>
       </c>
       <c r="G277" t="n">
+        <v>93.11999999999999</v>
+      </c>
+      <c r="H277" t="n">
         <v>94.89000000000004</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10534,18 +11843,21 @@
         <v>862.776</v>
       </c>
       <c r="G278" t="n">
+        <v>93.03999999999999</v>
+      </c>
+      <c r="H278" t="n">
         <v>94.84833333333337</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10569,18 +11881,21 @@
         <v>57880.7428</v>
       </c>
       <c r="G279" t="n">
+        <v>92.86666666666666</v>
+      </c>
+      <c r="H279" t="n">
         <v>94.78500000000004</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10604,18 +11919,21 @@
         <v>1458.8131</v>
       </c>
       <c r="G280" t="n">
+        <v>92.72666666666667</v>
+      </c>
+      <c r="H280" t="n">
         <v>94.7016666666667</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10639,18 +11957,21 @@
         <v>15926.0137</v>
       </c>
       <c r="G281" t="n">
+        <v>92.60666666666667</v>
+      </c>
+      <c r="H281" t="n">
         <v>94.61833333333337</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10674,18 +11995,21 @@
         <v>15669.3624</v>
       </c>
       <c r="G282" t="n">
+        <v>92.46000000000001</v>
+      </c>
+      <c r="H282" t="n">
         <v>94.53333333333336</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10709,18 +12033,21 @@
         <v>25579.3159</v>
       </c>
       <c r="G283" t="n">
+        <v>92.32666666666667</v>
+      </c>
+      <c r="H283" t="n">
         <v>94.47000000000003</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10744,18 +12071,21 @@
         <v>5188.5826</v>
       </c>
       <c r="G284" t="n">
+        <v>92.18000000000001</v>
+      </c>
+      <c r="H284" t="n">
         <v>94.38000000000004</v>
       </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10779,18 +12109,21 @@
         <v>3157.0565</v>
       </c>
       <c r="G285" t="n">
+        <v>92.03333333333333</v>
+      </c>
+      <c r="H285" t="n">
         <v>94.30500000000004</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10814,18 +12147,21 @@
         <v>16679.1955</v>
       </c>
       <c r="G286" t="n">
+        <v>91.94666666666667</v>
+      </c>
+      <c r="H286" t="n">
         <v>94.24500000000003</v>
       </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10849,18 +12185,21 @@
         <v>116.6537</v>
       </c>
       <c r="G287" t="n">
+        <v>91.87333333333332</v>
+      </c>
+      <c r="H287" t="n">
         <v>94.1716666666667</v>
       </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10884,18 +12223,401 @@
         <v>393.7719</v>
       </c>
       <c r="G288" t="n">
+        <v>91.75999999999999</v>
+      </c>
+      <c r="H288" t="n">
         <v>94.08833333333337</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="C289" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="D289" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="E289" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="F289" t="n">
+        <v>632.6678000000001</v>
+      </c>
+      <c r="G289" t="n">
+        <v>91.64666666666668</v>
+      </c>
+      <c r="H289" t="n">
+        <v>93.9966666666667</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>91</v>
+      </c>
+      <c r="C290" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="D290" t="n">
+        <v>91</v>
+      </c>
+      <c r="E290" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="F290" t="n">
+        <v>4611.491</v>
+      </c>
+      <c r="G290" t="n">
+        <v>91.52</v>
+      </c>
+      <c r="H290" t="n">
+        <v>93.90833333333336</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="C291" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="D291" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="E291" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="F291" t="n">
+        <v>15529.9891</v>
+      </c>
+      <c r="G291" t="n">
+        <v>91.38000000000001</v>
+      </c>
+      <c r="H291" t="n">
+        <v>93.81666666666669</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="C292" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="D292" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="E292" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="F292" t="n">
+        <v>2099.9855</v>
+      </c>
+      <c r="G292" t="n">
+        <v>91.26666666666668</v>
+      </c>
+      <c r="H292" t="n">
+        <v>93.74666666666668</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="C293" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="D293" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="E293" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="F293" t="n">
+        <v>734.4606</v>
+      </c>
+      <c r="G293" t="n">
+        <v>91.13333333333335</v>
+      </c>
+      <c r="H293" t="n">
+        <v>93.65666666666669</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="C294" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="D294" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="E294" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="F294" t="n">
+        <v>500</v>
+      </c>
+      <c r="G294" t="n">
+        <v>91.16666666666669</v>
+      </c>
+      <c r="H294" t="n">
+        <v>93.59833333333336</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="C295" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="D295" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="E295" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="F295" t="n">
+        <v>500</v>
+      </c>
+      <c r="G295" t="n">
+        <v>91.16666666666669</v>
+      </c>
+      <c r="H295" t="n">
+        <v>93.54000000000002</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
+      <c r="M295" t="inlineStr"/>
+      <c r="N295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="C296" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="D296" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="E296" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="F296" t="n">
+        <v>383</v>
+      </c>
+      <c r="G296" t="n">
+        <v>91.11333333333336</v>
+      </c>
+      <c r="H296" t="n">
+        <v>93.45666666666669</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="C297" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="D297" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="E297" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="F297" t="n">
+        <v>383</v>
+      </c>
+      <c r="G297" t="n">
+        <v>91.14000000000001</v>
+      </c>
+      <c r="H297" t="n">
+        <v>93.39500000000002</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="C298" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="D298" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="E298" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="F298" t="n">
+        <v>117</v>
+      </c>
+      <c r="G298" t="n">
+        <v>91.16666666666667</v>
+      </c>
+      <c r="H298" t="n">
+        <v>93.33666666666669</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
+      <c r="M298" t="inlineStr"/>
+      <c r="N298" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-26 BackTest FCT.xlsx
+++ b/BackTest/2019-11-26 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-326278.8194731258</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-326278.8194731258</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>87.40000000000001</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-328594.0398731258</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-328594.0398731258</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>-328588.0398731258</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>-324493.5609731258</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>87</v>
+      </c>
+      <c r="J7" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,15 +685,19 @@
         <v>-316723.8032731258</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>87.09999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,17 +726,17 @@
         <v>-316723.8032731258</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>87.90000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>87.09999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -727,17 +767,17 @@
         <v>-321316.7474731258</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>87.90000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>87.09999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -768,15 +808,19 @@
         <v>-321316.7474731258</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>87.59999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -805,17 +849,15 @@
         <v>-318169.8148731258</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>87.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -846,13 +888,11 @@
         <v>-318169.8148731258</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>88.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -887,13 +927,13 @@
         <v>-318164.8148731258</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>88.40000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -928,13 +968,11 @@
         <v>-318164.8148731258</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -969,13 +1007,11 @@
         <v>-313364.7253731258</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1010,13 +1046,11 @@
         <v>-311600.9594731258</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>90.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1051,13 +1085,11 @@
         <v>-310443.2818731258</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>90.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1096,7 +1128,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1135,7 +1167,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1174,7 +1206,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1213,7 +1245,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1252,7 +1284,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1291,7 +1323,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1330,7 +1362,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1369,7 +1401,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1408,7 +1440,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1447,7 +1479,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1486,7 +1518,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1525,7 +1557,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1564,7 +1596,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1603,7 +1635,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1642,7 +1674,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1681,7 +1713,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1720,7 +1752,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1759,7 +1791,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1798,7 +1830,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1837,7 +1869,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1872,11 +1904,13 @@
         <v>-346142.0892731258</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>88.40000000000001</v>
+      </c>
       <c r="J39" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1911,11 +1945,13 @@
         <v>-346150.8490731258</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>88.8</v>
+      </c>
       <c r="J40" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1950,11 +1986,13 @@
         <v>-403618.6653731258</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>88.40000000000001</v>
+      </c>
       <c r="J41" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1989,11 +2027,13 @@
         <v>-403266.7195731258</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>88</v>
+      </c>
       <c r="J42" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2028,11 +2068,13 @@
         <v>-403235.1078731258</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>88.09999999999999</v>
+      </c>
       <c r="J43" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2067,11 +2109,13 @@
         <v>-403229.4771731258</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>88.2</v>
+      </c>
       <c r="J44" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2106,11 +2150,13 @@
         <v>-405357.0888731258</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>88.8</v>
+      </c>
       <c r="J45" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2145,11 +2191,13 @@
         <v>-405239.8504731259</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>88.40000000000001</v>
+      </c>
       <c r="J46" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2184,11 +2232,13 @@
         <v>-405239.8504731259</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>88.8</v>
+      </c>
       <c r="J47" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2227,7 +2277,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2262,11 +2312,13 @@
         <v>-409133.9420731259</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>89</v>
+      </c>
       <c r="J49" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2305,7 +2357,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2344,7 +2396,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2379,11 +2431,13 @@
         <v>-409133.9420731259</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>88.3</v>
+      </c>
       <c r="J52" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2418,11 +2472,13 @@
         <v>-410094.8444731259</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>88.3</v>
+      </c>
       <c r="J53" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2457,11 +2513,13 @@
         <v>-403814.687570178</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>87.8</v>
+      </c>
       <c r="J54" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2496,11 +2554,13 @@
         <v>-404314.687570178</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>88.2</v>
+      </c>
       <c r="J55" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2535,11 +2595,13 @@
         <v>-404314.687570178</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>87.7</v>
+      </c>
       <c r="J56" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2574,11 +2636,13 @@
         <v>-404273.295770178</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>87.7</v>
+      </c>
       <c r="J57" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2613,11 +2677,13 @@
         <v>-404273.295770178</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>87.8</v>
+      </c>
       <c r="J58" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2652,11 +2718,13 @@
         <v>-406273.521270178</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>87.8</v>
+      </c>
       <c r="J59" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2691,11 +2759,13 @@
         <v>-393244.297070178</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>87.7</v>
+      </c>
       <c r="J60" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2730,11 +2800,13 @@
         <v>-393244.297070178</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>88.3</v>
+      </c>
       <c r="J61" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2773,7 +2845,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2812,7 +2884,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2851,7 +2923,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2890,7 +2962,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2929,7 +3001,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2968,7 +3040,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3007,7 +3079,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3046,7 +3118,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3085,7 +3157,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3124,7 +3196,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3163,7 +3235,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3202,7 +3274,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3241,7 +3313,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3280,7 +3352,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3319,7 +3391,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3358,7 +3430,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3397,7 +3469,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3436,7 +3508,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3475,7 +3547,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3514,7 +3586,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3553,7 +3625,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3592,7 +3664,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3631,7 +3703,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3670,7 +3742,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3709,7 +3781,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3748,7 +3820,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3787,7 +3859,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3826,7 +3898,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3865,7 +3937,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3904,7 +3976,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3943,7 +4015,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3982,7 +4054,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4021,7 +4093,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4060,7 +4132,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4099,7 +4171,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4138,7 +4210,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4177,7 +4249,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4216,7 +4288,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4255,7 +4327,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4294,7 +4366,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4333,7 +4405,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4372,7 +4444,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4411,7 +4483,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4450,7 +4522,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4489,7 +4561,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4524,11 +4596,13 @@
         <v>-619305.5487701783</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>88.2</v>
+      </c>
       <c r="J107" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4563,11 +4637,13 @@
         <v>-619349.0888701783</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>88.40000000000001</v>
+      </c>
       <c r="J108" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4602,13 +4678,13 @@
         <v>-619343.0888701783</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>87.8</v>
       </c>
       <c r="J109" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4643,11 +4719,13 @@
         <v>-619343.0888701783</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>88.40000000000001</v>
+      </c>
       <c r="J110" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4682,13 +4760,13 @@
         <v>-619343.0888701783</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>88.40000000000001</v>
       </c>
       <c r="J111" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4723,13 +4801,13 @@
         <v>-619337.2888701783</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>88.40000000000001</v>
       </c>
       <c r="J112" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4764,11 +4842,13 @@
         <v>-619837.2888701783</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>88.7</v>
+      </c>
       <c r="J113" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4803,11 +4883,13 @@
         <v>-618839.6484701782</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>88.40000000000001</v>
+      </c>
       <c r="J114" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4842,11 +4924,13 @@
         <v>-618833.6484701782</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>88.7</v>
+      </c>
       <c r="J115" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4885,7 +4969,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4924,7 +5008,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4963,7 +5047,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5002,7 +5086,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5041,7 +5125,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5080,7 +5164,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5115,11 +5199,13 @@
         <v>-621824.5319701781</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>88</v>
+      </c>
       <c r="J122" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5158,7 +5244,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5197,7 +5283,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5236,7 +5322,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5271,11 +5357,13 @@
         <v>-621818.5319701781</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>88.7</v>
+      </c>
       <c r="J126" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5314,7 +5402,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5353,7 +5441,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5388,11 +5476,13 @@
         <v>-621021.9762701781</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>89.09999999999999</v>
+      </c>
       <c r="J129" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5427,11 +5517,13 @@
         <v>-621021.9762701781</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>89.40000000000001</v>
+      </c>
       <c r="J130" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5470,7 +5562,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5509,7 +5601,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5548,7 +5640,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5587,7 +5679,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5626,7 +5718,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5665,7 +5757,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5704,7 +5796,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5743,7 +5835,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5782,7 +5874,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5821,7 +5913,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5860,7 +5952,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5899,7 +5991,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5938,7 +6030,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5977,7 +6069,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6016,7 +6108,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6055,7 +6147,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6094,7 +6186,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6133,7 +6225,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6172,7 +6264,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6211,7 +6303,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6250,7 +6342,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6289,7 +6381,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6328,7 +6420,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6367,7 +6459,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6406,7 +6498,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6445,7 +6537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6484,7 +6576,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6523,7 +6615,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6562,7 +6654,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6601,7 +6693,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6640,7 +6732,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6679,7 +6771,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6718,7 +6810,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6757,7 +6849,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6796,7 +6888,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6835,7 +6927,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6874,7 +6966,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6913,7 +7005,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6952,7 +7044,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6991,7 +7083,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7030,7 +7122,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7069,7 +7161,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7108,7 +7200,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7147,7 +7239,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7186,7 +7278,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7225,7 +7317,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7264,7 +7356,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7303,7 +7395,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7342,7 +7434,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7381,7 +7473,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7420,7 +7512,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7459,7 +7551,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7498,7 +7590,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7537,7 +7629,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7576,7 +7668,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7615,7 +7707,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7654,7 +7746,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7693,7 +7785,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7732,7 +7824,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7771,7 +7863,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7810,7 +7902,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7849,7 +7941,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7888,7 +7980,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7927,7 +8019,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7966,7 +8058,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8001,23 +8093,21 @@
         <v>-645897.1208917906</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L196" t="n">
-        <v>1.11486301369863</v>
-      </c>
-      <c r="M196" t="n">
-        <v>1.01150747986191</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8042,11 +8132,17 @@
         <v>-649989.9107917906</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8075,11 +8171,17 @@
         <v>-607859.9716917906</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8108,11 +8210,17 @@
         <v>-600852.5713917906</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8141,11 +8249,17 @@
         <v>-600852.5713917906</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8174,11 +8288,17 @@
         <v>-600852.5713917906</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8207,11 +8327,17 @@
         <v>-607050.0662917907</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8240,11 +8366,17 @@
         <v>-670505.9254917906</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8273,11 +8405,17 @@
         <v>-640384.0541917906</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8306,11 +8444,17 @@
         <v>-646153.7391917907</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8342,8 +8486,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8372,11 +8522,19 @@
         <v>-649120.2909917907</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>95</v>
+      </c>
+      <c r="J207" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8405,11 +8563,19 @@
         <v>-649301.6016917907</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>95</v>
+      </c>
+      <c r="J208" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8438,11 +8604,19 @@
         <v>-644710.6291917907</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="J209" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8471,11 +8645,19 @@
         <v>-644710.6291917907</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>97</v>
+      </c>
+      <c r="J210" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8507,8 +8689,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8537,11 +8725,19 @@
         <v>-644632.8868917908</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="J212" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8570,11 +8766,19 @@
         <v>-644627.3868917908</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="J213" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8603,11 +8807,19 @@
         <v>-644647.8901917908</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="J214" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8636,11 +8848,19 @@
         <v>-644641.8901917908</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="J215" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8672,8 +8892,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8702,11 +8928,19 @@
         <v>-670118.1588917908</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="J217" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8735,11 +8969,19 @@
         <v>-672077.3570917908</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="J218" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8768,11 +9010,19 @@
         <v>-678674.8105917907</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="J219" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8801,11 +9051,19 @@
         <v>-678674.8105917907</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>94</v>
+      </c>
+      <c r="J220" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8834,11 +9092,19 @@
         <v>-678674.8105917907</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>94</v>
+      </c>
+      <c r="J221" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8867,11 +9133,19 @@
         <v>-688588.8327917907</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>94</v>
+      </c>
+      <c r="J222" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8900,11 +9174,19 @@
         <v>-702803.3252917908</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="J223" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8933,11 +9215,19 @@
         <v>-704409.9792917907</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="J224" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8966,11 +9256,19 @@
         <v>-684409.9792917907</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="J225" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8999,11 +9297,19 @@
         <v>-683620.9792917907</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="J226" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9035,8 +9341,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9068,8 +9380,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9101,8 +9419,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9134,8 +9458,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9167,8 +9497,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9200,8 +9536,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9233,8 +9575,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9266,8 +9614,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9299,8 +9653,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9332,8 +9692,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9365,8 +9731,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9398,8 +9770,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9431,8 +9809,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9464,8 +9848,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9497,8 +9887,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9530,8 +9926,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9563,8 +9965,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9596,8 +10004,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9629,8 +10043,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9662,8 +10082,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9695,8 +10121,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9728,8 +10160,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9761,8 +10199,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9794,8 +10238,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9827,8 +10277,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9860,8 +10316,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9893,8 +10355,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9926,8 +10394,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9959,8 +10433,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9992,8 +10472,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10025,8 +10511,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10058,8 +10550,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10091,8 +10589,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10124,8 +10628,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10157,8 +10667,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10190,8 +10706,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10223,8 +10745,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10256,8 +10784,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10289,8 +10823,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10322,8 +10862,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10355,8 +10901,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10388,8 +10940,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10421,8 +10979,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10454,8 +11018,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10484,15 +11054,23 @@
         <v>303612.5888082093</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+        <v>1.101407322654462</v>
+      </c>
+      <c r="M271" t="n">
+        <v>1.002293577981651</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10517,7 +11095,7 @@
         <v>303249.1412082093</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10550,7 +11128,7 @@
         <v>302737.5888082093</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10583,7 +11161,7 @@
         <v>303104.0809082093</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10616,7 +11194,7 @@
         <v>302741.9260082092</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10649,7 +11227,7 @@
         <v>302735.4767082093</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10715,7 +11293,7 @@
         <v>267452.2294082093</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10748,7 +11326,7 @@
         <v>267452.2294082093</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10847,7 +11425,7 @@
         <v>263282.6733082093</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10880,7 +11458,7 @@
         <v>262916.1812082093</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11078,7 +11656,7 @@
         <v>213097.4942082093</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11111,7 +11689,7 @@
         <v>209622.3686082093</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11144,7 +11722,7 @@
         <v>209627.8686082093</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11177,7 +11755,7 @@
         <v>209564.2717082093</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11210,7 +11788,7 @@
         <v>209564.2717082093</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11243,7 +11821,7 @@
         <v>209569.7717082093</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11276,7 +11854,7 @@
         <v>209563.5899082093</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11309,7 +11887,7 @@
         <v>208763.5899082093</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11342,7 +11920,7 @@
         <v>208763.5899082093</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11375,7 +11953,7 @@
         <v>208771.7240082093</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11408,7 +11986,7 @@
         <v>256715.9973411399</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11441,7 +12019,7 @@
         <v>256349.5052411399</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11837,7 +12415,7 @@
         <v>246281.2374411398</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11870,7 +12448,7 @@
         <v>202388.0049411398</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11903,7 +12481,7 @@
         <v>202382.0049411398</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11936,7 +12514,7 @@
         <v>202400.0049411398</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11969,7 +12547,7 @@
         <v>202400.0049411398</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12002,7 +12580,7 @@
         <v>202169.1636411398</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12035,7 +12613,7 @@
         <v>198330.4901411398</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12068,7 +12646,7 @@
         <v>198330.4901411398</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12101,7 +12679,7 @@
         <v>198330.4901411398</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12134,7 +12712,7 @@
         <v>198324.4901411398</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12167,7 +12745,7 @@
         <v>198324.4901411398</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12200,7 +12778,7 @@
         <v>198324.4901411398</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12233,7 +12811,7 @@
         <v>198318.4901411398</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12266,7 +12844,7 @@
         <v>194818.4901411398</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12299,7 +12877,7 @@
         <v>139818.4901411398</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12332,7 +12910,7 @@
         <v>139818.4901411398</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12365,7 +12943,7 @@
         <v>139818.4901411398</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12398,7 +12976,7 @@
         <v>137812.4901411398</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12431,7 +13009,7 @@
         <v>137441.5300411398</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12464,7 +13042,7 @@
         <v>137441.5300411398</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12497,7 +13075,7 @@
         <v>137171.3816411398</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12530,7 +13108,7 @@
         <v>140492.8285411398</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12596,7 +13174,7 @@
         <v>140486.8285411398</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12629,7 +13207,7 @@
         <v>140486.8285411398</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12662,7 +13240,7 @@
         <v>82606.08574113983</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12695,7 +13273,7 @@
         <v>84064.89884113983</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12728,7 +13306,7 @@
         <v>84064.89884113983</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12761,7 +13339,7 @@
         <v>68395.53644113983</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12794,7 +13372,7 @@
         <v>68395.53644113983</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12860,7 +13438,7 @@
         <v>63206.95384113983</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12893,7 +13471,7 @@
         <v>79886.14934113983</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13025,7 +13603,7 @@
         <v>74131.56494113983</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13058,7 +13636,7 @@
         <v>58601.57584113983</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13300,6 +13878,6 @@
       <c r="M356" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-26 BackTest FCT.xlsx
+++ b/BackTest/2019-11-26 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-326278.8194731258</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-326278.8194731258</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>87.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,3351 +517,2849 @@
         <v>-328594.0398731258</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45.2694</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-328594.0398731258</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>87</v>
+      </c>
+      <c r="C6" t="n">
+        <v>87</v>
+      </c>
+      <c r="D6" t="n">
+        <v>87</v>
+      </c>
+      <c r="E6" t="n">
+        <v>87</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-328588.0398731258</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4094.4789</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-324493.5609731258</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="J4" t="n">
+      <c r="C8" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="E8" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="F8" t="n">
+        <v>7769.7577</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-316723.8032731258</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>397.2989</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-316723.8032731258</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4592.9442</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-321316.7474731258</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="C11" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>225.2323</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-321316.7474731258</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3146.9326</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-318169.8148731258</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C13" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>23132.3187</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-318169.8148731258</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>89</v>
+      </c>
+      <c r="C14" t="n">
+        <v>89</v>
+      </c>
+      <c r="D14" t="n">
+        <v>89</v>
+      </c>
+      <c r="E14" t="n">
+        <v>89</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-318164.8148731258</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>89</v>
+      </c>
+      <c r="C15" t="n">
+        <v>89</v>
+      </c>
+      <c r="D15" t="n">
+        <v>89</v>
+      </c>
+      <c r="E15" t="n">
+        <v>89</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1386.487773125721</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-318164.8148731258</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="D16" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4800.0895</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-313364.7253731258</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="C17" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="D17" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1763.7659</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-311600.9594731258</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1157.6776</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-310443.2818731258</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>92</v>
+      </c>
+      <c r="C19" t="n">
+        <v>92</v>
+      </c>
+      <c r="D19" t="n">
+        <v>92</v>
+      </c>
+      <c r="E19" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9392.1639</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-301051.1179731258</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="C20" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="D20" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="E20" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="F20" t="n">
+        <v>500</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-301551.1179731258</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>92</v>
+      </c>
+      <c r="D21" t="n">
+        <v>92</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1636.2497</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-299914.8682731258</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>92</v>
+      </c>
+      <c r="C22" t="n">
+        <v>92</v>
+      </c>
+      <c r="D22" t="n">
+        <v>92</v>
+      </c>
+      <c r="E22" t="n">
+        <v>92</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2728.6193</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-299914.8682731258</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>82.5137</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-299997.3819731259</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>92</v>
+      </c>
+      <c r="D24" t="n">
+        <v>92</v>
+      </c>
+      <c r="E24" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>117.4863</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-299879.8956731259</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>92</v>
+      </c>
+      <c r="C25" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>92</v>
+      </c>
+      <c r="E25" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>666.2856</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-300546.1812731259</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1364.3955</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-301910.5767731259</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="E27" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>385.4626</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-301525.1141731258</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>383.7719</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-301908.8860731258</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="C29" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="D29" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="E29" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1154.6971</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-303063.5831731258</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="C30" t="n">
+        <v>90</v>
+      </c>
+      <c r="D30" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="E30" t="n">
+        <v>90</v>
+      </c>
+      <c r="F30" t="n">
+        <v>776.057</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-303839.6401731258</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="D31" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>79.54179999999999</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-303760.0983731258</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1203.5008</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-303760.0983731258</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="C33" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="D33" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="E33" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="F33" t="n">
+        <v>62.9643</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-303697.1340731258</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>90</v>
+      </c>
+      <c r="C34" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="D34" t="n">
+        <v>90</v>
+      </c>
+      <c r="E34" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>24532.1623</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-328229.2963731258</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="C35" t="n">
+        <v>89</v>
+      </c>
+      <c r="D35" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="E35" t="n">
+        <v>89</v>
+      </c>
+      <c r="F35" t="n">
+        <v>11853.0657</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-340082.3620731258</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="E36" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5886.1807</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-345968.5427731258</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C37" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D37" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E37" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F37" t="n">
+        <v>395.9276</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-346364.4703731258</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C38" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D38" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E38" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1955.9162</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-346364.4703731258</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="C39" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="D39" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="F39" t="n">
+        <v>222.3811</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-346142.0892731258</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C40" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D40" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E40" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>8.7598</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-346150.8490731258</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C41" t="n">
+        <v>88</v>
+      </c>
+      <c r="D41" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E41" t="n">
+        <v>88</v>
+      </c>
+      <c r="F41" t="n">
+        <v>57467.8163</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-403618.6653731258</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>88</v>
+      </c>
+      <c r="C42" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="D42" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="E42" t="n">
+        <v>88</v>
+      </c>
+      <c r="F42" t="n">
+        <v>351.9458</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-403266.7195731258</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="C43" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="E43" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>31.6117</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-403235.1078731258</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="C44" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="D44" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="E44" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5.6307</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-403229.4771731258</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C45" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D45" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E45" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2127.6117</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-405357.0888731258</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="D46" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="E46" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>117.2384</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-405239.8504731259</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="C47" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="D47" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="E47" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2155.4601</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-405239.8504731259</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>89</v>
+      </c>
+      <c r="C48" t="n">
+        <v>89</v>
+      </c>
+      <c r="D48" t="n">
+        <v>89</v>
+      </c>
+      <c r="E48" t="n">
+        <v>89</v>
+      </c>
+      <c r="F48" t="n">
+        <v>117.2429</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-405122.6075731259</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="C49" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="E49" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4011.3345</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-409133.9420731259</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="C50" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="D50" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="E50" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1096.2463</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-409133.9420731259</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="C51" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="D51" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="E51" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>18143.7429</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-409133.9420731259</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="C52" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>211.8105</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-409133.9420731259</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="C53" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="D53" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="E53" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F53" t="n">
+        <v>960.9023999999999</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-410094.8444731259</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="C54" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F54" t="n">
+        <v>6280.156902947846</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-403814.687570178</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="C55" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="D55" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="E55" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="F55" t="n">
+        <v>500</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-404314.687570178</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="C56" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="D56" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="E56" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="F56" t="n">
+        <v>5830.5965</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-404314.687570178</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="C57" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="D57" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="E57" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F57" t="n">
+        <v>41.3918</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-404273.295770178</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="C58" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="D58" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="E58" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F58" t="n">
+        <v>251.6475</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-404273.295770178</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="C59" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="D59" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="E59" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2000.2255</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-406273.521270178</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="C60" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="D60" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="E60" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="F60" t="n">
+        <v>13029.2242</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-393244.297070178</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="C61" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="D61" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="E61" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1001.014</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-393244.297070178</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C62" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D62" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E62" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-393240.797070178</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C63" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D63" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E63" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F63" t="n">
+        <v>158.6782</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-393240.797070178</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C64" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="D64" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="E64" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1003.44</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-392237.357070178</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="C65" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="D65" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F65" t="n">
+        <v>854.7089999999999</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-391382.6480701781</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="C66" t="n">
+        <v>89</v>
+      </c>
+      <c r="D66" t="n">
+        <v>89</v>
+      </c>
+      <c r="E66" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1286.8093</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-390095.838770178</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="C67" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="D67" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="E67" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="F67" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-390090.2387701781</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="C68" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="D68" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="E68" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="F68" t="n">
+        <v>142.9539</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-390233.1926701781</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="C69" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="D69" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="E69" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1156.7644</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-391389.9570701781</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="C70" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="D70" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="E70" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="F70" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-391384.257070178</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="C71" t="n">
+        <v>89</v>
+      </c>
+      <c r="D71" t="n">
+        <v>89</v>
+      </c>
+      <c r="E71" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10390.4639</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-380993.7931701781</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>89</v>
+      </c>
+      <c r="C72" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="D72" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="E72" t="n">
+        <v>89</v>
+      </c>
+      <c r="F72" t="n">
+        <v>11317.2629</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-369676.5302701781</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="C73" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="D73" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="E73" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F73" t="n">
+        <v>394.5885</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-370071.1187701781</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="C74" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="D74" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="E74" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="F74" t="n">
+        <v>400.2885</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-369670.8302701781</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="C75" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="D75" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="E75" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="F75" t="n">
+        <v>20.5032</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-369691.3334701781</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="C76" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="D76" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="E76" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="F76" t="n">
+        <v>7678.5215</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-377369.854970178</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="C77" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="D77" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="E77" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="F77" t="n">
+        <v>4699.5581</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-377369.854970178</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="C78" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="D78" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="E78" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="F78" t="n">
+        <v>55933.6604</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-433303.515370178</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>88</v>
+      </c>
+      <c r="C79" t="n">
+        <v>88</v>
+      </c>
+      <c r="D79" t="n">
+        <v>88</v>
+      </c>
+      <c r="E79" t="n">
+        <v>88</v>
+      </c>
+      <c r="F79" t="n">
+        <v>5</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-433298.515370178</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="J79" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>88</v>
+      </c>
+      <c r="C80" t="n">
+        <v>88</v>
+      </c>
+      <c r="D80" t="n">
+        <v>88</v>
+      </c>
+      <c r="E80" t="n">
+        <v>88</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1000.2525</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-433298.515370178</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>88</v>
+      </c>
+      <c r="J80" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>88</v>
+      </c>
+      <c r="C81" t="n">
+        <v>88</v>
+      </c>
+      <c r="D81" t="n">
+        <v>88</v>
+      </c>
+      <c r="E81" t="n">
+        <v>88</v>
+      </c>
+      <c r="F81" t="n">
+        <v>36.109</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-433298.515370178</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>88</v>
+      </c>
+      <c r="C82" t="n">
+        <v>88</v>
+      </c>
+      <c r="D82" t="n">
+        <v>88</v>
+      </c>
+      <c r="E82" t="n">
+        <v>88</v>
+      </c>
+      <c r="F82" t="n">
+        <v>147.9649</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-433298.515370178</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>88</v>
+      </c>
+      <c r="J82" t="n">
+        <v>88</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>88</v>
+      </c>
+      <c r="C83" t="n">
+        <v>88</v>
+      </c>
+      <c r="D83" t="n">
+        <v>88</v>
+      </c>
+      <c r="E83" t="n">
+        <v>88</v>
+      </c>
+      <c r="F83" t="n">
+        <v>500</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-433298.515370178</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>88</v>
+      </c>
+      <c r="J83" t="n">
+        <v>88</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>88</v>
+      </c>
+      <c r="C84" t="n">
+        <v>88</v>
+      </c>
+      <c r="D84" t="n">
+        <v>88</v>
+      </c>
+      <c r="E84" t="n">
+        <v>88</v>
+      </c>
+      <c r="F84" t="n">
+        <v>352.0351</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-433298.515370178</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>88</v>
+      </c>
+      <c r="J84" t="n">
+        <v>88</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>88</v>
+      </c>
+      <c r="C85" t="n">
+        <v>88</v>
+      </c>
+      <c r="D85" t="n">
+        <v>88</v>
+      </c>
+      <c r="E85" t="n">
+        <v>88</v>
+      </c>
+      <c r="F85" t="n">
+        <v>77</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-433298.515370178</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>88</v>
+      </c>
+      <c r="J85" t="n">
+        <v>88</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="C86" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="D86" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="E86" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="F86" t="n">
+        <v>399.5434</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-433698.0587701781</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>88</v>
+      </c>
+      <c r="J86" t="n">
+        <v>88</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="C87" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="D87" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="E87" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="F87" t="n">
+        <v>5496.2846</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-433698.0587701781</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="J87" t="n">
+        <v>88</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="C88" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="D88" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="E88" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="F88" t="n">
+        <v>5839.7208</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-439537.7795701781</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="J88" t="n">
+        <v>88</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="C5" t="n">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="D5" t="n">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="E5" t="n">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="F5" t="n">
-        <v>45.2694</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-328594.0398731258</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>87</v>
-      </c>
-      <c r="C6" t="n">
-        <v>87</v>
-      </c>
-      <c r="D6" t="n">
-        <v>87</v>
-      </c>
-      <c r="E6" t="n">
-        <v>87</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-328588.0398731258</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="J6" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="C7" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="D7" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="E7" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4094.4789</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-324493.5609731258</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>87</v>
-      </c>
-      <c r="J7" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="C8" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="D8" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="E8" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7769.7577</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-316723.8032731258</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="J8" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="E9" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="F9" t="n">
-        <v>397.2989</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-316723.8032731258</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="J9" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="D10" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="E10" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4592.9442</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-321316.7474731258</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="J10" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="C11" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="D11" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="E11" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="F11" t="n">
-        <v>225.2323</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-321316.7474731258</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="J11" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="C12" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="D12" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="E12" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3146.9326</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-318169.8148731258</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C13" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="D13" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="F13" t="n">
-        <v>23132.3187</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-318169.8148731258</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>89</v>
-      </c>
-      <c r="C14" t="n">
-        <v>89</v>
-      </c>
-      <c r="D14" t="n">
-        <v>89</v>
-      </c>
-      <c r="E14" t="n">
-        <v>89</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-318164.8148731258</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="J14" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>89</v>
-      </c>
-      <c r="C15" t="n">
-        <v>89</v>
-      </c>
-      <c r="D15" t="n">
-        <v>89</v>
-      </c>
-      <c r="E15" t="n">
-        <v>89</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1386.487773125721</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-318164.8148731258</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="D16" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="E16" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4800.0895</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-313364.7253731258</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="C17" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="D17" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="E17" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1763.7659</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-311600.9594731258</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="D18" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1157.6776</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-310443.2818731258</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>92</v>
-      </c>
-      <c r="C19" t="n">
-        <v>92</v>
-      </c>
-      <c r="D19" t="n">
-        <v>92</v>
-      </c>
-      <c r="E19" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="F19" t="n">
-        <v>9392.1639</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-301051.1179731258</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="C20" t="n">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="D20" t="n">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="E20" t="n">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="F20" t="n">
-        <v>500</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-301551.1179731258</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>92</v>
-      </c>
-      <c r="D21" t="n">
-        <v>92</v>
-      </c>
-      <c r="E21" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1636.2497</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-299914.8682731258</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>92</v>
-      </c>
-      <c r="C22" t="n">
-        <v>92</v>
-      </c>
-      <c r="D22" t="n">
-        <v>92</v>
-      </c>
-      <c r="E22" t="n">
-        <v>92</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2728.6193</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-299914.8682731258</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="C23" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="D23" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="E23" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="F23" t="n">
-        <v>82.5137</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-299997.3819731259</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="C24" t="n">
-        <v>92</v>
-      </c>
-      <c r="D24" t="n">
-        <v>92</v>
-      </c>
-      <c r="E24" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="F24" t="n">
-        <v>117.4863</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-299879.8956731259</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>92</v>
-      </c>
-      <c r="C25" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="D25" t="n">
-        <v>92</v>
-      </c>
-      <c r="E25" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="F25" t="n">
-        <v>666.2856</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-300546.1812731259</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="C26" t="n">
-        <v>91.3</v>
-      </c>
-      <c r="D26" t="n">
-        <v>91.3</v>
-      </c>
-      <c r="E26" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1364.3955</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-301910.5767731259</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>91.7</v>
-      </c>
-      <c r="C27" t="n">
-        <v>91.7</v>
-      </c>
-      <c r="D27" t="n">
-        <v>91.7</v>
-      </c>
-      <c r="E27" t="n">
-        <v>91.7</v>
-      </c>
-      <c r="F27" t="n">
-        <v>385.4626</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-301525.1141731258</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="C28" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="D28" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="E28" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="F28" t="n">
-        <v>383.7719</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-301908.8860731258</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>91.7</v>
-      </c>
-      <c r="C29" t="n">
-        <v>90.8</v>
-      </c>
-      <c r="D29" t="n">
-        <v>91.7</v>
-      </c>
-      <c r="E29" t="n">
-        <v>90.8</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1154.6971</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-303063.5831731258</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="C30" t="n">
-        <v>90</v>
-      </c>
-      <c r="D30" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="E30" t="n">
-        <v>90</v>
-      </c>
-      <c r="F30" t="n">
-        <v>776.057</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-303839.6401731258</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="C31" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="D31" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="E31" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="F31" t="n">
-        <v>79.54179999999999</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-303760.0983731258</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="C32" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="D32" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="E32" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1203.5008</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-303760.0983731258</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="C33" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="D33" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="E33" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="F33" t="n">
-        <v>62.9643</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-303697.1340731258</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>90</v>
-      </c>
-      <c r="C34" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="D34" t="n">
-        <v>90</v>
-      </c>
-      <c r="E34" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="F34" t="n">
-        <v>24532.1623</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-328229.2963731258</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="C35" t="n">
-        <v>89</v>
-      </c>
-      <c r="D35" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="E35" t="n">
-        <v>89</v>
-      </c>
-      <c r="F35" t="n">
-        <v>11853.0657</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-340082.3620731258</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="C36" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="D36" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="E36" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="F36" t="n">
-        <v>5886.1807</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-345968.5427731258</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C37" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="D37" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="E37" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="F37" t="n">
-        <v>395.9276</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-346364.4703731258</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C38" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="D38" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="E38" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1955.9162</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-346364.4703731258</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="C39" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="D39" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="E39" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="F39" t="n">
-        <v>222.3811</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-346142.0892731258</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="J39" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C40" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="D40" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="E40" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="F40" t="n">
-        <v>8.7598</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-346150.8490731258</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="J40" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C41" t="n">
-        <v>88</v>
-      </c>
-      <c r="D41" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="E41" t="n">
-        <v>88</v>
-      </c>
-      <c r="F41" t="n">
-        <v>57467.8163</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-403618.6653731258</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="J41" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>88</v>
-      </c>
-      <c r="C42" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="D42" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="E42" t="n">
-        <v>88</v>
-      </c>
-      <c r="F42" t="n">
-        <v>351.9458</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-403266.7195731258</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>88</v>
-      </c>
-      <c r="J42" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="C43" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="D43" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="E43" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="F43" t="n">
-        <v>31.6117</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-403235.1078731258</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="J43" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="C44" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="D44" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="E44" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="F44" t="n">
-        <v>5.6307</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-403229.4771731258</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="J44" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C45" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="D45" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="E45" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2127.6117</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-405357.0888731258</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="J45" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="C46" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="D46" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="E46" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="F46" t="n">
-        <v>117.2384</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-405239.8504731259</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="J46" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="C47" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="D47" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="E47" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2155.4601</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-405239.8504731259</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>89</v>
-      </c>
-      <c r="C48" t="n">
-        <v>89</v>
-      </c>
-      <c r="D48" t="n">
-        <v>89</v>
-      </c>
-      <c r="E48" t="n">
-        <v>89</v>
-      </c>
-      <c r="F48" t="n">
-        <v>117.2429</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-405122.6075731259</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="C49" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="D49" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="E49" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="F49" t="n">
-        <v>4011.3345</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-409133.9420731259</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>89</v>
-      </c>
-      <c r="J49" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="C50" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="D50" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="E50" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1096.2463</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-409133.9420731259</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="C51" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="D51" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="E51" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="F51" t="n">
-        <v>18143.7429</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-409133.9420731259</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="C52" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="D52" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="E52" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="F52" t="n">
-        <v>211.8105</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-409133.9420731259</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="J52" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="C53" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="D53" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="E53" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="F53" t="n">
-        <v>960.9023999999999</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-410094.8444731259</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="C54" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="D54" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="E54" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="F54" t="n">
-        <v>6280.156902947846</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-403814.687570178</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="J54" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="C55" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="D55" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="E55" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="F55" t="n">
-        <v>500</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-404314.687570178</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="C56" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="D56" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="E56" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="F56" t="n">
-        <v>5830.5965</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-404314.687570178</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="J56" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="C57" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="D57" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="E57" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="F57" t="n">
-        <v>41.3918</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-404273.295770178</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="J57" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="C58" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="D58" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="E58" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="F58" t="n">
-        <v>251.6475</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-404273.295770178</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="J58" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="C59" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="D59" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="E59" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2000.2255</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-406273.521270178</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="J59" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="C60" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="D60" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="E60" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="F60" t="n">
-        <v>13029.2242</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-393244.297070178</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="J60" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="C61" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="D61" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="E61" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1001.014</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-393244.297070178</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="J61" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C62" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="D62" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="E62" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="F62" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-393240.797070178</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C63" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="D63" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="E63" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="F63" t="n">
-        <v>158.6782</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-393240.797070178</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C64" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="D64" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="E64" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1003.44</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-392237.357070178</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="C65" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="D65" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="E65" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="F65" t="n">
-        <v>854.7089999999999</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-391382.6480701781</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="C66" t="n">
-        <v>89</v>
-      </c>
-      <c r="D66" t="n">
-        <v>89</v>
-      </c>
-      <c r="E66" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1286.8093</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-390095.838770178</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="C67" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="D67" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="E67" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="F67" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-390090.2387701781</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="C68" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="D68" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="E68" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="F68" t="n">
-        <v>142.9539</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-390233.1926701781</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="C69" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="D69" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="E69" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1156.7644</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-391389.9570701781</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="C70" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="D70" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="E70" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="F70" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-391384.257070178</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="C71" t="n">
-        <v>89</v>
-      </c>
-      <c r="D71" t="n">
-        <v>89</v>
-      </c>
-      <c r="E71" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="F71" t="n">
-        <v>10390.4639</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-380993.7931701781</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>89</v>
-      </c>
-      <c r="C72" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="D72" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="E72" t="n">
-        <v>89</v>
-      </c>
-      <c r="F72" t="n">
-        <v>11317.2629</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-369676.5302701781</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="C73" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="D73" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="E73" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="F73" t="n">
-        <v>394.5885</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-370071.1187701781</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="C74" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="D74" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="E74" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="F74" t="n">
-        <v>400.2885</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-369670.8302701781</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="C75" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="D75" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="E75" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="F75" t="n">
-        <v>20.5032</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-369691.3334701781</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="C76" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="D76" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="E76" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="F76" t="n">
-        <v>7678.5215</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-377369.854970178</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="C77" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="D77" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="E77" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="F77" t="n">
-        <v>4699.5581</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-377369.854970178</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="C78" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="D78" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="E78" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="F78" t="n">
-        <v>55933.6604</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-433303.515370178</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>88</v>
-      </c>
-      <c r="C79" t="n">
-        <v>88</v>
-      </c>
-      <c r="D79" t="n">
-        <v>88</v>
-      </c>
-      <c r="E79" t="n">
-        <v>88</v>
-      </c>
-      <c r="F79" t="n">
-        <v>5</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-433298.515370178</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>88</v>
-      </c>
-      <c r="C80" t="n">
-        <v>88</v>
-      </c>
-      <c r="D80" t="n">
-        <v>88</v>
-      </c>
-      <c r="E80" t="n">
-        <v>88</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1000.2525</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-433298.515370178</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>88</v>
-      </c>
-      <c r="C81" t="n">
-        <v>88</v>
-      </c>
-      <c r="D81" t="n">
-        <v>88</v>
-      </c>
-      <c r="E81" t="n">
-        <v>88</v>
-      </c>
-      <c r="F81" t="n">
-        <v>36.109</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-433298.515370178</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>88</v>
-      </c>
-      <c r="C82" t="n">
-        <v>88</v>
-      </c>
-      <c r="D82" t="n">
-        <v>88</v>
-      </c>
-      <c r="E82" t="n">
-        <v>88</v>
-      </c>
-      <c r="F82" t="n">
-        <v>147.9649</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-433298.515370178</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>88</v>
-      </c>
-      <c r="C83" t="n">
-        <v>88</v>
-      </c>
-      <c r="D83" t="n">
-        <v>88</v>
-      </c>
-      <c r="E83" t="n">
-        <v>88</v>
-      </c>
-      <c r="F83" t="n">
-        <v>500</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-433298.515370178</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>88</v>
-      </c>
-      <c r="C84" t="n">
-        <v>88</v>
-      </c>
-      <c r="D84" t="n">
-        <v>88</v>
-      </c>
-      <c r="E84" t="n">
-        <v>88</v>
-      </c>
-      <c r="F84" t="n">
-        <v>352.0351</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-433298.515370178</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>88</v>
-      </c>
-      <c r="C85" t="n">
-        <v>88</v>
-      </c>
-      <c r="D85" t="n">
-        <v>88</v>
-      </c>
-      <c r="E85" t="n">
-        <v>88</v>
-      </c>
-      <c r="F85" t="n">
-        <v>77</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-433298.515370178</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="C86" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="D86" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="E86" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="F86" t="n">
-        <v>399.5434</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-433698.0587701781</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="C87" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="D87" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="E87" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="F87" t="n">
-        <v>5496.2846</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-433698.0587701781</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="C88" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="D88" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="E88" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="F88" t="n">
-        <v>5839.7208</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-439537.7795701781</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3894,11 +3388,13 @@
         <v>-430424.8192701781</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>87.3</v>
+      </c>
       <c r="J89" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3933,11 +3429,13 @@
         <v>-430419.1244701781</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>87.59999999999999</v>
+      </c>
       <c r="J90" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3972,11 +3470,13 @@
         <v>-454194.1553701781</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>87.8</v>
+      </c>
       <c r="J91" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -4011,11 +3511,13 @@
         <v>-452374.8029701781</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>87.59999999999999</v>
+      </c>
       <c r="J92" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4050,11 +3552,13 @@
         <v>-435270.2122701781</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>87.90000000000001</v>
+      </c>
       <c r="J93" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4089,11 +3593,13 @@
         <v>-435770.2122701781</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>88</v>
+      </c>
       <c r="J94" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4128,11 +3634,13 @@
         <v>-423559.4514701781</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>87.59999999999999</v>
+      </c>
       <c r="J95" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4167,11 +3675,13 @@
         <v>-423559.4514701781</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>88</v>
+      </c>
       <c r="J96" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4206,11 +3716,13 @@
         <v>-423559.4514701781</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>88</v>
+      </c>
       <c r="J97" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4245,11 +3757,13 @@
         <v>-423559.4514701781</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>88</v>
+      </c>
       <c r="J98" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4284,11 +3798,13 @@
         <v>-281909.2825701782</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>88</v>
+      </c>
       <c r="J99" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4323,11 +3839,13 @@
         <v>-618491.5245701782</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>88.40000000000001</v>
+      </c>
       <c r="J100" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4362,11 +3880,13 @@
         <v>-618491.5245701782</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>87.8</v>
+      </c>
       <c r="J101" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4405,7 +3925,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4444,7 +3964,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4479,11 +3999,13 @@
         <v>-619317.5487701783</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>87.59999999999999</v>
+      </c>
       <c r="J104" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4522,7 +4044,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4561,7 +4083,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4596,13 +4118,11 @@
         <v>-619305.5487701783</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>88.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4637,13 +4157,11 @@
         <v>-619349.0888701783</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>88.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4678,13 +4196,11 @@
         <v>-619343.0888701783</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>87.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4719,13 +4235,11 @@
         <v>-619343.0888701783</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>88.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4760,13 +4274,11 @@
         <v>-619343.0888701783</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>88.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4801,13 +4313,11 @@
         <v>-619337.2888701783</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>88.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4842,13 +4352,11 @@
         <v>-619837.2888701783</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>88.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4883,13 +4391,11 @@
         <v>-618839.6484701782</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>88.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4924,13 +4430,11 @@
         <v>-618833.6484701782</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>88.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4969,7 +4473,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -5008,7 +4512,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5047,7 +4551,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5082,11 +4586,13 @@
         <v>-620308.2283701781</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>88.09999999999999</v>
+      </c>
       <c r="J119" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5121,11 +4627,13 @@
         <v>-620308.2283701781</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>88.2</v>
+      </c>
       <c r="J120" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5164,7 +4672,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5199,13 +4707,11 @@
         <v>-621824.5319701781</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5244,7 +4750,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5283,7 +4789,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5322,7 +4828,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5357,13 +4863,11 @@
         <v>-621818.5319701781</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>88.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5402,7 +4906,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5441,7 +4945,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5476,13 +4980,11 @@
         <v>-621021.9762701781</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>89.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5517,13 +5019,11 @@
         <v>-621021.9762701781</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>89.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5562,7 +5062,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5601,7 +5101,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5640,7 +5140,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5679,7 +5179,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5718,7 +5218,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5757,7 +5257,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5796,7 +5296,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5835,7 +5335,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5874,7 +5374,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5913,7 +5413,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5952,7 +5452,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5991,7 +5491,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -6030,7 +5530,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6069,7 +5569,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6108,7 +5608,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6147,7 +5647,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6186,7 +5686,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6225,7 +5725,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6264,7 +5764,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6303,7 +5803,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6342,7 +5842,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6381,7 +5881,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6420,7 +5920,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6459,7 +5959,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6498,7 +5998,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6533,19 +6033,19 @@
         <v>-681937.7983917908</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>1</v>
+        <v>1.041590909090909</v>
       </c>
       <c r="M156" t="inlineStr"/>
     </row>
@@ -6572,17 +6072,11 @@
         <v>-678584.6127917909</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6614,14 +6108,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6650,17 +6138,11 @@
         <v>-678584.6127917909</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6689,17 +6171,11 @@
         <v>-677704.1779917908</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6728,17 +6204,11 @@
         <v>-677704.1779917908</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6767,17 +6237,11 @@
         <v>-677704.1779917908</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6806,17 +6270,11 @@
         <v>-677698.1779917908</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6845,17 +6303,11 @@
         <v>-678013.9844917908</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6884,17 +6336,11 @@
         <v>-679513.9844917908</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6923,17 +6369,11 @@
         <v>-673263.4791917908</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6962,17 +6402,11 @@
         <v>-673263.4791917908</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7001,17 +6435,11 @@
         <v>-673263.4791917908</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7040,17 +6468,11 @@
         <v>-668263.4791917908</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7079,17 +6501,11 @@
         <v>-668263.4791917908</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7118,17 +6534,11 @@
         <v>-668163.4791917908</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7157,17 +6567,11 @@
         <v>-667425.4791917908</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7196,17 +6600,11 @@
         <v>-667425.4791917908</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7235,17 +6633,11 @@
         <v>-667047.1007917908</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7274,17 +6666,11 @@
         <v>-666080.6177917907</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7313,17 +6699,11 @@
         <v>-662131.6632917908</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7352,17 +6732,11 @@
         <v>-659568.4217917908</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7391,17 +6765,11 @@
         <v>-692366.0408917908</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7430,17 +6798,11 @@
         <v>-692360.0408917908</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7472,14 +6834,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7511,14 +6867,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7550,14 +6900,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7589,14 +6933,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7628,14 +6966,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7667,14 +6999,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7706,14 +7032,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7745,14 +7065,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7784,14 +7098,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7823,14 +7131,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7862,14 +7164,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7901,14 +7197,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7940,14 +7230,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7979,14 +7263,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8018,14 +7296,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8057,14 +7329,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8096,14 +7362,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8135,14 +7395,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8174,14 +7428,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8213,14 +7461,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8252,14 +7494,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8291,14 +7527,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8330,14 +7560,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8369,14 +7593,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8408,14 +7626,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8447,14 +7659,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8486,14 +7692,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8522,19 +7722,11 @@
         <v>-649120.2909917907</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>95</v>
-      </c>
-      <c r="J207" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8563,19 +7755,11 @@
         <v>-649301.6016917907</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>95</v>
-      </c>
-      <c r="J208" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8604,19 +7788,11 @@
         <v>-644710.6291917907</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="J209" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8645,19 +7821,11 @@
         <v>-644710.6291917907</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>97</v>
-      </c>
-      <c r="J210" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8689,14 +7857,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8725,19 +7887,11 @@
         <v>-644632.8868917908</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="J212" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8766,19 +7920,11 @@
         <v>-644627.3868917908</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="J213" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8807,19 +7953,11 @@
         <v>-644647.8901917908</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="J214" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8848,19 +7986,11 @@
         <v>-644641.8901917908</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="J215" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8892,14 +8022,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8928,19 +8052,11 @@
         <v>-670118.1588917908</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="J217" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8969,19 +8085,11 @@
         <v>-672077.3570917908</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="J218" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9010,19 +8118,11 @@
         <v>-678674.8105917907</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="J219" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9051,19 +8151,11 @@
         <v>-678674.8105917907</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>94</v>
-      </c>
-      <c r="J220" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9092,19 +8184,11 @@
         <v>-678674.8105917907</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>94</v>
-      </c>
-      <c r="J221" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9133,19 +8217,11 @@
         <v>-688588.8327917907</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>94</v>
-      </c>
-      <c r="J222" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9174,19 +8250,11 @@
         <v>-702803.3252917908</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>93.59999999999999</v>
-      </c>
-      <c r="J223" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9215,19 +8283,11 @@
         <v>-704409.9792917907</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="J224" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9256,19 +8316,11 @@
         <v>-684409.9792917907</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="J225" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9297,19 +8349,11 @@
         <v>-683620.9792917907</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="J226" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9341,14 +8385,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9380,14 +8418,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9419,14 +8451,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9458,14 +8484,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9497,14 +8517,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9536,14 +8550,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9575,14 +8583,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9614,14 +8616,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9653,14 +8649,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9692,14 +8682,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9731,14 +8715,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9770,14 +8748,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9809,14 +8781,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9848,14 +8814,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9887,14 +8847,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9926,14 +8880,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9965,14 +8913,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10004,14 +8946,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10043,14 +8979,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10082,14 +9012,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10121,14 +9045,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10160,14 +9078,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10199,14 +9111,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10238,14 +9144,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10277,14 +9177,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10316,14 +9210,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10355,14 +9243,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10394,14 +9276,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10433,14 +9309,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10472,14 +9342,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10511,14 +9375,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10550,14 +9408,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10589,14 +9441,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10628,14 +9474,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10667,14 +9507,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10706,14 +9540,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10745,14 +9573,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10784,14 +9606,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10823,14 +9639,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10862,14 +9672,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10901,14 +9705,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10940,14 +9738,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10979,14 +9771,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11018,14 +9804,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11054,23 +9834,15 @@
         <v>303612.5888082093</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
-        <v>1.101407322654462</v>
-      </c>
-      <c r="M271" t="n">
-        <v>1.002293577981651</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -11095,7 +9867,7 @@
         <v>303249.1412082093</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -11128,7 +9900,7 @@
         <v>302737.5888082093</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -11161,7 +9933,7 @@
         <v>303104.0809082093</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -11194,7 +9966,7 @@
         <v>302741.9260082092</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -11227,7 +9999,7 @@
         <v>302735.4767082093</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -11293,7 +10065,7 @@
         <v>267452.2294082093</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11326,7 +10098,7 @@
         <v>267452.2294082093</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11425,7 +10197,7 @@
         <v>263282.6733082093</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11656,7 +10428,7 @@
         <v>213097.4942082093</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11689,7 +10461,7 @@
         <v>209622.3686082093</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11722,7 +10494,7 @@
         <v>209627.8686082093</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11755,7 +10527,7 @@
         <v>209564.2717082093</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11788,7 +10560,7 @@
         <v>209564.2717082093</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11821,7 +10593,7 @@
         <v>209569.7717082093</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11854,7 +10626,7 @@
         <v>209563.5899082093</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11887,7 +10659,7 @@
         <v>208763.5899082093</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11920,7 +10692,7 @@
         <v>208763.5899082093</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11953,7 +10725,7 @@
         <v>208771.7240082093</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11986,7 +10758,7 @@
         <v>256715.9973411399</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -12019,7 +10791,7 @@
         <v>256349.5052411399</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -12415,7 +11187,7 @@
         <v>246281.2374411398</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12448,7 +11220,7 @@
         <v>202388.0049411398</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12481,7 +11253,7 @@
         <v>202382.0049411398</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12514,7 +11286,7 @@
         <v>202400.0049411398</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12547,7 +11319,7 @@
         <v>202400.0049411398</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12580,7 +11352,7 @@
         <v>202169.1636411398</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12613,7 +11385,7 @@
         <v>198330.4901411398</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12646,7 +11418,7 @@
         <v>198330.4901411398</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12679,7 +11451,7 @@
         <v>198330.4901411398</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12712,7 +11484,7 @@
         <v>198324.4901411398</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12745,7 +11517,7 @@
         <v>198324.4901411398</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12778,7 +11550,7 @@
         <v>198324.4901411398</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12811,7 +11583,7 @@
         <v>198318.4901411398</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12844,7 +11616,7 @@
         <v>194818.4901411398</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12877,7 +11649,7 @@
         <v>139818.4901411398</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12910,7 +11682,7 @@
         <v>139818.4901411398</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12943,7 +11715,7 @@
         <v>139818.4901411398</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12976,7 +11748,7 @@
         <v>137812.4901411398</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -13240,7 +12012,7 @@
         <v>82606.08574113983</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13273,7 +12045,7 @@
         <v>84064.89884113983</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13306,7 +12078,7 @@
         <v>84064.89884113983</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13339,7 +12111,7 @@
         <v>68395.53644113983</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13878,6 +12650,6 @@
       <c r="M356" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-26 BackTest FCT.xlsx
+++ b/BackTest/2019-11-26 BackTest FCT.xlsx
@@ -1111,7 +1111,7 @@
         <v>-299914.8682731258</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-299997.3819731259</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-299879.8956731259</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-300546.1812731259</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -2992,14 +2992,10 @@
         <v>-433298.515370178</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="J79" t="n">
-        <v>87.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
@@ -3029,2163 +3025,1881 @@
         <v>-433298.515370178</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
         <v>88</v>
       </c>
-      <c r="J80" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K80" t="inlineStr">
+      <c r="C81" t="n">
+        <v>88</v>
+      </c>
+      <c r="D81" t="n">
+        <v>88</v>
+      </c>
+      <c r="E81" t="n">
+        <v>88</v>
+      </c>
+      <c r="F81" t="n">
+        <v>36.109</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-433298.515370178</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>88</v>
+      </c>
+      <c r="C82" t="n">
+        <v>88</v>
+      </c>
+      <c r="D82" t="n">
+        <v>88</v>
+      </c>
+      <c r="E82" t="n">
+        <v>88</v>
+      </c>
+      <c r="F82" t="n">
+        <v>147.9649</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-433298.515370178</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>88</v>
+      </c>
+      <c r="C83" t="n">
+        <v>88</v>
+      </c>
+      <c r="D83" t="n">
+        <v>88</v>
+      </c>
+      <c r="E83" t="n">
+        <v>88</v>
+      </c>
+      <c r="F83" t="n">
+        <v>500</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-433298.515370178</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>88</v>
+      </c>
+      <c r="C84" t="n">
+        <v>88</v>
+      </c>
+      <c r="D84" t="n">
+        <v>88</v>
+      </c>
+      <c r="E84" t="n">
+        <v>88</v>
+      </c>
+      <c r="F84" t="n">
+        <v>352.0351</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-433298.515370178</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>88</v>
+      </c>
+      <c r="C85" t="n">
+        <v>88</v>
+      </c>
+      <c r="D85" t="n">
+        <v>88</v>
+      </c>
+      <c r="E85" t="n">
+        <v>88</v>
+      </c>
+      <c r="F85" t="n">
+        <v>77</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-433298.515370178</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="C86" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="D86" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="E86" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="F86" t="n">
+        <v>399.5434</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-433698.0587701781</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="C87" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="D87" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="E87" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="F87" t="n">
+        <v>5496.2846</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-433698.0587701781</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="C88" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="D88" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="E88" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="F88" t="n">
+        <v>5839.7208</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-439537.7795701781</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="D89" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="E89" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="F89" t="n">
+        <v>9112.960300000001</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-430424.8192701781</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="C90" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="D90" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="E90" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F90" t="n">
+        <v>5.6948</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-430419.1244701781</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="C91" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="D91" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="F91" t="n">
+        <v>23775.0309</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-454194.1553701781</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="C92" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="D92" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="E92" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1819.3524</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-452374.8029701781</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>88</v>
+      </c>
+      <c r="C93" t="n">
+        <v>88</v>
+      </c>
+      <c r="D93" t="n">
+        <v>88</v>
+      </c>
+      <c r="E93" t="n">
+        <v>88</v>
+      </c>
+      <c r="F93" t="n">
+        <v>17104.5907</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-435270.2122701781</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="C94" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="D94" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="E94" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="F94" t="n">
+        <v>500</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-435770.2122701781</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="C95" t="n">
+        <v>88</v>
+      </c>
+      <c r="D95" t="n">
+        <v>88</v>
+      </c>
+      <c r="E95" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="F95" t="n">
+        <v>12210.7608</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-423559.4514701781</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>88</v>
+      </c>
+      <c r="C96" t="n">
+        <v>88</v>
+      </c>
+      <c r="D96" t="n">
+        <v>88</v>
+      </c>
+      <c r="E96" t="n">
+        <v>88</v>
+      </c>
+      <c r="F96" t="n">
+        <v>27.7056</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-423559.4514701781</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="C97" t="n">
+        <v>88</v>
+      </c>
+      <c r="D97" t="n">
+        <v>88</v>
+      </c>
+      <c r="E97" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1329.589</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-423559.4514701781</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>88</v>
+      </c>
+      <c r="C98" t="n">
+        <v>88</v>
+      </c>
+      <c r="D98" t="n">
+        <v>88</v>
+      </c>
+      <c r="E98" t="n">
+        <v>88</v>
+      </c>
+      <c r="F98" t="n">
+        <v>60.3475</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-423559.4514701781</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="C99" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D99" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E99" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="F99" t="n">
+        <v>141650.1689</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-281909.2825701782</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="C100" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="D100" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="E100" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F100" t="n">
+        <v>336582.242</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-618491.5245701782</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="C101" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="D101" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F101" t="n">
+        <v>927179.8245</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-618491.5245701782</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="C102" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="D102" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="E102" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="F102" t="n">
+        <v>12.1577</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-618479.3668701783</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="C103" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="D103" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="E103" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="F103" t="n">
+        <v>843.8819</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-619323.2487701783</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="C104" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="D104" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="E104" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="F104" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-619317.5487701783</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="C105" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="F105" t="n">
+        <v>6</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-619311.5487701783</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="C106" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>88</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-619311.5487701783</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C107" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D107" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E107" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F107" t="n">
+        <v>6</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-619305.5487701783</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="C108" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="D108" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="E108" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F108" t="n">
+        <v>43.5401</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-619349.0888701783</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C109" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D109" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E109" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F109" t="n">
+        <v>6</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-619343.0888701783</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C110" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D110" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E110" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F110" t="n">
+        <v>387.5434</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-619343.0888701783</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C111" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D111" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E111" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F111" t="n">
+        <v>100</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-619343.0888701783</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="C112" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="D112" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="E112" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-619337.2888701783</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C113" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D113" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E113" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F113" t="n">
+        <v>500</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-619837.2888701783</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="C114" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="D114" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="E114" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F114" t="n">
+        <v>997.6404</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-618839.6484701782</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="C115" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="D115" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="E115" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="F115" t="n">
+        <v>6</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-618833.6484701782</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="C116" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="D116" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="E116" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F116" t="n">
+        <v>931.3985</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-619765.0469701783</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C117" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D117" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E117" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F117" t="n">
+        <v>956.9831</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-620722.0300701782</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C118" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="D118" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E118" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2870.9493</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-623592.9793701782</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3284.751</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-620308.2283701781</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="E120" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="F120" t="n">
+        <v>9794.9593</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-620308.2283701781</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>88</v>
+      </c>
+      <c r="C121" t="n">
+        <v>88</v>
+      </c>
+      <c r="D121" t="n">
+        <v>88</v>
+      </c>
+      <c r="E121" t="n">
+        <v>88</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1522.3036</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-621830.5319701781</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>6</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-621824.5319701781</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>88</v>
+      </c>
+      <c r="J122" t="n">
+        <v>88</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C123" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>88</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-621824.5319701781</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="J123" t="n">
+        <v>88</v>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="C124" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="D124" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="E124" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F124" t="n">
+        <v>6</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-621818.5319701781</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="J124" t="n">
         <v>88</v>
       </c>
-      <c r="C81" t="n">
-        <v>88</v>
-      </c>
-      <c r="D81" t="n">
-        <v>88</v>
-      </c>
-      <c r="E81" t="n">
-        <v>88</v>
-      </c>
-      <c r="F81" t="n">
-        <v>36.109</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-433298.515370178</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K81" t="inlineStr">
+      <c r="K124" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>88</v>
-      </c>
-      <c r="C82" t="n">
-        <v>88</v>
-      </c>
-      <c r="D82" t="n">
-        <v>88</v>
-      </c>
-      <c r="E82" t="n">
-        <v>88</v>
-      </c>
-      <c r="F82" t="n">
-        <v>147.9649</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-433298.515370178</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>88</v>
-      </c>
-      <c r="J82" t="n">
-        <v>88</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>88</v>
-      </c>
-      <c r="C83" t="n">
-        <v>88</v>
-      </c>
-      <c r="D83" t="n">
-        <v>88</v>
-      </c>
-      <c r="E83" t="n">
-        <v>88</v>
-      </c>
-      <c r="F83" t="n">
-        <v>500</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-433298.515370178</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>88</v>
-      </c>
-      <c r="J83" t="n">
-        <v>88</v>
-      </c>
-      <c r="K83" t="inlineStr">
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="C125" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="D125" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="E125" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F125" t="n">
+        <v>118.4208</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-621818.5319701781</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="J125" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="C126" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="D126" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1188.4286</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-621818.5319701781</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="J126" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="K126" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>88</v>
-      </c>
-      <c r="C84" t="n">
-        <v>88</v>
-      </c>
-      <c r="D84" t="n">
-        <v>88</v>
-      </c>
-      <c r="E84" t="n">
-        <v>88</v>
-      </c>
-      <c r="F84" t="n">
-        <v>352.0351</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-433298.515370178</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>88</v>
-      </c>
-      <c r="J84" t="n">
-        <v>88</v>
-      </c>
-      <c r="K84" t="inlineStr">
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="C127" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="D127" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="E127" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F127" t="n">
+        <v>13.1396</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-621818.5319701781</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="J127" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="K127" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>88</v>
-      </c>
-      <c r="C85" t="n">
-        <v>88</v>
-      </c>
-      <c r="D85" t="n">
-        <v>88</v>
-      </c>
-      <c r="E85" t="n">
-        <v>88</v>
-      </c>
-      <c r="F85" t="n">
-        <v>77</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-433298.515370178</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>88</v>
-      </c>
-      <c r="J85" t="n">
-        <v>88</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="C86" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="D86" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="E86" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="F86" t="n">
-        <v>399.5434</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-433698.0587701781</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>88</v>
-      </c>
-      <c r="J86" t="n">
-        <v>88</v>
-      </c>
-      <c r="K86" t="inlineStr">
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="C128" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="D128" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="E128" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>788.5557</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-621029.9762701781</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="J128" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="C129" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="D129" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="E129" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="F129" t="n">
+        <v>8</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-621021.9762701781</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="J129" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="C87" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="D87" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="E87" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="F87" t="n">
-        <v>5496.2846</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-433698.0587701781</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="J87" t="n">
-        <v>88</v>
-      </c>
-      <c r="K87" t="inlineStr">
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="C130" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="D130" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="E130" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="F130" t="n">
+        <v>386.5885</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-621021.9762701781</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="J130" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="C88" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="D88" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="E88" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="F88" t="n">
-        <v>5839.7208</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-439537.7795701781</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="J88" t="n">
-        <v>88</v>
-      </c>
-      <c r="K88" t="inlineStr">
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="C131" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="D131" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3130</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-617891.9762701781</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="J131" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="C132" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="D132" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="E132" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="F132" t="n">
+        <v>15.8964</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-617907.8726701781</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="J132" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>6</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-617901.8726701781</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="J133" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="C134" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="D134" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="E134" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2959.6541</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-617901.8726701781</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J134" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="C89" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="D89" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="E89" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="F89" t="n">
-        <v>9112.960300000001</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-430424.8192701781</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="J89" t="n">
-        <v>88</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="C90" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="D90" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="E90" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="F90" t="n">
-        <v>5.6948</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-430419.1244701781</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="J90" t="n">
-        <v>88</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="C91" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="D91" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="E91" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="F91" t="n">
-        <v>23775.0309</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-454194.1553701781</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="J91" t="n">
-        <v>88</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="C92" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="D92" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="E92" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1819.3524</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-452374.8029701781</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="J92" t="n">
-        <v>88</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>88</v>
-      </c>
-      <c r="C93" t="n">
-        <v>88</v>
-      </c>
-      <c r="D93" t="n">
-        <v>88</v>
-      </c>
-      <c r="E93" t="n">
-        <v>88</v>
-      </c>
-      <c r="F93" t="n">
-        <v>17104.5907</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-435270.2122701781</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="J93" t="n">
-        <v>88</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="C94" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="D94" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="E94" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="F94" t="n">
-        <v>500</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-435770.2122701781</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>88</v>
-      </c>
-      <c r="J94" t="n">
-        <v>88</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="C95" t="n">
-        <v>88</v>
-      </c>
-      <c r="D95" t="n">
-        <v>88</v>
-      </c>
-      <c r="E95" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="F95" t="n">
-        <v>12210.7608</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-423559.4514701781</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="J95" t="n">
-        <v>88</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>88</v>
-      </c>
-      <c r="C96" t="n">
-        <v>88</v>
-      </c>
-      <c r="D96" t="n">
-        <v>88</v>
-      </c>
-      <c r="E96" t="n">
-        <v>88</v>
-      </c>
-      <c r="F96" t="n">
-        <v>27.7056</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-423559.4514701781</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>88</v>
-      </c>
-      <c r="J96" t="n">
-        <v>88</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="C97" t="n">
-        <v>88</v>
-      </c>
-      <c r="D97" t="n">
-        <v>88</v>
-      </c>
-      <c r="E97" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1329.589</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-423559.4514701781</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>88</v>
-      </c>
-      <c r="J97" t="n">
-        <v>88</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>88</v>
-      </c>
-      <c r="C98" t="n">
-        <v>88</v>
-      </c>
-      <c r="D98" t="n">
-        <v>88</v>
-      </c>
-      <c r="E98" t="n">
-        <v>88</v>
-      </c>
-      <c r="F98" t="n">
-        <v>60.3475</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-423559.4514701781</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>88</v>
-      </c>
-      <c r="J98" t="n">
-        <v>88</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="C99" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="D99" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="E99" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="F99" t="n">
-        <v>141650.1689</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-281909.2825701782</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>88</v>
-      </c>
-      <c r="J99" t="n">
-        <v>88</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="C100" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="D100" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="E100" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="F100" t="n">
-        <v>336582.242</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-618491.5245701782</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="J100" t="n">
-        <v>88</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="C101" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="D101" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="E101" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="F101" t="n">
-        <v>927179.8245</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-618491.5245701782</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="J101" t="n">
-        <v>88</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="C102" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="D102" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="E102" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="F102" t="n">
-        <v>12.1577</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-618479.3668701783</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>88</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="C103" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="D103" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="E103" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="F103" t="n">
-        <v>843.8819</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-619323.2487701783</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>88</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="C104" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="D104" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="E104" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="F104" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-619317.5487701783</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="J104" t="n">
-        <v>88</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="C105" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="D105" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="E105" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="F105" t="n">
-        <v>6</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-619311.5487701783</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>88</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="C106" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="D106" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="E106" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="F106" t="n">
-        <v>88</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-619311.5487701783</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>88</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C107" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="D107" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="E107" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="F107" t="n">
-        <v>6</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-619305.5487701783</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>88</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="C108" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="D108" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="E108" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="F108" t="n">
-        <v>43.5401</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-619349.0888701783</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>88</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C109" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="D109" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="E109" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="F109" t="n">
-        <v>6</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-619343.0888701783</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>88</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C110" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="D110" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="E110" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="F110" t="n">
-        <v>387.5434</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-619343.0888701783</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>88</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C111" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="D111" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="E111" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="F111" t="n">
-        <v>100</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-619343.0888701783</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>88</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="C112" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="D112" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="E112" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="F112" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-619337.2888701783</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>88</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C113" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="D113" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="E113" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="F113" t="n">
-        <v>500</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-619837.2888701783</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>88</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="C114" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="D114" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="E114" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="F114" t="n">
-        <v>997.6404</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-618839.6484701782</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>88</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="C115" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="D115" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="E115" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="F115" t="n">
-        <v>6</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-618833.6484701782</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>88</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="C116" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="D116" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="E116" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="F116" t="n">
-        <v>931.3985</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-619765.0469701783</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>88</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C117" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="D117" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="E117" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="F117" t="n">
-        <v>956.9831</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-620722.0300701782</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>88</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C118" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="D118" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="E118" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="F118" t="n">
-        <v>2870.9493</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-623592.9793701782</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>88</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="C119" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="D119" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="E119" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="F119" t="n">
-        <v>3284.751</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-620308.2283701781</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="J119" t="n">
-        <v>88</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="C120" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="D120" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="E120" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="F120" t="n">
-        <v>9794.9593</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-620308.2283701781</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="J120" t="n">
-        <v>88</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>88</v>
-      </c>
-      <c r="C121" t="n">
-        <v>88</v>
-      </c>
-      <c r="D121" t="n">
-        <v>88</v>
-      </c>
-      <c r="E121" t="n">
-        <v>88</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1522.3036</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-621830.5319701781</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>88</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="C122" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="D122" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="E122" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="F122" t="n">
-        <v>6</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-621824.5319701781</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>88</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="C123" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="D123" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="E123" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="F123" t="n">
-        <v>88</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-621824.5319701781</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>88</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="C124" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="D124" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="E124" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="F124" t="n">
-        <v>6</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-621818.5319701781</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>88</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="C125" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="D125" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="E125" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="F125" t="n">
-        <v>118.4208</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-621818.5319701781</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>88</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="C126" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="D126" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="E126" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1188.4286</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-621818.5319701781</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>88</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="C127" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="D127" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="E127" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="F127" t="n">
-        <v>13.1396</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-621818.5319701781</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>88</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="C128" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="D128" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="E128" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="F128" t="n">
-        <v>788.5557</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-621029.9762701781</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>88</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="C129" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="D129" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="E129" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="F129" t="n">
-        <v>8</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-621021.9762701781</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>88</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="C130" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="D130" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="E130" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="F130" t="n">
-        <v>386.5885</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-621021.9762701781</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>88</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="C131" t="n">
-        <v>91.7</v>
-      </c>
-      <c r="D131" t="n">
-        <v>91.7</v>
-      </c>
-      <c r="E131" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="F131" t="n">
-        <v>3130</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-617891.9762701781</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>88</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="C132" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="D132" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="E132" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="F132" t="n">
-        <v>15.8964</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-617907.8726701781</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>88</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="C133" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="D133" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="E133" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="F133" t="n">
-        <v>6</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-617901.8726701781</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>88</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="C134" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="D134" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="E134" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="F134" t="n">
-        <v>2959.6541</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-617901.8726701781</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>88</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5214,11 +4928,13 @@
         <v>-617901.8726701781</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>90.2</v>
+      </c>
       <c r="J135" t="n">
-        <v>88</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5253,11 +4969,13 @@
         <v>-617901.8726701781</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>90.2</v>
+      </c>
       <c r="J136" t="n">
-        <v>88</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5292,11 +5010,13 @@
         <v>-617901.8726701781</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>90.2</v>
+      </c>
       <c r="J137" t="n">
-        <v>88</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5331,11 +5051,13 @@
         <v>-617895.8726701781</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>90.2</v>
+      </c>
       <c r="J138" t="n">
-        <v>88</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5370,11 +5092,13 @@
         <v>-617191.102270178</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>90.3</v>
+      </c>
       <c r="J139" t="n">
-        <v>88</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5409,11 +5133,13 @@
         <v>-616691.102270178</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>90.5</v>
+      </c>
       <c r="J140" t="n">
-        <v>88</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5448,11 +5174,13 @@
         <v>-616202.644970178</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>90.90000000000001</v>
+      </c>
       <c r="J141" t="n">
-        <v>88</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5487,11 +5215,13 @@
         <v>-615363.733870178</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>91</v>
+      </c>
       <c r="J142" t="n">
-        <v>88</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5526,11 +5256,13 @@
         <v>-615863.733870178</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>91.2</v>
+      </c>
       <c r="J143" t="n">
-        <v>88</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5565,11 +5297,13 @@
         <v>-615857.733870178</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>91.09999999999999</v>
+      </c>
       <c r="J144" t="n">
-        <v>88</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5604,11 +5338,13 @@
         <v>-637859.483570178</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>91.2</v>
+      </c>
       <c r="J145" t="n">
-        <v>88</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5643,11 +5379,13 @@
         <v>-637859.483570178</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>91</v>
+      </c>
       <c r="J146" t="n">
-        <v>88</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5682,11 +5420,13 @@
         <v>-637716.8099701781</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>91</v>
+      </c>
       <c r="J147" t="n">
-        <v>88</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5721,11 +5461,13 @@
         <v>-637716.8099701781</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>91.2</v>
+      </c>
       <c r="J148" t="n">
-        <v>88</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5760,11 +5502,13 @@
         <v>-637610.8099701781</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>91.2</v>
+      </c>
       <c r="J149" t="n">
-        <v>88</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5803,7 +5547,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>88</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5842,7 +5586,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>88</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5881,7 +5625,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>88</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5920,7 +5664,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>88</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5959,7 +5703,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>88</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5998,7 +5742,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>88</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6033,1341 +5777,1625 @@
         <v>-681937.7983917908</v>
       </c>
       <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="J156" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="C157" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="D157" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="E157" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3353.1856</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-678584.6127917909</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="J157" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="C158" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="D158" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="E158" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="F158" t="n">
+        <v>14563.7209</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-678584.6127917909</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="J158" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="E159" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="F159" t="n">
+        <v>500</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-678584.6127917909</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="J159" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="C160" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="D160" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="E160" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="F160" t="n">
+        <v>880.4348</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-677704.1779917908</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="J160" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="C161" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="D161" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="E161" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="F161" t="n">
+        <v>500</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-677704.1779917908</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="J161" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="C162" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="D162" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="E162" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="F162" t="n">
+        <v>500</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-677704.1779917908</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="J162" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="C163" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="D163" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="E163" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="F163" t="n">
+        <v>6</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-677698.1779917908</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="J163" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="C164" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="D164" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="E164" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="F164" t="n">
+        <v>315.8065</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-678013.9844917908</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="J164" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="C165" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="D165" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="E165" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-679513.9844917908</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="J165" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="C166" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="F166" t="n">
+        <v>6250.5053</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-673263.4791917908</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="J166" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="C167" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="D167" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="E167" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="F167" t="n">
+        <v>45095.5006</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-673263.4791917908</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="J167" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="C168" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="D168" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="E168" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="F168" t="n">
+        <v>25774.6723</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-673263.4791917908</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="J168" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="C169" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="D169" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="E169" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F169" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-668263.4791917908</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="J169" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="C170" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="D170" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="E170" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="F170" t="n">
+        <v>595.8434999999999</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-668263.4791917908</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="J170" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>93</v>
+      </c>
+      <c r="C171" t="n">
+        <v>93</v>
+      </c>
+      <c r="D171" t="n">
+        <v>93</v>
+      </c>
+      <c r="E171" t="n">
+        <v>93</v>
+      </c>
+      <c r="F171" t="n">
+        <v>100</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-668163.4791917908</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="J171" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>93</v>
+      </c>
+      <c r="C172" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="D172" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="E172" t="n">
+        <v>93</v>
+      </c>
+      <c r="F172" t="n">
+        <v>738</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-667425.4791917908</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>93</v>
+      </c>
+      <c r="J172" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="C173" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="D173" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="E173" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="F173" t="n">
+        <v>3408.451</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-667425.4791917908</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="J173" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="C174" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="D174" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="E174" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="F174" t="n">
+        <v>378.3784</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-667047.1007917908</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="J174" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="C175" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="D175" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="E175" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="F175" t="n">
+        <v>966.4829999999999</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-666080.6177917907</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="J175" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="C176" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="D176" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="E176" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F176" t="n">
+        <v>3948.9545</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-662131.6632917908</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="J176" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="C177" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="D177" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E177" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2563.2415</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-659568.4217917908</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="C178" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="D178" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E178" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="F178" t="n">
+        <v>32797.6191</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-692366.0408917908</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C179" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="D179" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E179" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F179" t="n">
+        <v>6</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-692360.0408917908</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="C180" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="D180" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="E180" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="F180" t="n">
+        <v>100</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-692460.0408917908</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C181" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="D181" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E181" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1909.2481</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-690550.7927917908</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C182" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="D182" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="E182" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3600.8414</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-686949.9513917908</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C183" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="D183" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E183" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="F183" t="n">
+        <v>9567.400600000001</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-696517.3519917908</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C184" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="D184" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="E184" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F184" t="n">
+        <v>4694.8414</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-691822.5105917908</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="C185" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="D185" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="E185" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="F185" t="n">
+        <v>3752.311</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-688070.1995917908</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="C186" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="D186" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="E186" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="F186" t="n">
+        <v>17586.6323</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-670483.5672917907</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>95</v>
+      </c>
+      <c r="C187" t="n">
+        <v>96</v>
+      </c>
+      <c r="D187" t="n">
+        <v>96</v>
+      </c>
+      <c r="E187" t="n">
+        <v>95</v>
+      </c>
+      <c r="F187" t="n">
+        <v>166</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-670317.5672917907</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>96</v>
+      </c>
+      <c r="C188" t="n">
+        <v>96</v>
+      </c>
+      <c r="D188" t="n">
+        <v>96</v>
+      </c>
+      <c r="E188" t="n">
+        <v>96</v>
+      </c>
+      <c r="F188" t="n">
+        <v>6</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-670317.5672917907</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>95</v>
+      </c>
+      <c r="C189" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="D189" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="E189" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="F189" t="n">
+        <v>5010</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-675327.5672917907</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>95</v>
+      </c>
+      <c r="C190" t="n">
+        <v>96</v>
+      </c>
+      <c r="D190" t="n">
+        <v>96</v>
+      </c>
+      <c r="E190" t="n">
+        <v>95</v>
+      </c>
+      <c r="F190" t="n">
+        <v>13883.1356</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-661444.4316917907</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>96</v>
+      </c>
+      <c r="C191" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="D191" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E191" t="n">
+        <v>96</v>
+      </c>
+      <c r="F191" t="n">
+        <v>6322.993</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-655121.4386917907</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="C192" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="D192" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E192" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="F192" t="n">
+        <v>5398.6874</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-649722.7512917906</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="C193" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="D193" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E193" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="F193" t="n">
+        <v>10045.9049</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-649722.7512917906</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="C194" t="n">
+        <v>97</v>
+      </c>
+      <c r="D194" t="n">
+        <v>97</v>
+      </c>
+      <c r="E194" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1627.7391</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-648095.0121917906</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>97</v>
+      </c>
+      <c r="C195" t="n">
+        <v>97</v>
+      </c>
+      <c r="D195" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E195" t="n">
+        <v>97</v>
+      </c>
+      <c r="F195" t="n">
+        <v>12875.9025</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-648095.0121917906</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="C196" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="D196" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="E196" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2197.8913</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-645897.1208917906</v>
+      </c>
+      <c r="H196" t="n">
         <v>2</v>
       </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>88</v>
-      </c>
-      <c r="K156" t="inlineStr">
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L156" t="n">
-        <v>1.041590909090909</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="C157" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="D157" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="E157" t="n">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="F157" t="n">
-        <v>3353.1856</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-678584.6127917909</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="C158" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="D158" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="E158" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="F158" t="n">
-        <v>14563.7209</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-678584.6127917909</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="C159" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="D159" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="E159" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="F159" t="n">
-        <v>500</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-678584.6127917909</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="C160" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="D160" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="E160" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="F160" t="n">
-        <v>880.4348</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-677704.1779917908</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="C161" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="D161" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="E161" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="F161" t="n">
-        <v>500</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-677704.1779917908</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="C162" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="D162" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="E162" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="F162" t="n">
-        <v>500</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-677704.1779917908</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="C163" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="D163" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="E163" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="F163" t="n">
-        <v>6</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-677698.1779917908</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="C164" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="D164" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="E164" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="F164" t="n">
-        <v>315.8065</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-678013.9844917908</v>
-      </c>
-      <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="C165" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="D165" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="E165" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-679513.9844917908</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="C166" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="D166" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="E166" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="F166" t="n">
-        <v>6250.5053</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-673263.4791917908</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="C167" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="D167" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="E167" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="F167" t="n">
-        <v>45095.5006</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-673263.4791917908</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="C168" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="D168" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="E168" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="F168" t="n">
-        <v>25774.6723</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-673263.4791917908</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="C169" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="D169" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="E169" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="F169" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-668263.4791917908</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="C170" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="D170" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="E170" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="F170" t="n">
-        <v>595.8434999999999</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-668263.4791917908</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>93</v>
-      </c>
-      <c r="C171" t="n">
-        <v>93</v>
-      </c>
-      <c r="D171" t="n">
-        <v>93</v>
-      </c>
-      <c r="E171" t="n">
-        <v>93</v>
-      </c>
-      <c r="F171" t="n">
-        <v>100</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-668163.4791917908</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>93</v>
-      </c>
-      <c r="C172" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="D172" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="E172" t="n">
-        <v>93</v>
-      </c>
-      <c r="F172" t="n">
-        <v>738</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-667425.4791917908</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="C173" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="D173" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="E173" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="F173" t="n">
-        <v>3408.451</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-667425.4791917908</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="C174" t="n">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="D174" t="n">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="E174" t="n">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="F174" t="n">
-        <v>378.3784</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-667047.1007917908</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="C175" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="D175" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="E175" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="F175" t="n">
-        <v>966.4829999999999</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-666080.6177917907</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="C176" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="D176" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="E176" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="F176" t="n">
-        <v>3948.9545</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-662131.6632917908</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="C177" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="D177" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="E177" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="F177" t="n">
-        <v>2563.2415</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-659568.4217917908</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="C178" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="D178" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="E178" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="F178" t="n">
-        <v>32797.6191</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-692366.0408917908</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="C179" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="D179" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="E179" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="F179" t="n">
-        <v>6</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-692360.0408917908</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>94.3</v>
-      </c>
-      <c r="C180" t="n">
-        <v>94.3</v>
-      </c>
-      <c r="D180" t="n">
-        <v>94.3</v>
-      </c>
-      <c r="E180" t="n">
-        <v>94.3</v>
-      </c>
-      <c r="F180" t="n">
-        <v>100</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-692460.0408917908</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="C181" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="D181" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="E181" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1909.2481</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-690550.7927917908</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="C182" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="D182" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="E182" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="F182" t="n">
-        <v>3600.8414</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-686949.9513917908</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="C183" t="n">
-        <v>94.3</v>
-      </c>
-      <c r="D183" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="E183" t="n">
-        <v>94.3</v>
-      </c>
-      <c r="F183" t="n">
-        <v>9567.400600000001</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-696517.3519917908</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="C184" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="D184" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="E184" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="F184" t="n">
-        <v>4694.8414</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-691822.5105917908</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="C185" t="n">
-        <v>94.8</v>
-      </c>
-      <c r="D185" t="n">
-        <v>94.8</v>
-      </c>
-      <c r="E185" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="F185" t="n">
-        <v>3752.311</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-688070.1995917908</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>94.8</v>
-      </c>
-      <c r="C186" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="D186" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="E186" t="n">
-        <v>94.8</v>
-      </c>
-      <c r="F186" t="n">
-        <v>17586.6323</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-670483.5672917907</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>95</v>
-      </c>
-      <c r="C187" t="n">
-        <v>96</v>
-      </c>
-      <c r="D187" t="n">
-        <v>96</v>
-      </c>
-      <c r="E187" t="n">
-        <v>95</v>
-      </c>
-      <c r="F187" t="n">
-        <v>166</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-670317.5672917907</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>96</v>
-      </c>
-      <c r="C188" t="n">
-        <v>96</v>
-      </c>
-      <c r="D188" t="n">
-        <v>96</v>
-      </c>
-      <c r="E188" t="n">
-        <v>96</v>
-      </c>
-      <c r="F188" t="n">
-        <v>6</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-670317.5672917907</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>95</v>
-      </c>
-      <c r="C189" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="D189" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="E189" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="F189" t="n">
-        <v>5010</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-675327.5672917907</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>95</v>
-      </c>
-      <c r="C190" t="n">
-        <v>96</v>
-      </c>
-      <c r="D190" t="n">
-        <v>96</v>
-      </c>
-      <c r="E190" t="n">
-        <v>95</v>
-      </c>
-      <c r="F190" t="n">
-        <v>13883.1356</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-661444.4316917907</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>96</v>
-      </c>
-      <c r="C191" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="D191" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="E191" t="n">
-        <v>96</v>
-      </c>
-      <c r="F191" t="n">
-        <v>6322.993</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-655121.4386917907</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="C192" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="D192" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="E192" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="F192" t="n">
-        <v>5398.6874</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-649722.7512917906</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="C193" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="D193" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="E193" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="F193" t="n">
-        <v>10045.9049</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-649722.7512917906</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="C194" t="n">
-        <v>97</v>
-      </c>
-      <c r="D194" t="n">
-        <v>97</v>
-      </c>
-      <c r="E194" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="F194" t="n">
-        <v>1627.7391</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-648095.0121917906</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>97</v>
-      </c>
-      <c r="C195" t="n">
-        <v>97</v>
-      </c>
-      <c r="D195" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="E195" t="n">
-        <v>97</v>
-      </c>
-      <c r="F195" t="n">
-        <v>12875.9025</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-648095.0121917906</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="C196" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="D196" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="E196" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="F196" t="n">
-        <v>2197.8913</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-645897.1208917906</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>1.092315436241611</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1.058688147295742</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7392,7 +7420,7 @@
         <v>-649989.9107917906</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7425,7 +7453,7 @@
         <v>-607859.9716917906</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7458,7 +7486,7 @@
         <v>-600852.5713917906</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7491,7 +7519,7 @@
         <v>-600852.5713917906</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7524,7 +7552,7 @@
         <v>-600852.5713917906</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7557,7 +7585,7 @@
         <v>-607050.0662917907</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7590,7 +7618,7 @@
         <v>-670505.9254917906</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7623,7 +7651,7 @@
         <v>-640384.0541917906</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7854,7 +7882,7 @@
         <v>-644739.1989917908</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -9207,7 +9235,7 @@
         <v>305047.1566082092</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9240,7 +9268,7 @@
         <v>305059.1082082092</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9273,7 +9301,7 @@
         <v>298357.9273082092</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9306,7 +9334,7 @@
         <v>297661.2783082093</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9339,7 +9367,7 @@
         <v>297661.2783082093</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9537,7 +9565,7 @@
         <v>299050.0891082092</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9570,7 +9598,7 @@
         <v>299050.0891082092</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9603,7 +9631,7 @@
         <v>299060.0891082092</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9636,7 +9664,7 @@
         <v>299054.0891082092</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9669,7 +9697,7 @@
         <v>299064.0891082092</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9702,7 +9730,7 @@
         <v>299422.1227082093</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9735,7 +9763,7 @@
         <v>299407.1563082093</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9768,7 +9796,7 @@
         <v>300319.9184082093</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9801,7 +9829,7 @@
         <v>301310.0958082093</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9834,7 +9862,7 @@
         <v>303612.5888082093</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9867,7 +9895,7 @@
         <v>303249.1412082093</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9900,7 +9928,7 @@
         <v>302737.5888082093</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9933,7 +9961,7 @@
         <v>303104.0809082093</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9966,7 +9994,7 @@
         <v>302741.9260082092</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9999,7 +10027,7 @@
         <v>302735.4767082093</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10032,7 +10060,7 @@
         <v>264796.5361082093</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10065,7 +10093,7 @@
         <v>267452.2294082093</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10098,7 +10126,7 @@
         <v>267452.2294082093</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10131,7 +10159,7 @@
         <v>267088.7818082093</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10164,7 +10192,7 @@
         <v>263277.2733082093</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10197,7 +10225,7 @@
         <v>263282.6733082093</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10230,7 +10258,7 @@
         <v>262916.1812082093</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10263,7 +10291,7 @@
         <v>213434.7244082093</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10296,7 +10324,7 @@
         <v>213484.7244082093</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10329,7 +10357,7 @@
         <v>213484.7244082093</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10362,7 +10390,7 @@
         <v>213490.2244082093</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10395,7 +10423,7 @@
         <v>213478.5425082093</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10428,7 +10456,7 @@
         <v>213097.4942082093</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10461,7 +10489,7 @@
         <v>209622.3686082093</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10527,7 +10555,7 @@
         <v>209564.2717082093</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10560,7 +10588,7 @@
         <v>209564.2717082093</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10593,7 +10621,7 @@
         <v>209569.7717082093</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10626,7 +10654,7 @@
         <v>209563.5899082093</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10791,7 +10819,7 @@
         <v>256349.5052411399</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10824,7 +10852,7 @@
         <v>256658.0167411398</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10857,7 +10885,7 @@
         <v>253212.4217411398</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10890,7 +10918,7 @@
         <v>252847.4582411398</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10923,7 +10951,7 @@
         <v>252847.4582411398</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10989,7 +11017,7 @@
         <v>252480.9661411398</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11022,7 +11050,7 @@
         <v>251388.5334411398</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11055,7 +11083,7 @@
         <v>251948.7313411398</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11088,7 +11116,7 @@
         <v>251941.7313411398</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11121,7 +11149,7 @@
         <v>249758.1360411398</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
